--- a/app/UAT-TEST-SET.xlsx
+++ b/app/UAT-TEST-SET.xlsx
@@ -18,7 +18,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -68,8 +68,12 @@
       <color rgb="00FFFFFF"/>
       <sz val="12"/>
     </font>
+    <font>
+      <b val="1"/>
+      <color rgb="00FFFFFF"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill/>
     </fill>
@@ -92,6 +96,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="002B5F8A"/>
         <bgColor rgb="002B5F8A"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="001F4E79"/>
+        <bgColor rgb="001F4E79"/>
       </patternFill>
     </fill>
   </fills>
@@ -172,7 +182,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -211,6 +221,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -611,7 +627,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I203"/>
+  <dimension ref="A1:K203"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
@@ -625,9 +641,10 @@
     <col width="40" customWidth="1" min="3" max="3"/>
     <col width="45" customWidth="1" min="4" max="4"/>
     <col width="10" customWidth="1" min="5" max="5"/>
-    <col width="30" customWidth="1" min="6" max="6"/>
+    <col width="12" customWidth="1" min="6" max="6"/>
     <col width="10" customWidth="1" min="7" max="7"/>
     <col width="32.33203125" customWidth="1" min="8" max="8"/>
+    <col width="12" customWidth="1" min="9" max="9"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -697,7 +714,7 @@
       <c r="C7" s="15" t="n"/>
       <c r="D7" s="15" t="n"/>
       <c r="E7" s="15" t="n"/>
-      <c r="F7" s="16" t="n"/>
+      <c r="G7" s="16" t="n"/>
     </row>
     <row r="8" ht="17" customHeight="1">
       <c r="A8" s="3" t="inlineStr">
@@ -725,14 +742,24 @@
           <t>Result</t>
         </is>
       </c>
-      <c r="F8" s="3" t="inlineStr">
+      <c r="F8" s="19" t="inlineStr">
+        <is>
+          <t>Date Tested</t>
+        </is>
+      </c>
+      <c r="G8" s="3" t="inlineStr">
         <is>
           <t>Notes</t>
         </is>
       </c>
-      <c r="G8" s="17" t="inlineStr">
+      <c r="H8" s="17" t="inlineStr">
         <is>
           <t>Retest</t>
+        </is>
+      </c>
+      <c r="I8" s="19" t="inlineStr">
+        <is>
+          <t>Retest Date</t>
         </is>
       </c>
     </row>
@@ -762,7 +789,8 @@
           <t>PASS</t>
         </is>
       </c>
-      <c r="F9" s="4" t="inlineStr">
+      <c r="F9" s="20" t="n"/>
+      <c r="G9" s="4" t="inlineStr">
         <is>
           <t>Initial Access Issue: First attempt loaded an old deployment. Cleared cache and reloaded — displayed correctly after that.
 UI Fixes Needed:
@@ -772,7 +800,8 @@
 4.  Tagline update — Change "Streamline setup for genetic testing programs" to "Streamline setup for EICI program."</t>
         </is>
       </c>
-      <c r="G9" s="18" t="n"/>
+      <c r="H9" s="18" t="n"/>
+      <c r="I9" s="20" t="n"/>
     </row>
     <row r="10" ht="105" customHeight="1">
       <c r="A10" s="4" t="inlineStr">
@@ -800,13 +829,15 @@
           <t>PASS</t>
         </is>
       </c>
-      <c r="F10" s="4" t="inlineStr">
+      <c r="F10" s="20" t="n"/>
+      <c r="G10" s="4" t="inlineStr">
         <is>
           <t>Test Actions Performed: Entered Providence email (glen.a.lewis@providence.org) and clicked "Send."
 Results:"Check your email for the Magic Link" confirmation displayed with green success message. PASS.</t>
         </is>
       </c>
-      <c r="G10" s="18" t="n"/>
+      <c r="H10" s="18" t="n"/>
+      <c r="I10" s="20" t="n"/>
     </row>
     <row r="11" ht="90" customHeight="1">
       <c r="A11" s="4" t="inlineStr">
@@ -834,12 +865,14 @@
           <t>PASS</t>
         </is>
       </c>
-      <c r="F11" s="4" t="inlineStr">
+      <c r="F11" s="20" t="n"/>
+      <c r="G11" s="4" t="inlineStr">
         <is>
           <t>Browser recognized incomplete email input and displayed prompts indicating what was required. Validation checked in real-time as each character was entered, continuing to flag the email as incomplete until fully formed. PASS.</t>
         </is>
       </c>
-      <c r="G11" s="18" t="n"/>
+      <c r="H11" s="18" t="n"/>
+      <c r="I11" s="20" t="n"/>
     </row>
     <row r="12" ht="409.6" customHeight="1">
       <c r="A12" s="4" t="inlineStr">
@@ -867,7 +900,8 @@
           <t>FAIL</t>
         </is>
       </c>
-      <c r="F12" s="4" t="inlineStr">
+      <c r="F12" s="20" t="n"/>
+      <c r="G12" s="4" t="inlineStr">
         <is>
           <t>Test Actions Performed: Completed full Magic Link sign-in flow after submitting email.
 Results:
@@ -886,8 +920,9 @@
 Actual: User is returned to the login page with no authentication.</t>
         </is>
       </c>
-      <c r="G12" s="18" t="n"/>
-      <c r="H12" s="13" t="inlineStr">
+      <c r="H12" s="18" t="n"/>
+      <c r="I12" s="20" t="n"/>
+      <c r="J12" s="13" t="inlineStr">
         <is>
           <t>UX Improvement: First-Time Double Sign-In Experience
 Priority: Medium
@@ -897,7 +932,7 @@
 2. If the double sign-in must stay — Add clear on-screen messaging after the user clicks "Confirm Email" explaining that they'll need to sign in one more time, and that a second email is on its way.</t>
         </is>
       </c>
-      <c r="I12" s="13" t="inlineStr">
+      <c r="K12" s="13" t="inlineStr">
         <is>
           <t>Test Case 1.3 (Continued): Magic Link Authentication — Existing User
 Test Actions Performed:
@@ -934,10 +969,15 @@
         </is>
       </c>
       <c r="E13" s="4" t="n"/>
-      <c r="F13" s="4" t="n"/>
-      <c r="G13" s="18" t="n"/>
-    </row>
-    <row r="14"/>
+      <c r="F13" s="20" t="n"/>
+      <c r="G13" s="4" t="n"/>
+      <c r="H13" s="18" t="n"/>
+      <c r="I13" s="20" t="n"/>
+    </row>
+    <row r="14">
+      <c r="F14" s="20" t="n"/>
+      <c r="I14" s="20" t="n"/>
+    </row>
     <row r="15" ht="17" customHeight="1">
       <c r="A15" s="11" t="inlineStr">
         <is>
@@ -948,7 +988,9 @@
       <c r="C15" s="15" t="n"/>
       <c r="D15" s="15" t="n"/>
       <c r="E15" s="15" t="n"/>
-      <c r="F15" s="16" t="n"/>
+      <c r="F15" s="20" t="n"/>
+      <c r="G15" s="16" t="n"/>
+      <c r="I15" s="20" t="n"/>
     </row>
     <row r="16" ht="17" customHeight="1">
       <c r="A16" s="3" t="inlineStr">
@@ -976,16 +1018,18 @@
           <t>Result</t>
         </is>
       </c>
-      <c r="F16" s="3" t="inlineStr">
+      <c r="F16" s="20" t="n"/>
+      <c r="G16" s="3" t="inlineStr">
         <is>
           <t>Notes</t>
         </is>
       </c>
-      <c r="G16" s="17" t="inlineStr">
+      <c r="H16" s="17" t="inlineStr">
         <is>
           <t>Retest</t>
         </is>
       </c>
+      <c r="I16" s="20" t="n"/>
     </row>
     <row r="17" ht="356" customHeight="1">
       <c r="A17" s="4" t="inlineStr">
@@ -1013,7 +1057,8 @@
           <t>PASS</t>
         </is>
       </c>
-      <c r="F17" s="4" t="inlineStr">
+      <c r="F17" s="20" t="n"/>
+      <c r="G17" s="4" t="inlineStr">
         <is>
           <t>UX Fixes — Providence Health Clinic Onboarding
 Remove "Providence" text from far left of header.
@@ -1025,7 +1070,8 @@
 Result: All programs appeared as expected. PASS.</t>
         </is>
       </c>
-      <c r="G17" s="18" t="n"/>
+      <c r="H17" s="18" t="n"/>
+      <c r="I17" s="20" t="n"/>
     </row>
     <row r="18">
       <c r="A18" s="4" t="inlineStr">
@@ -1053,8 +1099,10 @@
           <t>PASS</t>
         </is>
       </c>
-      <c r="F18" s="4" t="n"/>
-      <c r="G18" s="18" t="n"/>
+      <c r="F18" s="20" t="n"/>
+      <c r="G18" s="4" t="n"/>
+      <c r="H18" s="18" t="n"/>
+      <c r="I18" s="20" t="n"/>
     </row>
     <row r="19" ht="75" customHeight="1">
       <c r="A19" s="4" t="inlineStr">
@@ -1082,13 +1130,15 @@
           <t>PASS</t>
         </is>
       </c>
-      <c r="F19" s="4" t="inlineStr">
+      <c r="F19" s="20" t="n"/>
+      <c r="G19" s="4" t="inlineStr">
         <is>
           <t>Attempted to proceed without selecting a program. Clicked "Next."
 Form blocked progression. Selection box highlighted in red. Error message displayed: "Select Program is required."</t>
         </is>
       </c>
-      <c r="G19" s="18" t="n"/>
+      <c r="H19" s="18" t="n"/>
+      <c r="I19" s="20" t="n"/>
     </row>
     <row r="20" ht="75" customHeight="1">
       <c r="A20" s="4" t="inlineStr">
@@ -1116,15 +1166,20 @@
           <t>PASS</t>
         </is>
       </c>
-      <c r="F20" s="4" t="inlineStr">
+      <c r="F20" s="20" t="n"/>
+      <c r="G20" s="4" t="inlineStr">
         <is>
           <t>Selected Prevention4ME. Red highlight disappeared. Selection box returned to normal view with green outline. Clicked "Next."
 Successfully navigated to the next page.</t>
         </is>
       </c>
-      <c r="G20" s="18" t="n"/>
-    </row>
-    <row r="21"/>
+      <c r="H20" s="18" t="n"/>
+      <c r="I20" s="20" t="n"/>
+    </row>
+    <row r="21">
+      <c r="F21" s="20" t="n"/>
+      <c r="I21" s="20" t="n"/>
+    </row>
     <row r="22" ht="17" customHeight="1">
       <c r="A22" s="11" t="inlineStr">
         <is>
@@ -1135,7 +1190,9 @@
       <c r="C22" s="15" t="n"/>
       <c r="D22" s="15" t="n"/>
       <c r="E22" s="15" t="n"/>
-      <c r="F22" s="16" t="n"/>
+      <c r="F22" s="20" t="n"/>
+      <c r="G22" s="16" t="n"/>
+      <c r="I22" s="20" t="n"/>
     </row>
     <row r="23" ht="17" customHeight="1">
       <c r="A23" s="3" t="inlineStr">
@@ -1163,16 +1220,18 @@
           <t>Result</t>
         </is>
       </c>
-      <c r="F23" s="3" t="inlineStr">
+      <c r="F23" s="20" t="n"/>
+      <c r="G23" s="3" t="inlineStr">
         <is>
           <t>Notes</t>
         </is>
       </c>
-      <c r="G23" s="17" t="inlineStr">
+      <c r="H23" s="17" t="inlineStr">
         <is>
           <t>Retest</t>
         </is>
       </c>
+      <c r="I23" s="20" t="n"/>
     </row>
     <row r="24" ht="135" customHeight="1">
       <c r="A24" s="4" t="inlineStr">
@@ -1200,13 +1259,15 @@
           <t>PASS</t>
         </is>
       </c>
-      <c r="F24" s="4" t="inlineStr">
+      <c r="F24" s="20" t="n"/>
+      <c r="G24" s="4" t="inlineStr">
         <is>
           <t>Attempted to proceed without completing any required fields. Clicked "Next."
 Form blocked progression. All required fields highlighted in red with corresponding error messages: "Clinic Name is required," "Clinic EPIC ID is required," "Please complete all required address fields," "Timezone is required," "Clinic Office Phone Number is required."</t>
         </is>
       </c>
-      <c r="G24" s="18" t="n"/>
+      <c r="H24" s="18" t="n"/>
+      <c r="I24" s="20" t="n"/>
     </row>
     <row r="25">
       <c r="A25" s="4" t="inlineStr">
@@ -1234,8 +1295,10 @@
           <t>PASS</t>
         </is>
       </c>
-      <c r="F25" s="4" t="n"/>
-      <c r="G25" s="18" t="n"/>
+      <c r="F25" s="20" t="n"/>
+      <c r="G25" s="4" t="n"/>
+      <c r="H25" s="18" t="n"/>
+      <c r="I25" s="20" t="n"/>
     </row>
     <row r="26">
       <c r="A26" s="4" t="inlineStr">
@@ -1259,8 +1322,10 @@
         </is>
       </c>
       <c r="E26" s="4" t="n"/>
-      <c r="F26" s="4" t="n"/>
-      <c r="G26" s="18" t="n"/>
+      <c r="F26" s="20" t="n"/>
+      <c r="G26" s="4" t="n"/>
+      <c r="H26" s="18" t="n"/>
+      <c r="I26" s="20" t="n"/>
     </row>
     <row r="27">
       <c r="A27" s="4" t="inlineStr">
@@ -1288,12 +1353,14 @@
           <t>PASS</t>
         </is>
       </c>
-      <c r="F27" s="4" t="inlineStr">
+      <c r="F27" s="20" t="n"/>
+      <c r="G27" s="4" t="inlineStr">
         <is>
           <t>12345 (for DB reconcillation)</t>
         </is>
       </c>
-      <c r="G27" s="18" t="n"/>
+      <c r="H27" s="18" t="n"/>
+      <c r="I27" s="20" t="n"/>
     </row>
     <row r="28" ht="30" customHeight="1">
       <c r="A28" s="4" t="inlineStr">
@@ -1321,12 +1388,14 @@
           <t>PASS</t>
         </is>
       </c>
-      <c r="F28" s="4" t="inlineStr">
+      <c r="F28" s="20" t="n"/>
+      <c r="G28" s="4" t="inlineStr">
         <is>
           <t>123 Any Street, Auburn CA (for DB reconcillation)</t>
         </is>
       </c>
-      <c r="G28" s="18" t="n"/>
+      <c r="H28" s="18" t="n"/>
+      <c r="I28" s="20" t="n"/>
     </row>
     <row r="29">
       <c r="A29" s="4" t="inlineStr">
@@ -1354,8 +1423,10 @@
           <t>PASS</t>
         </is>
       </c>
-      <c r="F29" s="4" t="n"/>
-      <c r="G29" s="18" t="n"/>
+      <c r="F29" s="20" t="n"/>
+      <c r="G29" s="4" t="n"/>
+      <c r="H29" s="18" t="n"/>
+      <c r="I29" s="20" t="n"/>
     </row>
     <row r="30" ht="64" customHeight="1">
       <c r="A30" s="4" t="inlineStr">
@@ -1383,12 +1454,14 @@
           <t>PASS</t>
         </is>
       </c>
-      <c r="F30" s="13" t="inlineStr">
+      <c r="F30" s="20" t="n"/>
+      <c r="G30" s="13" t="inlineStr">
         <is>
           <t>Entered a 4-digit zip code. Zip code field remained red. Entire address box remained outlined in red. Could not proceed to next page.</t>
         </is>
       </c>
-      <c r="G30" s="18" t="n"/>
+      <c r="H30" s="18" t="n"/>
+      <c r="I30" s="20" t="n"/>
     </row>
     <row r="31">
       <c r="A31" s="4" t="inlineStr">
@@ -1416,12 +1489,14 @@
           <t>PASS</t>
         </is>
       </c>
-      <c r="F31" s="4" t="inlineStr">
+      <c r="F31" s="20" t="n"/>
+      <c r="G31" s="4" t="inlineStr">
         <is>
           <t>97201 (for DB reconsillation)</t>
         </is>
       </c>
-      <c r="G31" s="18" t="n"/>
+      <c r="H31" s="18" t="n"/>
+      <c r="I31" s="20" t="n"/>
     </row>
     <row r="32" ht="30" customHeight="1">
       <c r="A32" s="4" t="inlineStr">
@@ -1449,12 +1524,14 @@
           <t>PASS</t>
         </is>
       </c>
-      <c r="F32" s="4" t="inlineStr">
+      <c r="F32" s="20" t="n"/>
+      <c r="G32" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">Pacific (for DB reconcillation) </t>
         </is>
       </c>
-      <c r="G32" s="18" t="n"/>
+      <c r="H32" s="18" t="n"/>
+      <c r="I32" s="20" t="n"/>
     </row>
     <row r="33" ht="45" customHeight="1">
       <c r="A33" s="4" t="inlineStr">
@@ -1482,12 +1559,14 @@
           <t>PASS</t>
         </is>
       </c>
-      <c r="F33" s="4" t="inlineStr">
+      <c r="F33" s="20" t="n"/>
+      <c r="G33" s="4" t="inlineStr">
         <is>
           <t>Entered partial phone number (555-123). Phone number field remained highlighted in red. Could not proceed to next page.</t>
         </is>
       </c>
-      <c r="G33" s="18" t="n"/>
+      <c r="H33" s="18" t="n"/>
+      <c r="I33" s="20" t="n"/>
     </row>
     <row r="34">
       <c r="A34" s="4" t="inlineStr">
@@ -1515,12 +1594,14 @@
           <t>PASS</t>
         </is>
       </c>
-      <c r="F34" s="4" t="inlineStr">
+      <c r="F34" s="20" t="n"/>
+      <c r="G34" s="4" t="inlineStr">
         <is>
           <t>555-123-4567 (for DB reconcillation)</t>
         </is>
       </c>
-      <c r="G34" s="18" t="n"/>
+      <c r="H34" s="18" t="n"/>
+      <c r="I34" s="20" t="n"/>
     </row>
     <row r="35" ht="30" customHeight="1">
       <c r="A35" s="4" t="inlineStr">
@@ -1548,8 +1629,10 @@
           <t>PASS</t>
         </is>
       </c>
-      <c r="F35" s="4" t="n"/>
-      <c r="G35" s="18" t="n"/>
+      <c r="F35" s="20" t="n"/>
+      <c r="G35" s="4" t="n"/>
+      <c r="H35" s="18" t="n"/>
+      <c r="I35" s="20" t="n"/>
     </row>
     <row r="36" ht="30" customHeight="1">
       <c r="A36" s="4" t="inlineStr">
@@ -1577,8 +1660,10 @@
           <t>PASS</t>
         </is>
       </c>
-      <c r="F36" s="4" t="n"/>
-      <c r="G36" s="18" t="n"/>
+      <c r="F36" s="20" t="n"/>
+      <c r="G36" s="4" t="n"/>
+      <c r="H36" s="18" t="n"/>
+      <c r="I36" s="20" t="n"/>
     </row>
     <row r="37" ht="45" customHeight="1">
       <c r="A37" s="4" t="inlineStr">
@@ -1606,12 +1691,14 @@
           <t>PASS</t>
         </is>
       </c>
-      <c r="F37" s="4" t="inlineStr">
+      <c r="F37" s="20" t="n"/>
+      <c r="G37" s="4" t="inlineStr">
         <is>
           <t>Entered partial phone number (555-123). Phone number field remained highlighted in red. Could not proceed to next page.</t>
         </is>
       </c>
-      <c r="G37" s="18" t="n"/>
+      <c r="H37" s="18" t="n"/>
+      <c r="I37" s="20" t="n"/>
     </row>
     <row r="38">
       <c r="A38" s="4" t="inlineStr">
@@ -1639,8 +1726,10 @@
           <t>PASS</t>
         </is>
       </c>
-      <c r="F38" s="4" t="n"/>
-      <c r="G38" s="18" t="n"/>
+      <c r="F38" s="20" t="n"/>
+      <c r="G38" s="4" t="n"/>
+      <c r="H38" s="18" t="n"/>
+      <c r="I38" s="20" t="n"/>
     </row>
     <row r="39" ht="30" customHeight="1">
       <c r="A39" s="4" t="inlineStr">
@@ -1668,8 +1757,10 @@
           <t>PASS</t>
         </is>
       </c>
-      <c r="F39" s="4" t="n"/>
-      <c r="G39" s="18" t="n"/>
+      <c r="F39" s="20" t="n"/>
+      <c r="G39" s="4" t="n"/>
+      <c r="H39" s="18" t="n"/>
+      <c r="I39" s="20" t="n"/>
     </row>
     <row r="40" ht="30" customHeight="1">
       <c r="A40" s="4" t="inlineStr">
@@ -1697,10 +1788,15 @@
           <t>PASS</t>
         </is>
       </c>
-      <c r="F40" s="4" t="n"/>
-      <c r="G40" s="18" t="n"/>
-    </row>
-    <row r="41"/>
+      <c r="F40" s="20" t="n"/>
+      <c r="G40" s="4" t="n"/>
+      <c r="H40" s="18" t="n"/>
+      <c r="I40" s="20" t="n"/>
+    </row>
+    <row r="41">
+      <c r="F41" s="20" t="n"/>
+      <c r="I41" s="20" t="n"/>
+    </row>
     <row r="42" ht="17" customHeight="1">
       <c r="A42" s="11" t="inlineStr">
         <is>
@@ -1711,7 +1807,9 @@
       <c r="C42" s="15" t="n"/>
       <c r="D42" s="15" t="n"/>
       <c r="E42" s="15" t="n"/>
-      <c r="F42" s="16" t="n"/>
+      <c r="F42" s="20" t="n"/>
+      <c r="G42" s="16" t="n"/>
+      <c r="I42" s="20" t="n"/>
     </row>
     <row r="43" ht="17" customHeight="1">
       <c r="A43" s="3" t="inlineStr">
@@ -1739,16 +1837,18 @@
           <t>Result</t>
         </is>
       </c>
-      <c r="F43" s="3" t="inlineStr">
+      <c r="F43" s="20" t="n"/>
+      <c r="G43" s="3" t="inlineStr">
         <is>
           <t>Notes</t>
         </is>
       </c>
-      <c r="G43" s="17" t="inlineStr">
+      <c r="H43" s="17" t="inlineStr">
         <is>
           <t>Retest</t>
         </is>
       </c>
+      <c r="I43" s="20" t="n"/>
     </row>
     <row r="44" ht="30" customHeight="1">
       <c r="A44" s="4" t="inlineStr">
@@ -1776,8 +1876,10 @@
           <t>PASS</t>
         </is>
       </c>
-      <c r="F44" s="4" t="n"/>
-      <c r="G44" s="18" t="n"/>
+      <c r="F44" s="20" t="n"/>
+      <c r="G44" s="4" t="n"/>
+      <c r="H44" s="18" t="n"/>
+      <c r="I44" s="20" t="n"/>
     </row>
     <row r="45" ht="80" customHeight="1">
       <c r="A45" s="4" t="inlineStr">
@@ -1805,12 +1907,14 @@
           <t>PASS</t>
         </is>
       </c>
-      <c r="F45" s="13" t="inlineStr">
+      <c r="F45" s="20" t="n"/>
+      <c r="G45" s="13" t="inlineStr">
         <is>
           <t>Left all contact fields blank (covers sub-tests 4.2, 4.8, 4.9). Attempted to navigate to next page. All fields highlighted in red as required. Could not proceed.</t>
         </is>
       </c>
-      <c r="G45" s="18" t="n"/>
+      <c r="H45" s="18" t="n"/>
+      <c r="I45" s="20" t="n"/>
     </row>
     <row r="46">
       <c r="A46" s="4" t="inlineStr">
@@ -1838,12 +1942,14 @@
           <t>PASS</t>
         </is>
       </c>
-      <c r="F46" s="4" t="inlineStr">
+      <c r="F46" s="20" t="n"/>
+      <c r="G46" s="4" t="inlineStr">
         <is>
           <t>Jane Smith (for DB reconcillation)</t>
         </is>
       </c>
-      <c r="G46" s="18" t="n"/>
+      <c r="H46" s="18" t="n"/>
+      <c r="I46" s="20" t="n"/>
     </row>
     <row r="47" ht="64" customHeight="1">
       <c r="A47" s="4" t="inlineStr">
@@ -1871,12 +1977,14 @@
           <t>PASS</t>
         </is>
       </c>
-      <c r="F47" s="13" t="inlineStr">
+      <c r="F47" s="20" t="n"/>
+      <c r="G47" s="13" t="inlineStr">
         <is>
           <t>Entered improperly formatted email. Form blocked navigation to next page until a properly formatted email was entered.</t>
         </is>
       </c>
-      <c r="G47" s="18" t="n"/>
+      <c r="H47" s="18" t="n"/>
+      <c r="I47" s="20" t="n"/>
     </row>
     <row r="48" ht="195" customHeight="1">
       <c r="A48" s="4" t="inlineStr">
@@ -1904,14 +2012,16 @@
           <t>PASS</t>
         </is>
       </c>
-      <c r="F48" s="4" t="inlineStr">
+      <c r="F48" s="20" t="n"/>
+      <c r="G48" s="4" t="inlineStr">
         <is>
           <t>Entered incomplete phone number. Form blocked navigation to next page.
 PASS — but with UX issue noted below.     UX Improvement — Phone Number Error Indicator
 When an incomplete phone number is entered, the form correctly blocks navigation but does not highlight the phone number field as an error. While the field may not be required, if the format is invalid, there should be a visual indication that it needs correction. Currently the user has no feedback on what's blocking them.</t>
         </is>
       </c>
-      <c r="G48" s="18" t="n"/>
+      <c r="H48" s="18" t="n"/>
+      <c r="I48" s="20" t="n"/>
     </row>
     <row r="49" ht="30" customHeight="1">
       <c r="A49" s="4" t="inlineStr">
@@ -1939,8 +2049,10 @@
           <t>PASS</t>
         </is>
       </c>
-      <c r="F49" s="4" t="n"/>
-      <c r="G49" s="18" t="n"/>
+      <c r="F49" s="20" t="n"/>
+      <c r="G49" s="4" t="n"/>
+      <c r="H49" s="18" t="n"/>
+      <c r="I49" s="20" t="n"/>
     </row>
     <row r="50" ht="30" customHeight="1">
       <c r="A50" s="4" t="inlineStr">
@@ -1968,8 +2080,10 @@
           <t>PASS</t>
         </is>
       </c>
-      <c r="F50" s="4" t="n"/>
-      <c r="G50" s="18" t="n"/>
+      <c r="F50" s="20" t="n"/>
+      <c r="G50" s="4" t="n"/>
+      <c r="H50" s="18" t="n"/>
+      <c r="I50" s="20" t="n"/>
     </row>
     <row r="51" ht="80" customHeight="1">
       <c r="A51" s="4" t="inlineStr">
@@ -1997,12 +2111,14 @@
           <t>PASS</t>
         </is>
       </c>
-      <c r="F51" s="14" t="inlineStr">
+      <c r="F51" s="20" t="n"/>
+      <c r="G51" s="14" t="inlineStr">
         <is>
           <t>Left all contact fields blank (covers sub-tests 4.2, 4.8, 4.9). Attempted to navigate to next page. All fields highlighted in red as required. Could not proceed.</t>
         </is>
       </c>
-      <c r="G51" s="18" t="n"/>
+      <c r="H51" s="18" t="n"/>
+      <c r="I51" s="20" t="n"/>
     </row>
     <row r="52" ht="96" customHeight="1">
       <c r="A52" s="4" t="inlineStr">
@@ -2030,12 +2146,14 @@
           <t>PASS</t>
         </is>
       </c>
-      <c r="F52" s="14" t="inlineStr">
+      <c r="F52" s="20" t="n"/>
+      <c r="G52" s="14" t="inlineStr">
         <is>
           <t>Left all contact fields blank (covers sub-tests 4.2, 4.8, 4.9). Attempted to navigate to next page. All fields highlighted in red as required. Could not proceed. Jon Doe (for DB reconcillation)</t>
         </is>
       </c>
-      <c r="G52" s="18" t="n"/>
+      <c r="H52" s="18" t="n"/>
+      <c r="I52" s="20" t="n"/>
     </row>
     <row r="53" ht="30" customHeight="1">
       <c r="A53" s="4" t="inlineStr">
@@ -2063,8 +2181,10 @@
           <t>PASS</t>
         </is>
       </c>
-      <c r="F53" s="4" t="n"/>
-      <c r="G53" s="18" t="n"/>
+      <c r="F53" s="20" t="n"/>
+      <c r="G53" s="4" t="n"/>
+      <c r="H53" s="18" t="n"/>
+      <c r="I53" s="20" t="n"/>
     </row>
     <row r="54" ht="30" customHeight="1">
       <c r="A54" s="4" t="inlineStr">
@@ -2092,8 +2212,10 @@
           <t>PASS</t>
         </is>
       </c>
-      <c r="F54" s="4" t="n"/>
-      <c r="G54" s="18" t="n"/>
+      <c r="F54" s="20" t="n"/>
+      <c r="G54" s="4" t="n"/>
+      <c r="H54" s="18" t="n"/>
+      <c r="I54" s="20" t="n"/>
     </row>
     <row r="55">
       <c r="A55" s="4" t="inlineStr">
@@ -2121,10 +2243,15 @@
           <t>PASS</t>
         </is>
       </c>
-      <c r="F55" s="4" t="n"/>
-      <c r="G55" s="18" t="n"/>
-    </row>
-    <row r="56"/>
+      <c r="F55" s="20" t="n"/>
+      <c r="G55" s="4" t="n"/>
+      <c r="H55" s="18" t="n"/>
+      <c r="I55" s="20" t="n"/>
+    </row>
+    <row r="56">
+      <c r="F56" s="20" t="n"/>
+      <c r="I56" s="20" t="n"/>
+    </row>
     <row r="57" ht="17" customHeight="1">
       <c r="A57" s="11" t="inlineStr">
         <is>
@@ -2135,7 +2262,9 @@
       <c r="C57" s="15" t="n"/>
       <c r="D57" s="15" t="n"/>
       <c r="E57" s="15" t="n"/>
-      <c r="F57" s="16" t="n"/>
+      <c r="F57" s="20" t="n"/>
+      <c r="G57" s="16" t="n"/>
+      <c r="I57" s="20" t="n"/>
     </row>
     <row r="58" ht="17" customHeight="1">
       <c r="A58" s="3" t="inlineStr">
@@ -2163,16 +2292,18 @@
           <t>Result</t>
         </is>
       </c>
-      <c r="F58" s="3" t="inlineStr">
+      <c r="F58" s="20" t="n"/>
+      <c r="G58" s="3" t="inlineStr">
         <is>
           <t>Notes</t>
         </is>
       </c>
-      <c r="G58" s="17" t="inlineStr">
+      <c r="H58" s="17" t="inlineStr">
         <is>
           <t>Retest</t>
         </is>
       </c>
+      <c r="I58" s="20" t="n"/>
     </row>
     <row r="59" ht="30" customHeight="1">
       <c r="A59" s="4" t="inlineStr">
@@ -2200,12 +2331,14 @@
           <t>PASS</t>
         </is>
       </c>
-      <c r="F59" s="4" t="inlineStr">
+      <c r="F59" s="20" t="n"/>
+      <c r="G59" s="4" t="inlineStr">
         <is>
           <t>All fields displayed properly. Able to navigate to next page.</t>
         </is>
       </c>
-      <c r="G59" s="18" t="n"/>
+      <c r="H59" s="18" t="n"/>
+      <c r="I59" s="20" t="n"/>
     </row>
     <row r="60" ht="30" customHeight="1">
       <c r="A60" s="4" t="inlineStr">
@@ -2233,12 +2366,14 @@
           <t>PASS</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
+      <c r="F60" s="20" t="n"/>
+      <c r="G60" t="inlineStr">
         <is>
           <t>All stakeholder groups rendered correctly.</t>
         </is>
       </c>
-      <c r="G60" s="18" t="n"/>
+      <c r="H60" s="18" t="n"/>
+      <c r="I60" s="20" t="n"/>
     </row>
     <row r="61" ht="195" customHeight="1">
       <c r="A61" s="4" t="inlineStr">
@@ -2266,13 +2401,15 @@
           <t>PASS</t>
         </is>
       </c>
-      <c r="F61" s="4" t="inlineStr">
+      <c r="F61" s="20" t="n"/>
+      <c r="G61" s="4" t="inlineStr">
         <is>
           <t>Email and phone number fields validated properly. Could not navigate to next page without properly formatted email or phone number.
 PASS — but with UX issue noted below.  Same behavior as previous contact section. When clicking "Next" with an improperly formatted email or phone number, the form blocks navigation but provides no visual indication of which field is causing the issue. No error highlighting, helper icon, or tooltip appears. User must scroll to top to manually identify the problem.</t>
         </is>
       </c>
-      <c r="G61" s="18" t="n"/>
+      <c r="H61" s="18" t="n"/>
+      <c r="I61" s="20" t="n"/>
     </row>
     <row r="62" ht="30" customHeight="1">
       <c r="A62" s="4" t="inlineStr">
@@ -2296,14 +2433,19 @@
         </is>
       </c>
       <c r="E62" s="4" t="n"/>
-      <c r="F62" s="4" t="inlineStr">
+      <c r="F62" s="20" t="n"/>
+      <c r="G62" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">Robert Mill (for db reconcillaiton) check as ordering provider. </t>
         </is>
       </c>
-      <c r="G62" s="18" t="n"/>
-    </row>
-    <row r="63"/>
+      <c r="H62" s="18" t="n"/>
+      <c r="I62" s="20" t="n"/>
+    </row>
+    <row r="63">
+      <c r="F63" s="20" t="n"/>
+      <c r="I63" s="20" t="n"/>
+    </row>
     <row r="64" ht="17" customHeight="1">
       <c r="A64" s="11" t="inlineStr">
         <is>
@@ -2314,7 +2456,9 @@
       <c r="C64" s="15" t="n"/>
       <c r="D64" s="15" t="n"/>
       <c r="E64" s="15" t="n"/>
-      <c r="F64" s="16" t="n"/>
+      <c r="F64" s="20" t="n"/>
+      <c r="G64" s="16" t="n"/>
+      <c r="I64" s="20" t="n"/>
     </row>
     <row r="65" ht="17" customHeight="1">
       <c r="A65" s="3" t="inlineStr">
@@ -2342,16 +2486,18 @@
           <t>Result</t>
         </is>
       </c>
-      <c r="F65" s="3" t="inlineStr">
+      <c r="F65" s="20" t="n"/>
+      <c r="G65" s="3" t="inlineStr">
         <is>
           <t>Notes</t>
         </is>
       </c>
-      <c r="G65" s="17" t="inlineStr">
+      <c r="H65" s="17" t="inlineStr">
         <is>
           <t>Retest</t>
         </is>
       </c>
+      <c r="I65" s="20" t="n"/>
     </row>
     <row r="66">
       <c r="A66" s="4" t="inlineStr">
@@ -2375,8 +2521,10 @@
         </is>
       </c>
       <c r="E66" s="4" t="n"/>
-      <c r="F66" s="4" t="n"/>
-      <c r="G66" s="18" t="n"/>
+      <c r="F66" s="20" t="n"/>
+      <c r="G66" s="4" t="n"/>
+      <c r="H66" s="18" t="n"/>
+      <c r="I66" s="20" t="n"/>
     </row>
     <row r="67">
       <c r="A67" s="4" t="inlineStr">
@@ -2400,8 +2548,10 @@
         </is>
       </c>
       <c r="E67" s="4" t="n"/>
-      <c r="F67" s="4" t="n"/>
-      <c r="G67" s="18" t="n"/>
+      <c r="F67" s="20" t="n"/>
+      <c r="G67" s="4" t="n"/>
+      <c r="H67" s="18" t="n"/>
+      <c r="I67" s="20" t="n"/>
     </row>
     <row r="68" ht="30" customHeight="1">
       <c r="A68" s="4" t="inlineStr">
@@ -2425,8 +2575,10 @@
         </is>
       </c>
       <c r="E68" s="4" t="n"/>
-      <c r="F68" s="4" t="n"/>
-      <c r="G68" s="18" t="n"/>
+      <c r="F68" s="20" t="n"/>
+      <c r="G68" s="4" t="n"/>
+      <c r="H68" s="18" t="n"/>
+      <c r="I68" s="20" t="n"/>
     </row>
     <row r="69" ht="30" customHeight="1">
       <c r="A69" s="4" t="inlineStr">
@@ -2450,8 +2602,10 @@
         </is>
       </c>
       <c r="E69" s="4" t="n"/>
-      <c r="F69" s="4" t="n"/>
-      <c r="G69" s="18" t="n"/>
+      <c r="F69" s="20" t="n"/>
+      <c r="G69" s="4" t="n"/>
+      <c r="H69" s="18" t="n"/>
+      <c r="I69" s="20" t="n"/>
     </row>
     <row r="70">
       <c r="A70" s="4" t="inlineStr">
@@ -2475,8 +2629,10 @@
         </is>
       </c>
       <c r="E70" s="4" t="n"/>
-      <c r="F70" s="4" t="n"/>
-      <c r="G70" s="18" t="n"/>
+      <c r="F70" s="20" t="n"/>
+      <c r="G70" s="4" t="n"/>
+      <c r="H70" s="18" t="n"/>
+      <c r="I70" s="20" t="n"/>
     </row>
     <row r="71" ht="30" customHeight="1">
       <c r="A71" s="4" t="inlineStr">
@@ -2500,8 +2656,10 @@
         </is>
       </c>
       <c r="E71" s="4" t="n"/>
-      <c r="F71" s="4" t="n"/>
-      <c r="G71" s="18" t="n"/>
+      <c r="F71" s="20" t="n"/>
+      <c r="G71" s="4" t="n"/>
+      <c r="H71" s="18" t="n"/>
+      <c r="I71" s="20" t="n"/>
     </row>
     <row r="72">
       <c r="A72" s="4" t="inlineStr">
@@ -2525,8 +2683,10 @@
         </is>
       </c>
       <c r="E72" s="4" t="n"/>
-      <c r="F72" s="4" t="n"/>
-      <c r="G72" s="18" t="n"/>
+      <c r="F72" s="20" t="n"/>
+      <c r="G72" s="4" t="n"/>
+      <c r="H72" s="18" t="n"/>
+      <c r="I72" s="20" t="n"/>
     </row>
     <row r="73">
       <c r="A73" s="4" t="inlineStr">
@@ -2550,8 +2710,10 @@
         </is>
       </c>
       <c r="E73" s="4" t="n"/>
-      <c r="F73" s="4" t="n"/>
-      <c r="G73" s="18" t="n"/>
+      <c r="F73" s="20" t="n"/>
+      <c r="G73" s="4" t="n"/>
+      <c r="H73" s="18" t="n"/>
+      <c r="I73" s="20" t="n"/>
     </row>
     <row r="74">
       <c r="A74" s="4" t="inlineStr">
@@ -2575,8 +2737,10 @@
         </is>
       </c>
       <c r="E74" s="4" t="n"/>
-      <c r="F74" s="4" t="n"/>
-      <c r="G74" s="18" t="n"/>
+      <c r="F74" s="20" t="n"/>
+      <c r="G74" s="4" t="n"/>
+      <c r="H74" s="18" t="n"/>
+      <c r="I74" s="20" t="n"/>
     </row>
     <row r="75">
       <c r="A75" s="4" t="inlineStr">
@@ -2600,8 +2764,10 @@
         </is>
       </c>
       <c r="E75" s="4" t="n"/>
-      <c r="F75" s="4" t="n"/>
-      <c r="G75" s="18" t="n"/>
+      <c r="F75" s="20" t="n"/>
+      <c r="G75" s="4" t="n"/>
+      <c r="H75" s="18" t="n"/>
+      <c r="I75" s="20" t="n"/>
     </row>
     <row r="76" ht="30" customHeight="1">
       <c r="A76" s="4" t="inlineStr">
@@ -2625,8 +2791,10 @@
         </is>
       </c>
       <c r="E76" s="4" t="n"/>
-      <c r="F76" s="4" t="n"/>
-      <c r="G76" s="18" t="n"/>
+      <c r="F76" s="20" t="n"/>
+      <c r="G76" s="4" t="n"/>
+      <c r="H76" s="18" t="n"/>
+      <c r="I76" s="20" t="n"/>
     </row>
     <row r="77">
       <c r="A77" s="4" t="inlineStr">
@@ -2650,8 +2818,10 @@
         </is>
       </c>
       <c r="E77" s="4" t="n"/>
-      <c r="F77" s="4" t="n"/>
-      <c r="G77" s="18" t="n"/>
+      <c r="F77" s="20" t="n"/>
+      <c r="G77" s="4" t="n"/>
+      <c r="H77" s="18" t="n"/>
+      <c r="I77" s="20" t="n"/>
     </row>
     <row r="78">
       <c r="A78" s="4" t="inlineStr">
@@ -2675,8 +2845,10 @@
         </is>
       </c>
       <c r="E78" s="4" t="n"/>
-      <c r="F78" s="4" t="n"/>
-      <c r="G78" s="18" t="n"/>
+      <c r="F78" s="20" t="n"/>
+      <c r="G78" s="4" t="n"/>
+      <c r="H78" s="18" t="n"/>
+      <c r="I78" s="20" t="n"/>
     </row>
     <row r="79">
       <c r="A79" s="4" t="inlineStr">
@@ -2700,8 +2872,10 @@
         </is>
       </c>
       <c r="E79" s="4" t="n"/>
-      <c r="F79" s="4" t="n"/>
-      <c r="G79" s="18" t="n"/>
+      <c r="F79" s="20" t="n"/>
+      <c r="G79" s="4" t="n"/>
+      <c r="H79" s="18" t="n"/>
+      <c r="I79" s="20" t="n"/>
     </row>
     <row r="80">
       <c r="A80" s="4" t="inlineStr">
@@ -2725,8 +2899,10 @@
         </is>
       </c>
       <c r="E80" s="4" t="n"/>
-      <c r="F80" s="4" t="n"/>
-      <c r="G80" s="18" t="n"/>
+      <c r="F80" s="20" t="n"/>
+      <c r="G80" s="4" t="n"/>
+      <c r="H80" s="18" t="n"/>
+      <c r="I80" s="20" t="n"/>
     </row>
     <row r="81">
       <c r="A81" s="4" t="inlineStr">
@@ -2750,8 +2926,10 @@
         </is>
       </c>
       <c r="E81" s="4" t="n"/>
-      <c r="F81" s="4" t="n"/>
-      <c r="G81" s="18" t="n"/>
+      <c r="F81" s="20" t="n"/>
+      <c r="G81" s="4" t="n"/>
+      <c r="H81" s="18" t="n"/>
+      <c r="I81" s="20" t="n"/>
     </row>
     <row r="82">
       <c r="A82" s="4" t="inlineStr">
@@ -2775,8 +2953,10 @@
         </is>
       </c>
       <c r="E82" s="4" t="n"/>
-      <c r="F82" s="4" t="n"/>
-      <c r="G82" s="18" t="n"/>
+      <c r="F82" s="20" t="n"/>
+      <c r="G82" s="4" t="n"/>
+      <c r="H82" s="18" t="n"/>
+      <c r="I82" s="20" t="n"/>
     </row>
     <row r="83" ht="30" customHeight="1">
       <c r="A83" s="4" t="inlineStr">
@@ -2800,10 +2980,15 @@
         </is>
       </c>
       <c r="E83" s="4" t="n"/>
-      <c r="F83" s="4" t="n"/>
-      <c r="G83" s="18" t="n"/>
-    </row>
-    <row r="84"/>
+      <c r="F83" s="20" t="n"/>
+      <c r="G83" s="4" t="n"/>
+      <c r="H83" s="18" t="n"/>
+      <c r="I83" s="20" t="n"/>
+    </row>
+    <row r="84">
+      <c r="F84" s="20" t="n"/>
+      <c r="I84" s="20" t="n"/>
+    </row>
     <row r="85" ht="17" customHeight="1">
       <c r="A85" s="11" t="inlineStr">
         <is>
@@ -2814,7 +2999,9 @@
       <c r="C85" s="15" t="n"/>
       <c r="D85" s="15" t="n"/>
       <c r="E85" s="15" t="n"/>
-      <c r="F85" s="16" t="n"/>
+      <c r="F85" s="20" t="n"/>
+      <c r="G85" s="16" t="n"/>
+      <c r="I85" s="20" t="n"/>
     </row>
     <row r="86" ht="17" customHeight="1">
       <c r="A86" s="3" t="inlineStr">
@@ -2842,16 +3029,18 @@
           <t>Result</t>
         </is>
       </c>
-      <c r="F86" s="3" t="inlineStr">
+      <c r="F86" s="20" t="n"/>
+      <c r="G86" s="3" t="inlineStr">
         <is>
           <t>Notes</t>
         </is>
       </c>
-      <c r="G86" s="17" t="inlineStr">
+      <c r="H86" s="17" t="inlineStr">
         <is>
           <t>Retest</t>
         </is>
       </c>
+      <c r="I86" s="20" t="n"/>
     </row>
     <row r="87">
       <c r="A87" s="4" t="inlineStr">
@@ -2875,8 +3064,10 @@
         </is>
       </c>
       <c r="E87" s="4" t="n"/>
-      <c r="F87" s="4" t="n"/>
-      <c r="G87" s="18" t="n"/>
+      <c r="F87" s="20" t="n"/>
+      <c r="G87" s="4" t="n"/>
+      <c r="H87" s="18" t="n"/>
+      <c r="I87" s="20" t="n"/>
     </row>
     <row r="88" ht="30" customHeight="1">
       <c r="A88" s="4" t="inlineStr">
@@ -2900,8 +3091,10 @@
         </is>
       </c>
       <c r="E88" s="4" t="n"/>
-      <c r="F88" s="4" t="n"/>
-      <c r="G88" s="18" t="n"/>
+      <c r="F88" s="20" t="n"/>
+      <c r="G88" s="4" t="n"/>
+      <c r="H88" s="18" t="n"/>
+      <c r="I88" s="20" t="n"/>
     </row>
     <row r="89">
       <c r="A89" s="4" t="inlineStr">
@@ -2925,8 +3118,10 @@
         </is>
       </c>
       <c r="E89" s="4" t="n"/>
-      <c r="F89" s="4" t="n"/>
-      <c r="G89" s="18" t="n"/>
+      <c r="F89" s="20" t="n"/>
+      <c r="G89" s="4" t="n"/>
+      <c r="H89" s="18" t="n"/>
+      <c r="I89" s="20" t="n"/>
     </row>
     <row r="90">
       <c r="A90" s="4" t="inlineStr">
@@ -2950,8 +3145,10 @@
         </is>
       </c>
       <c r="E90" s="4" t="n"/>
-      <c r="F90" s="4" t="n"/>
-      <c r="G90" s="18" t="n"/>
+      <c r="F90" s="20" t="n"/>
+      <c r="G90" s="4" t="n"/>
+      <c r="H90" s="18" t="n"/>
+      <c r="I90" s="20" t="n"/>
     </row>
     <row r="91">
       <c r="A91" s="4" t="inlineStr">
@@ -2975,8 +3172,10 @@
         </is>
       </c>
       <c r="E91" s="4" t="n"/>
-      <c r="F91" s="4" t="n"/>
-      <c r="G91" s="18" t="n"/>
+      <c r="F91" s="20" t="n"/>
+      <c r="G91" s="4" t="n"/>
+      <c r="H91" s="18" t="n"/>
+      <c r="I91" s="20" t="n"/>
     </row>
     <row r="92">
       <c r="A92" s="4" t="inlineStr">
@@ -3000,8 +3199,10 @@
         </is>
       </c>
       <c r="E92" s="4" t="n"/>
-      <c r="F92" s="4" t="n"/>
-      <c r="G92" s="18" t="n"/>
+      <c r="F92" s="20" t="n"/>
+      <c r="G92" s="4" t="n"/>
+      <c r="H92" s="18" t="n"/>
+      <c r="I92" s="20" t="n"/>
     </row>
     <row r="93" ht="30" customHeight="1">
       <c r="A93" s="4" t="inlineStr">
@@ -3025,10 +3226,15 @@
         </is>
       </c>
       <c r="E93" s="4" t="n"/>
-      <c r="F93" s="4" t="n"/>
-      <c r="G93" s="18" t="n"/>
-    </row>
-    <row r="94"/>
+      <c r="F93" s="20" t="n"/>
+      <c r="G93" s="4" t="n"/>
+      <c r="H93" s="18" t="n"/>
+      <c r="I93" s="20" t="n"/>
+    </row>
+    <row r="94">
+      <c r="F94" s="20" t="n"/>
+      <c r="I94" s="20" t="n"/>
+    </row>
     <row r="95" ht="17" customHeight="1">
       <c r="A95" s="11" t="inlineStr">
         <is>
@@ -3039,7 +3245,9 @@
       <c r="C95" s="15" t="n"/>
       <c r="D95" s="15" t="n"/>
       <c r="E95" s="15" t="n"/>
-      <c r="F95" s="16" t="n"/>
+      <c r="F95" s="20" t="n"/>
+      <c r="G95" s="16" t="n"/>
+      <c r="I95" s="20" t="n"/>
     </row>
     <row r="96" ht="17" customHeight="1">
       <c r="A96" s="3" t="inlineStr">
@@ -3067,16 +3275,18 @@
           <t>Result</t>
         </is>
       </c>
-      <c r="F96" s="3" t="inlineStr">
+      <c r="F96" s="20" t="n"/>
+      <c r="G96" s="3" t="inlineStr">
         <is>
           <t>Notes</t>
         </is>
       </c>
-      <c r="G96" s="17" t="inlineStr">
+      <c r="H96" s="17" t="inlineStr">
         <is>
           <t>Retest</t>
         </is>
       </c>
+      <c r="I96" s="20" t="n"/>
     </row>
     <row r="97">
       <c r="A97" s="4" t="inlineStr">
@@ -3100,8 +3310,10 @@
         </is>
       </c>
       <c r="E97" s="4" t="n"/>
-      <c r="F97" s="4" t="n"/>
-      <c r="G97" s="18" t="n"/>
+      <c r="F97" s="20" t="n"/>
+      <c r="G97" s="4" t="n"/>
+      <c r="H97" s="18" t="n"/>
+      <c r="I97" s="20" t="n"/>
     </row>
     <row r="98" ht="30" customHeight="1">
       <c r="A98" s="4" t="inlineStr">
@@ -3125,8 +3337,10 @@
         </is>
       </c>
       <c r="E98" s="4" t="n"/>
-      <c r="F98" s="4" t="n"/>
-      <c r="G98" s="18" t="n"/>
+      <c r="F98" s="20" t="n"/>
+      <c r="G98" s="4" t="n"/>
+      <c r="H98" s="18" t="n"/>
+      <c r="I98" s="20" t="n"/>
     </row>
     <row r="99" ht="30" customHeight="1">
       <c r="A99" s="4" t="inlineStr">
@@ -3150,8 +3364,10 @@
         </is>
       </c>
       <c r="E99" s="4" t="n"/>
-      <c r="F99" s="4" t="n"/>
-      <c r="G99" s="18" t="n"/>
+      <c r="F99" s="20" t="n"/>
+      <c r="G99" s="4" t="n"/>
+      <c r="H99" s="18" t="n"/>
+      <c r="I99" s="20" t="n"/>
     </row>
     <row r="100">
       <c r="A100" s="4" t="inlineStr">
@@ -3175,8 +3391,10 @@
         </is>
       </c>
       <c r="E100" s="4" t="n"/>
-      <c r="F100" s="4" t="n"/>
-      <c r="G100" s="18" t="n"/>
+      <c r="F100" s="20" t="n"/>
+      <c r="G100" s="4" t="n"/>
+      <c r="H100" s="18" t="n"/>
+      <c r="I100" s="20" t="n"/>
     </row>
     <row r="101">
       <c r="A101" s="4" t="inlineStr">
@@ -3200,8 +3418,10 @@
         </is>
       </c>
       <c r="E101" s="4" t="n"/>
-      <c r="F101" s="4" t="n"/>
-      <c r="G101" s="18" t="n"/>
+      <c r="F101" s="20" t="n"/>
+      <c r="G101" s="4" t="n"/>
+      <c r="H101" s="18" t="n"/>
+      <c r="I101" s="20" t="n"/>
     </row>
     <row r="102">
       <c r="A102" s="4" t="inlineStr">
@@ -3225,8 +3445,10 @@
         </is>
       </c>
       <c r="E102" s="4" t="n"/>
-      <c r="F102" s="4" t="n"/>
-      <c r="G102" s="18" t="n"/>
+      <c r="F102" s="20" t="n"/>
+      <c r="G102" s="4" t="n"/>
+      <c r="H102" s="18" t="n"/>
+      <c r="I102" s="20" t="n"/>
     </row>
     <row r="103">
       <c r="A103" s="4" t="inlineStr">
@@ -3250,8 +3472,10 @@
         </is>
       </c>
       <c r="E103" s="4" t="n"/>
-      <c r="F103" s="4" t="n"/>
-      <c r="G103" s="18" t="n"/>
+      <c r="F103" s="20" t="n"/>
+      <c r="G103" s="4" t="n"/>
+      <c r="H103" s="18" t="n"/>
+      <c r="I103" s="20" t="n"/>
     </row>
     <row r="104">
       <c r="A104" s="4" t="inlineStr">
@@ -3275,8 +3499,10 @@
         </is>
       </c>
       <c r="E104" s="4" t="n"/>
-      <c r="F104" s="4" t="n"/>
-      <c r="G104" s="18" t="n"/>
+      <c r="F104" s="20" t="n"/>
+      <c r="G104" s="4" t="n"/>
+      <c r="H104" s="18" t="n"/>
+      <c r="I104" s="20" t="n"/>
     </row>
     <row r="105">
       <c r="A105" s="4" t="inlineStr">
@@ -3300,8 +3526,10 @@
         </is>
       </c>
       <c r="E105" s="4" t="n"/>
-      <c r="F105" s="4" t="n"/>
-      <c r="G105" s="18" t="n"/>
+      <c r="F105" s="20" t="n"/>
+      <c r="G105" s="4" t="n"/>
+      <c r="H105" s="18" t="n"/>
+      <c r="I105" s="20" t="n"/>
     </row>
     <row r="106">
       <c r="A106" s="4" t="inlineStr">
@@ -3325,8 +3553,10 @@
         </is>
       </c>
       <c r="E106" s="4" t="n"/>
-      <c r="F106" s="4" t="n"/>
-      <c r="G106" s="18" t="n"/>
+      <c r="F106" s="20" t="n"/>
+      <c r="G106" s="4" t="n"/>
+      <c r="H106" s="18" t="n"/>
+      <c r="I106" s="20" t="n"/>
     </row>
     <row r="107">
       <c r="A107" s="4" t="inlineStr">
@@ -3350,10 +3580,15 @@
         </is>
       </c>
       <c r="E107" s="4" t="n"/>
-      <c r="F107" s="4" t="n"/>
-      <c r="G107" s="18" t="n"/>
-    </row>
-    <row r="108"/>
+      <c r="F107" s="20" t="n"/>
+      <c r="G107" s="4" t="n"/>
+      <c r="H107" s="18" t="n"/>
+      <c r="I107" s="20" t="n"/>
+    </row>
+    <row r="108">
+      <c r="F108" s="20" t="n"/>
+      <c r="I108" s="20" t="n"/>
+    </row>
     <row r="109" ht="17" customHeight="1">
       <c r="A109" s="11" t="inlineStr">
         <is>
@@ -3364,7 +3599,9 @@
       <c r="C109" s="15" t="n"/>
       <c r="D109" s="15" t="n"/>
       <c r="E109" s="15" t="n"/>
-      <c r="F109" s="16" t="n"/>
+      <c r="F109" s="20" t="n"/>
+      <c r="G109" s="16" t="n"/>
+      <c r="I109" s="20" t="n"/>
     </row>
     <row r="110" ht="17" customHeight="1">
       <c r="A110" s="3" t="inlineStr">
@@ -3392,16 +3629,18 @@
           <t>Result</t>
         </is>
       </c>
-      <c r="F110" s="3" t="inlineStr">
+      <c r="F110" s="20" t="n"/>
+      <c r="G110" s="3" t="inlineStr">
         <is>
           <t>Notes</t>
         </is>
       </c>
-      <c r="G110" s="17" t="inlineStr">
+      <c r="H110" s="17" t="inlineStr">
         <is>
           <t>Retest</t>
         </is>
       </c>
+      <c r="I110" s="20" t="n"/>
     </row>
     <row r="111">
       <c r="A111" s="4" t="inlineStr">
@@ -3425,8 +3664,10 @@
         </is>
       </c>
       <c r="E111" s="4" t="n"/>
-      <c r="F111" s="4" t="n"/>
-      <c r="G111" s="18" t="n"/>
+      <c r="F111" s="20" t="n"/>
+      <c r="G111" s="4" t="n"/>
+      <c r="H111" s="18" t="n"/>
+      <c r="I111" s="20" t="n"/>
     </row>
     <row r="112">
       <c r="A112" s="4" t="inlineStr">
@@ -3450,8 +3691,10 @@
         </is>
       </c>
       <c r="E112" s="4" t="n"/>
-      <c r="F112" s="4" t="n"/>
-      <c r="G112" s="18" t="n"/>
+      <c r="F112" s="20" t="n"/>
+      <c r="G112" s="4" t="n"/>
+      <c r="H112" s="18" t="n"/>
+      <c r="I112" s="20" t="n"/>
     </row>
     <row r="113">
       <c r="A113" s="4" t="inlineStr">
@@ -3475,8 +3718,10 @@
         </is>
       </c>
       <c r="E113" s="4" t="n"/>
-      <c r="F113" s="4" t="n"/>
-      <c r="G113" s="18" t="n"/>
+      <c r="F113" s="20" t="n"/>
+      <c r="G113" s="4" t="n"/>
+      <c r="H113" s="18" t="n"/>
+      <c r="I113" s="20" t="n"/>
     </row>
     <row r="114" ht="30" customHeight="1">
       <c r="A114" s="4" t="inlineStr">
@@ -3500,8 +3745,10 @@
         </is>
       </c>
       <c r="E114" s="4" t="n"/>
-      <c r="F114" s="4" t="n"/>
-      <c r="G114" s="18" t="n"/>
+      <c r="F114" s="20" t="n"/>
+      <c r="G114" s="4" t="n"/>
+      <c r="H114" s="18" t="n"/>
+      <c r="I114" s="20" t="n"/>
     </row>
     <row r="115">
       <c r="A115" s="4" t="inlineStr">
@@ -3525,8 +3772,10 @@
         </is>
       </c>
       <c r="E115" s="4" t="n"/>
-      <c r="F115" s="4" t="n"/>
-      <c r="G115" s="18" t="n"/>
+      <c r="F115" s="20" t="n"/>
+      <c r="G115" s="4" t="n"/>
+      <c r="H115" s="18" t="n"/>
+      <c r="I115" s="20" t="n"/>
     </row>
     <row r="116">
       <c r="A116" s="4" t="inlineStr">
@@ -3550,8 +3799,10 @@
         </is>
       </c>
       <c r="E116" s="4" t="n"/>
-      <c r="F116" s="4" t="n"/>
-      <c r="G116" s="18" t="n"/>
+      <c r="F116" s="20" t="n"/>
+      <c r="G116" s="4" t="n"/>
+      <c r="H116" s="18" t="n"/>
+      <c r="I116" s="20" t="n"/>
     </row>
     <row r="117" ht="30" customHeight="1">
       <c r="A117" s="4" t="inlineStr">
@@ -3575,8 +3826,10 @@
         </is>
       </c>
       <c r="E117" s="4" t="n"/>
-      <c r="F117" s="4" t="n"/>
-      <c r="G117" s="18" t="n"/>
+      <c r="F117" s="20" t="n"/>
+      <c r="G117" s="4" t="n"/>
+      <c r="H117" s="18" t="n"/>
+      <c r="I117" s="20" t="n"/>
     </row>
     <row r="118" ht="30" customHeight="1">
       <c r="A118" s="4" t="inlineStr">
@@ -3600,10 +3853,15 @@
         </is>
       </c>
       <c r="E118" s="4" t="n"/>
-      <c r="F118" s="4" t="n"/>
-      <c r="G118" s="18" t="n"/>
-    </row>
-    <row r="119"/>
+      <c r="F118" s="20" t="n"/>
+      <c r="G118" s="4" t="n"/>
+      <c r="H118" s="18" t="n"/>
+      <c r="I118" s="20" t="n"/>
+    </row>
+    <row r="119">
+      <c r="F119" s="20" t="n"/>
+      <c r="I119" s="20" t="n"/>
+    </row>
     <row r="120" ht="17" customHeight="1">
       <c r="A120" s="11" t="inlineStr">
         <is>
@@ -3614,7 +3872,9 @@
       <c r="C120" s="15" t="n"/>
       <c r="D120" s="15" t="n"/>
       <c r="E120" s="15" t="n"/>
-      <c r="F120" s="16" t="n"/>
+      <c r="F120" s="20" t="n"/>
+      <c r="G120" s="16" t="n"/>
+      <c r="I120" s="20" t="n"/>
     </row>
     <row r="121" ht="17" customHeight="1">
       <c r="A121" s="3" t="inlineStr">
@@ -3642,16 +3902,18 @@
           <t>Result</t>
         </is>
       </c>
-      <c r="F121" s="3" t="inlineStr">
+      <c r="F121" s="20" t="n"/>
+      <c r="G121" s="3" t="inlineStr">
         <is>
           <t>Notes</t>
         </is>
       </c>
-      <c r="G121" s="17" t="inlineStr">
+      <c r="H121" s="17" t="inlineStr">
         <is>
           <t>Retest</t>
         </is>
       </c>
+      <c r="I121" s="20" t="n"/>
     </row>
     <row r="122" ht="30" customHeight="1">
       <c r="A122" s="4" t="inlineStr">
@@ -3675,8 +3937,10 @@
         </is>
       </c>
       <c r="E122" s="4" t="n"/>
-      <c r="F122" s="4" t="n"/>
-      <c r="G122" s="18" t="n"/>
+      <c r="F122" s="20" t="n"/>
+      <c r="G122" s="4" t="n"/>
+      <c r="H122" s="18" t="n"/>
+      <c r="I122" s="20" t="n"/>
     </row>
     <row r="123">
       <c r="A123" s="4" t="inlineStr">
@@ -3700,8 +3964,10 @@
         </is>
       </c>
       <c r="E123" s="4" t="n"/>
-      <c r="F123" s="4" t="n"/>
-      <c r="G123" s="18" t="n"/>
+      <c r="F123" s="20" t="n"/>
+      <c r="G123" s="4" t="n"/>
+      <c r="H123" s="18" t="n"/>
+      <c r="I123" s="20" t="n"/>
     </row>
     <row r="124">
       <c r="A124" s="4" t="inlineStr">
@@ -3725,8 +3991,10 @@
         </is>
       </c>
       <c r="E124" s="4" t="n"/>
-      <c r="F124" s="4" t="n"/>
-      <c r="G124" s="18" t="n"/>
+      <c r="F124" s="20" t="n"/>
+      <c r="G124" s="4" t="n"/>
+      <c r="H124" s="18" t="n"/>
+      <c r="I124" s="20" t="n"/>
     </row>
     <row r="125">
       <c r="A125" s="4" t="inlineStr">
@@ -3750,8 +4018,10 @@
         </is>
       </c>
       <c r="E125" s="4" t="n"/>
-      <c r="F125" s="4" t="n"/>
-      <c r="G125" s="18" t="n"/>
+      <c r="F125" s="20" t="n"/>
+      <c r="G125" s="4" t="n"/>
+      <c r="H125" s="18" t="n"/>
+      <c r="I125" s="20" t="n"/>
     </row>
     <row r="126">
       <c r="A126" s="4" t="inlineStr">
@@ -3775,8 +4045,10 @@
         </is>
       </c>
       <c r="E126" s="4" t="n"/>
-      <c r="F126" s="4" t="n"/>
-      <c r="G126" s="18" t="n"/>
+      <c r="F126" s="20" t="n"/>
+      <c r="G126" s="4" t="n"/>
+      <c r="H126" s="18" t="n"/>
+      <c r="I126" s="20" t="n"/>
     </row>
     <row r="127">
       <c r="A127" s="4" t="inlineStr">
@@ -3800,8 +4072,10 @@
         </is>
       </c>
       <c r="E127" s="4" t="n"/>
-      <c r="F127" s="4" t="n"/>
-      <c r="G127" s="18" t="n"/>
+      <c r="F127" s="20" t="n"/>
+      <c r="G127" s="4" t="n"/>
+      <c r="H127" s="18" t="n"/>
+      <c r="I127" s="20" t="n"/>
     </row>
     <row r="128">
       <c r="A128" s="4" t="inlineStr">
@@ -3825,8 +4099,10 @@
         </is>
       </c>
       <c r="E128" s="4" t="n"/>
-      <c r="F128" s="4" t="n"/>
-      <c r="G128" s="18" t="n"/>
+      <c r="F128" s="20" t="n"/>
+      <c r="G128" s="4" t="n"/>
+      <c r="H128" s="18" t="n"/>
+      <c r="I128" s="20" t="n"/>
     </row>
     <row r="129">
       <c r="A129" s="4" t="inlineStr">
@@ -3850,8 +4126,10 @@
         </is>
       </c>
       <c r="E129" s="4" t="n"/>
-      <c r="F129" s="4" t="n"/>
-      <c r="G129" s="18" t="n"/>
+      <c r="F129" s="20" t="n"/>
+      <c r="G129" s="4" t="n"/>
+      <c r="H129" s="18" t="n"/>
+      <c r="I129" s="20" t="n"/>
     </row>
     <row r="130" ht="30" customHeight="1">
       <c r="A130" s="4" t="inlineStr">
@@ -3875,8 +4153,10 @@
         </is>
       </c>
       <c r="E130" s="4" t="n"/>
-      <c r="F130" s="4" t="n"/>
-      <c r="G130" s="18" t="n"/>
+      <c r="F130" s="20" t="n"/>
+      <c r="G130" s="4" t="n"/>
+      <c r="H130" s="18" t="n"/>
+      <c r="I130" s="20" t="n"/>
     </row>
     <row r="131" ht="30" customHeight="1">
       <c r="A131" s="4" t="inlineStr">
@@ -3900,8 +4180,10 @@
         </is>
       </c>
       <c r="E131" s="4" t="n"/>
-      <c r="F131" s="4" t="n"/>
-      <c r="G131" s="18" t="n"/>
+      <c r="F131" s="20" t="n"/>
+      <c r="G131" s="4" t="n"/>
+      <c r="H131" s="18" t="n"/>
+      <c r="I131" s="20" t="n"/>
     </row>
     <row r="132" ht="30" customHeight="1">
       <c r="A132" s="4" t="inlineStr">
@@ -3925,8 +4207,10 @@
         </is>
       </c>
       <c r="E132" s="4" t="n"/>
-      <c r="F132" s="4" t="n"/>
-      <c r="G132" s="18" t="n"/>
+      <c r="F132" s="20" t="n"/>
+      <c r="G132" s="4" t="n"/>
+      <c r="H132" s="18" t="n"/>
+      <c r="I132" s="20" t="n"/>
     </row>
     <row r="133" ht="30" customHeight="1">
       <c r="A133" s="4" t="inlineStr">
@@ -3950,8 +4234,10 @@
         </is>
       </c>
       <c r="E133" s="4" t="n"/>
-      <c r="F133" s="4" t="n"/>
-      <c r="G133" s="18" t="n"/>
+      <c r="F133" s="20" t="n"/>
+      <c r="G133" s="4" t="n"/>
+      <c r="H133" s="18" t="n"/>
+      <c r="I133" s="20" t="n"/>
     </row>
     <row r="134" ht="30" customHeight="1">
       <c r="A134" s="4" t="inlineStr">
@@ -3975,8 +4261,10 @@
         </is>
       </c>
       <c r="E134" s="4" t="n"/>
-      <c r="F134" s="4" t="n"/>
-      <c r="G134" s="18" t="n"/>
+      <c r="F134" s="20" t="n"/>
+      <c r="G134" s="4" t="n"/>
+      <c r="H134" s="18" t="n"/>
+      <c r="I134" s="20" t="n"/>
     </row>
     <row r="135" ht="45" customHeight="1">
       <c r="A135" s="4" t="inlineStr">
@@ -4000,10 +4288,15 @@
         </is>
       </c>
       <c r="E135" s="4" t="n"/>
-      <c r="F135" s="4" t="n"/>
-      <c r="G135" s="18" t="n"/>
-    </row>
-    <row r="136"/>
+      <c r="F135" s="20" t="n"/>
+      <c r="G135" s="4" t="n"/>
+      <c r="H135" s="18" t="n"/>
+      <c r="I135" s="20" t="n"/>
+    </row>
+    <row r="136">
+      <c r="F136" s="20" t="n"/>
+      <c r="I136" s="20" t="n"/>
+    </row>
     <row r="137" ht="17" customHeight="1">
       <c r="A137" s="11" t="inlineStr">
         <is>
@@ -4014,7 +4307,9 @@
       <c r="C137" s="15" t="n"/>
       <c r="D137" s="15" t="n"/>
       <c r="E137" s="15" t="n"/>
-      <c r="F137" s="16" t="n"/>
+      <c r="F137" s="20" t="n"/>
+      <c r="G137" s="16" t="n"/>
+      <c r="I137" s="20" t="n"/>
     </row>
     <row r="138" ht="17" customHeight="1">
       <c r="A138" s="3" t="inlineStr">
@@ -4042,16 +4337,18 @@
           <t>Result</t>
         </is>
       </c>
-      <c r="F138" s="3" t="inlineStr">
+      <c r="F138" s="20" t="n"/>
+      <c r="G138" s="3" t="inlineStr">
         <is>
           <t>Notes</t>
         </is>
       </c>
-      <c r="G138" s="17" t="inlineStr">
+      <c r="H138" s="17" t="inlineStr">
         <is>
           <t>Retest</t>
         </is>
       </c>
+      <c r="I138" s="20" t="n"/>
     </row>
     <row r="139">
       <c r="A139" s="4" t="inlineStr">
@@ -4075,8 +4372,10 @@
         </is>
       </c>
       <c r="E139" s="4" t="n"/>
-      <c r="F139" s="4" t="n"/>
-      <c r="G139" s="18" t="n"/>
+      <c r="F139" s="20" t="n"/>
+      <c r="G139" s="4" t="n"/>
+      <c r="H139" s="18" t="n"/>
+      <c r="I139" s="20" t="n"/>
     </row>
     <row r="140">
       <c r="A140" s="4" t="inlineStr">
@@ -4100,8 +4399,10 @@
         </is>
       </c>
       <c r="E140" s="4" t="n"/>
-      <c r="F140" s="4" t="n"/>
-      <c r="G140" s="18" t="n"/>
+      <c r="F140" s="20" t="n"/>
+      <c r="G140" s="4" t="n"/>
+      <c r="H140" s="18" t="n"/>
+      <c r="I140" s="20" t="n"/>
     </row>
     <row r="141">
       <c r="A141" s="4" t="inlineStr">
@@ -4125,8 +4426,10 @@
         </is>
       </c>
       <c r="E141" s="4" t="n"/>
-      <c r="F141" s="4" t="n"/>
-      <c r="G141" s="18" t="n"/>
+      <c r="F141" s="20" t="n"/>
+      <c r="G141" s="4" t="n"/>
+      <c r="H141" s="18" t="n"/>
+      <c r="I141" s="20" t="n"/>
     </row>
     <row r="142">
       <c r="A142" s="4" t="inlineStr">
@@ -4150,8 +4453,10 @@
         </is>
       </c>
       <c r="E142" s="4" t="n"/>
-      <c r="F142" s="4" t="n"/>
-      <c r="G142" s="18" t="n"/>
+      <c r="F142" s="20" t="n"/>
+      <c r="G142" s="4" t="n"/>
+      <c r="H142" s="18" t="n"/>
+      <c r="I142" s="20" t="n"/>
     </row>
     <row r="143">
       <c r="A143" s="4" t="inlineStr">
@@ -4175,8 +4480,10 @@
         </is>
       </c>
       <c r="E143" s="4" t="n"/>
-      <c r="F143" s="4" t="n"/>
-      <c r="G143" s="18" t="n"/>
+      <c r="F143" s="20" t="n"/>
+      <c r="G143" s="4" t="n"/>
+      <c r="H143" s="18" t="n"/>
+      <c r="I143" s="20" t="n"/>
     </row>
     <row r="144">
       <c r="A144" s="4" t="inlineStr">
@@ -4200,10 +4507,15 @@
         </is>
       </c>
       <c r="E144" s="4" t="n"/>
-      <c r="F144" s="4" t="n"/>
-      <c r="G144" s="18" t="n"/>
-    </row>
-    <row r="145"/>
+      <c r="F144" s="20" t="n"/>
+      <c r="G144" s="4" t="n"/>
+      <c r="H144" s="18" t="n"/>
+      <c r="I144" s="20" t="n"/>
+    </row>
+    <row r="145">
+      <c r="F145" s="20" t="n"/>
+      <c r="I145" s="20" t="n"/>
+    </row>
     <row r="146" ht="17" customHeight="1">
       <c r="A146" s="11" t="inlineStr">
         <is>
@@ -4214,7 +4526,9 @@
       <c r="C146" s="15" t="n"/>
       <c r="D146" s="15" t="n"/>
       <c r="E146" s="15" t="n"/>
-      <c r="F146" s="16" t="n"/>
+      <c r="F146" s="20" t="n"/>
+      <c r="G146" s="16" t="n"/>
+      <c r="I146" s="20" t="n"/>
     </row>
     <row r="147" ht="17" customHeight="1">
       <c r="A147" s="3" t="inlineStr">
@@ -4242,16 +4556,18 @@
           <t>Result</t>
         </is>
       </c>
-      <c r="F147" s="3" t="inlineStr">
+      <c r="F147" s="20" t="n"/>
+      <c r="G147" s="3" t="inlineStr">
         <is>
           <t>Notes</t>
         </is>
       </c>
-      <c r="G147" s="17" t="inlineStr">
+      <c r="H147" s="17" t="inlineStr">
         <is>
           <t>Retest</t>
         </is>
       </c>
+      <c r="I147" s="20" t="n"/>
     </row>
     <row r="148" ht="409.6" customHeight="1">
       <c r="A148" s="4" t="inlineStr">
@@ -4279,7 +4595,8 @@
           <t>FAIL</t>
         </is>
       </c>
-      <c r="F148" s="4" t="inlineStr">
+      <c r="F148" s="20" t="n"/>
+      <c r="G148" s="4" t="inlineStr">
         <is>
           <t>Test Case 12.1: Autosave Functionality
 After adding stakeholder information, polled the database. No entries found for the work completed.
@@ -4293,7 +4610,8 @@
 Fix the underlying sync issue — data must successfully save to the database.</t>
         </is>
       </c>
-      <c r="G148" s="18" t="n"/>
+      <c r="H148" s="18" t="n"/>
+      <c r="I148" s="20" t="n"/>
     </row>
     <row r="149">
       <c r="A149" s="4" t="inlineStr">
@@ -4317,8 +4635,10 @@
         </is>
       </c>
       <c r="E149" s="4" t="n"/>
-      <c r="F149" s="4" t="n"/>
-      <c r="G149" s="18" t="n"/>
+      <c r="F149" s="20" t="n"/>
+      <c r="G149" s="4" t="n"/>
+      <c r="H149" s="18" t="n"/>
+      <c r="I149" s="20" t="n"/>
     </row>
     <row r="150" ht="30" customHeight="1">
       <c r="A150" s="4" t="inlineStr">
@@ -4342,8 +4662,10 @@
         </is>
       </c>
       <c r="E150" s="4" t="n"/>
-      <c r="F150" s="4" t="n"/>
-      <c r="G150" s="18" t="n"/>
+      <c r="F150" s="20" t="n"/>
+      <c r="G150" s="4" t="n"/>
+      <c r="H150" s="18" t="n"/>
+      <c r="I150" s="20" t="n"/>
     </row>
     <row r="151">
       <c r="A151" s="4" t="inlineStr">
@@ -4367,8 +4689,10 @@
         </is>
       </c>
       <c r="E151" s="4" t="n"/>
-      <c r="F151" s="4" t="n"/>
-      <c r="G151" s="18" t="n"/>
+      <c r="F151" s="20" t="n"/>
+      <c r="G151" s="4" t="n"/>
+      <c r="H151" s="18" t="n"/>
+      <c r="I151" s="20" t="n"/>
     </row>
     <row r="152">
       <c r="A152" s="4" t="inlineStr">
@@ -4392,8 +4716,10 @@
         </is>
       </c>
       <c r="E152" s="4" t="n"/>
-      <c r="F152" s="4" t="n"/>
-      <c r="G152" s="18" t="n"/>
+      <c r="F152" s="20" t="n"/>
+      <c r="G152" s="4" t="n"/>
+      <c r="H152" s="18" t="n"/>
+      <c r="I152" s="20" t="n"/>
     </row>
     <row r="153" ht="30" customHeight="1">
       <c r="A153" s="4" t="inlineStr">
@@ -4417,8 +4743,10 @@
         </is>
       </c>
       <c r="E153" s="4" t="n"/>
-      <c r="F153" s="4" t="n"/>
-      <c r="G153" s="18" t="n"/>
+      <c r="F153" s="20" t="n"/>
+      <c r="G153" s="4" t="n"/>
+      <c r="H153" s="18" t="n"/>
+      <c r="I153" s="20" t="n"/>
     </row>
     <row r="154">
       <c r="A154" s="4" t="inlineStr">
@@ -4442,8 +4770,10 @@
         </is>
       </c>
       <c r="E154" s="4" t="n"/>
-      <c r="F154" s="4" t="n"/>
-      <c r="G154" s="18" t="n"/>
+      <c r="F154" s="20" t="n"/>
+      <c r="G154" s="4" t="n"/>
+      <c r="H154" s="18" t="n"/>
+      <c r="I154" s="20" t="n"/>
     </row>
     <row r="155" ht="30" customHeight="1">
       <c r="A155" s="4" t="inlineStr">
@@ -4467,8 +4797,10 @@
         </is>
       </c>
       <c r="E155" s="4" t="n"/>
-      <c r="F155" s="4" t="n"/>
-      <c r="G155" s="18" t="n"/>
+      <c r="F155" s="20" t="n"/>
+      <c r="G155" s="4" t="n"/>
+      <c r="H155" s="18" t="n"/>
+      <c r="I155" s="20" t="n"/>
     </row>
     <row r="156">
       <c r="A156" s="4" t="inlineStr">
@@ -4492,8 +4824,10 @@
         </is>
       </c>
       <c r="E156" s="4" t="n"/>
-      <c r="F156" s="4" t="n"/>
-      <c r="G156" s="18" t="n"/>
+      <c r="F156" s="20" t="n"/>
+      <c r="G156" s="4" t="n"/>
+      <c r="H156" s="18" t="n"/>
+      <c r="I156" s="20" t="n"/>
     </row>
     <row r="157">
       <c r="A157" s="4" t="inlineStr">
@@ -4517,8 +4851,10 @@
         </is>
       </c>
       <c r="E157" s="4" t="n"/>
-      <c r="F157" s="4" t="n"/>
-      <c r="G157" s="18" t="n"/>
+      <c r="F157" s="20" t="n"/>
+      <c r="G157" s="4" t="n"/>
+      <c r="H157" s="18" t="n"/>
+      <c r="I157" s="20" t="n"/>
     </row>
     <row r="158">
       <c r="A158" s="4" t="inlineStr">
@@ -4542,8 +4878,10 @@
         </is>
       </c>
       <c r="E158" s="4" t="n"/>
-      <c r="F158" s="4" t="n"/>
-      <c r="G158" s="18" t="n"/>
+      <c r="F158" s="20" t="n"/>
+      <c r="G158" s="4" t="n"/>
+      <c r="H158" s="18" t="n"/>
+      <c r="I158" s="20" t="n"/>
     </row>
     <row r="159">
       <c r="A159" s="4" t="inlineStr">
@@ -4567,10 +4905,15 @@
         </is>
       </c>
       <c r="E159" s="4" t="n"/>
-      <c r="F159" s="4" t="n"/>
-      <c r="G159" s="18" t="n"/>
-    </row>
-    <row r="160"/>
+      <c r="F159" s="20" t="n"/>
+      <c r="G159" s="4" t="n"/>
+      <c r="H159" s="18" t="n"/>
+      <c r="I159" s="20" t="n"/>
+    </row>
+    <row r="160">
+      <c r="F160" s="20" t="n"/>
+      <c r="I160" s="20" t="n"/>
+    </row>
     <row r="161" ht="17" customHeight="1">
       <c r="A161" s="11" t="inlineStr">
         <is>
@@ -4581,7 +4924,9 @@
       <c r="C161" s="15" t="n"/>
       <c r="D161" s="15" t="n"/>
       <c r="E161" s="15" t="n"/>
-      <c r="F161" s="16" t="n"/>
+      <c r="F161" s="20" t="n"/>
+      <c r="G161" s="16" t="n"/>
+      <c r="I161" s="20" t="n"/>
     </row>
     <row r="162" ht="17" customHeight="1">
       <c r="A162" s="3" t="inlineStr">
@@ -4609,16 +4954,18 @@
           <t>Result</t>
         </is>
       </c>
-      <c r="F162" s="3" t="inlineStr">
+      <c r="F162" s="20" t="n"/>
+      <c r="G162" s="3" t="inlineStr">
         <is>
           <t>Notes</t>
         </is>
       </c>
-      <c r="G162" s="17" t="inlineStr">
+      <c r="H162" s="17" t="inlineStr">
         <is>
           <t>Retest</t>
         </is>
       </c>
+      <c r="I162" s="20" t="n"/>
     </row>
     <row r="163">
       <c r="A163" s="4" t="inlineStr">
@@ -4642,8 +4989,10 @@
         </is>
       </c>
       <c r="E163" s="4" t="n"/>
-      <c r="F163" s="4" t="n"/>
-      <c r="G163" s="18" t="n"/>
+      <c r="F163" s="20" t="n"/>
+      <c r="G163" s="4" t="n"/>
+      <c r="H163" s="18" t="n"/>
+      <c r="I163" s="20" t="n"/>
     </row>
     <row r="164" ht="30" customHeight="1">
       <c r="A164" s="4" t="inlineStr">
@@ -4667,8 +5016,10 @@
         </is>
       </c>
       <c r="E164" s="4" t="n"/>
-      <c r="F164" s="4" t="n"/>
-      <c r="G164" s="18" t="n"/>
+      <c r="F164" s="20" t="n"/>
+      <c r="G164" s="4" t="n"/>
+      <c r="H164" s="18" t="n"/>
+      <c r="I164" s="20" t="n"/>
     </row>
     <row r="165" ht="30" customHeight="1">
       <c r="A165" s="4" t="inlineStr">
@@ -4692,8 +5043,10 @@
         </is>
       </c>
       <c r="E165" s="4" t="n"/>
-      <c r="F165" s="4" t="n"/>
-      <c r="G165" s="18" t="n"/>
+      <c r="F165" s="20" t="n"/>
+      <c r="G165" s="4" t="n"/>
+      <c r="H165" s="18" t="n"/>
+      <c r="I165" s="20" t="n"/>
     </row>
     <row r="166">
       <c r="A166" s="4" t="inlineStr">
@@ -4717,8 +5070,10 @@
         </is>
       </c>
       <c r="E166" s="4" t="n"/>
-      <c r="F166" s="4" t="n"/>
-      <c r="G166" s="18" t="n"/>
+      <c r="F166" s="20" t="n"/>
+      <c r="G166" s="4" t="n"/>
+      <c r="H166" s="18" t="n"/>
+      <c r="I166" s="20" t="n"/>
     </row>
     <row r="167" ht="30" customHeight="1">
       <c r="A167" s="4" t="inlineStr">
@@ -4742,8 +5097,10 @@
         </is>
       </c>
       <c r="E167" s="4" t="n"/>
-      <c r="F167" s="4" t="n"/>
-      <c r="G167" s="18" t="n"/>
+      <c r="F167" s="20" t="n"/>
+      <c r="G167" s="4" t="n"/>
+      <c r="H167" s="18" t="n"/>
+      <c r="I167" s="20" t="n"/>
     </row>
     <row r="168">
       <c r="A168" s="4" t="inlineStr">
@@ -4767,10 +5124,15 @@
         </is>
       </c>
       <c r="E168" s="4" t="n"/>
-      <c r="F168" s="4" t="n"/>
-      <c r="G168" s="18" t="n"/>
-    </row>
-    <row r="169"/>
+      <c r="F168" s="20" t="n"/>
+      <c r="G168" s="4" t="n"/>
+      <c r="H168" s="18" t="n"/>
+      <c r="I168" s="20" t="n"/>
+    </row>
+    <row r="169">
+      <c r="F169" s="20" t="n"/>
+      <c r="I169" s="20" t="n"/>
+    </row>
     <row r="170" ht="17" customHeight="1">
       <c r="A170" s="11" t="inlineStr">
         <is>
@@ -4781,7 +5143,9 @@
       <c r="C170" s="15" t="n"/>
       <c r="D170" s="15" t="n"/>
       <c r="E170" s="15" t="n"/>
-      <c r="F170" s="16" t="n"/>
+      <c r="F170" s="20" t="n"/>
+      <c r="G170" s="16" t="n"/>
+      <c r="I170" s="20" t="n"/>
     </row>
     <row r="171" ht="17" customHeight="1">
       <c r="A171" s="3" t="inlineStr">
@@ -4809,16 +5173,18 @@
           <t>Result</t>
         </is>
       </c>
-      <c r="F171" s="3" t="inlineStr">
+      <c r="F171" s="20" t="n"/>
+      <c r="G171" s="3" t="inlineStr">
         <is>
           <t>Notes</t>
         </is>
       </c>
-      <c r="G171" s="17" t="inlineStr">
+      <c r="H171" s="17" t="inlineStr">
         <is>
           <t>Retest</t>
         </is>
       </c>
+      <c r="I171" s="20" t="n"/>
     </row>
     <row r="172">
       <c r="A172" s="4" t="inlineStr">
@@ -4842,8 +5208,10 @@
         </is>
       </c>
       <c r="E172" s="4" t="n"/>
-      <c r="F172" s="4" t="n"/>
-      <c r="G172" s="18" t="n"/>
+      <c r="F172" s="20" t="n"/>
+      <c r="G172" s="4" t="n"/>
+      <c r="H172" s="18" t="n"/>
+      <c r="I172" s="20" t="n"/>
     </row>
     <row r="173">
       <c r="A173" s="4" t="inlineStr">
@@ -4867,8 +5235,10 @@
         </is>
       </c>
       <c r="E173" s="4" t="n"/>
-      <c r="F173" s="4" t="n"/>
-      <c r="G173" s="18" t="n"/>
+      <c r="F173" s="20" t="n"/>
+      <c r="G173" s="4" t="n"/>
+      <c r="H173" s="18" t="n"/>
+      <c r="I173" s="20" t="n"/>
     </row>
     <row r="174" ht="30" customHeight="1">
       <c r="A174" s="4" t="inlineStr">
@@ -4892,8 +5262,10 @@
         </is>
       </c>
       <c r="E174" s="4" t="n"/>
-      <c r="F174" s="4" t="n"/>
-      <c r="G174" s="18" t="n"/>
+      <c r="F174" s="20" t="n"/>
+      <c r="G174" s="4" t="n"/>
+      <c r="H174" s="18" t="n"/>
+      <c r="I174" s="20" t="n"/>
     </row>
     <row r="175">
       <c r="A175" s="4" t="inlineStr">
@@ -4917,8 +5289,10 @@
         </is>
       </c>
       <c r="E175" s="4" t="n"/>
-      <c r="F175" s="4" t="n"/>
-      <c r="G175" s="18" t="n"/>
+      <c r="F175" s="20" t="n"/>
+      <c r="G175" s="4" t="n"/>
+      <c r="H175" s="18" t="n"/>
+      <c r="I175" s="20" t="n"/>
     </row>
     <row r="176">
       <c r="A176" s="4" t="inlineStr">
@@ -4942,8 +5316,10 @@
         </is>
       </c>
       <c r="E176" s="4" t="n"/>
-      <c r="F176" s="4" t="n"/>
-      <c r="G176" s="18" t="n"/>
+      <c r="F176" s="20" t="n"/>
+      <c r="G176" s="4" t="n"/>
+      <c r="H176" s="18" t="n"/>
+      <c r="I176" s="20" t="n"/>
     </row>
     <row r="177" ht="30" customHeight="1">
       <c r="A177" s="4" t="inlineStr">
@@ -4967,8 +5343,10 @@
         </is>
       </c>
       <c r="E177" s="4" t="n"/>
-      <c r="F177" s="4" t="n"/>
-      <c r="G177" s="18" t="n"/>
+      <c r="F177" s="20" t="n"/>
+      <c r="G177" s="4" t="n"/>
+      <c r="H177" s="18" t="n"/>
+      <c r="I177" s="20" t="n"/>
     </row>
     <row r="178">
       <c r="A178" s="4" t="inlineStr">
@@ -4992,10 +5370,15 @@
         </is>
       </c>
       <c r="E178" s="4" t="n"/>
-      <c r="F178" s="4" t="n"/>
-      <c r="G178" s="18" t="n"/>
-    </row>
-    <row r="179"/>
+      <c r="F178" s="20" t="n"/>
+      <c r="G178" s="4" t="n"/>
+      <c r="H178" s="18" t="n"/>
+      <c r="I178" s="20" t="n"/>
+    </row>
+    <row r="179">
+      <c r="F179" s="20" t="n"/>
+      <c r="I179" s="20" t="n"/>
+    </row>
     <row r="180" ht="17" customHeight="1">
       <c r="A180" s="11" t="inlineStr">
         <is>
@@ -5006,7 +5389,9 @@
       <c r="C180" s="15" t="n"/>
       <c r="D180" s="15" t="n"/>
       <c r="E180" s="15" t="n"/>
-      <c r="F180" s="16" t="n"/>
+      <c r="F180" s="20" t="n"/>
+      <c r="G180" s="16" t="n"/>
+      <c r="I180" s="20" t="n"/>
     </row>
     <row r="181" ht="17" customHeight="1">
       <c r="A181" s="3" t="inlineStr">
@@ -5034,16 +5419,18 @@
           <t>Result</t>
         </is>
       </c>
-      <c r="F181" s="3" t="inlineStr">
+      <c r="F181" s="20" t="n"/>
+      <c r="G181" s="3" t="inlineStr">
         <is>
           <t>Notes</t>
         </is>
       </c>
-      <c r="G181" s="17" t="inlineStr">
+      <c r="H181" s="17" t="inlineStr">
         <is>
           <t>Retest</t>
         </is>
       </c>
+      <c r="I181" s="20" t="n"/>
     </row>
     <row r="182" ht="30" customHeight="1">
       <c r="A182" s="4" t="inlineStr">
@@ -5067,8 +5454,10 @@
         </is>
       </c>
       <c r="E182" s="4" t="n"/>
-      <c r="F182" s="4" t="n"/>
-      <c r="G182" s="18" t="n"/>
+      <c r="F182" s="20" t="n"/>
+      <c r="G182" s="4" t="n"/>
+      <c r="H182" s="18" t="n"/>
+      <c r="I182" s="20" t="n"/>
     </row>
     <row r="183" ht="30" customHeight="1">
       <c r="A183" s="4" t="inlineStr">
@@ -5092,8 +5481,10 @@
         </is>
       </c>
       <c r="E183" s="4" t="n"/>
-      <c r="F183" s="4" t="n"/>
-      <c r="G183" s="18" t="n"/>
+      <c r="F183" s="20" t="n"/>
+      <c r="G183" s="4" t="n"/>
+      <c r="H183" s="18" t="n"/>
+      <c r="I183" s="20" t="n"/>
     </row>
     <row r="184">
       <c r="A184" s="4" t="inlineStr">
@@ -5121,7 +5512,9 @@
           <t>Skip</t>
         </is>
       </c>
-      <c r="F184" s="5" t="n"/>
+      <c r="F184" s="20" t="n"/>
+      <c r="G184" s="5" t="n"/>
+      <c r="I184" s="20" t="n"/>
     </row>
     <row r="185" ht="45" customHeight="1">
       <c r="A185" s="4" t="inlineStr">
@@ -5137,7 +5530,9 @@
       <c r="C185" s="4" t="n"/>
       <c r="D185" s="4" t="n"/>
       <c r="E185" s="4" t="n"/>
-      <c r="F185" s="5" t="n"/>
+      <c r="F185" s="20" t="n"/>
+      <c r="G185" s="5" t="n"/>
+      <c r="I185" s="20" t="n"/>
     </row>
     <row r="186" ht="60" customHeight="1">
       <c r="A186" s="4" t="inlineStr">
@@ -5153,7 +5548,9 @@
       <c r="C186" s="4" t="n"/>
       <c r="D186" s="4" t="n"/>
       <c r="E186" s="4" t="n"/>
-      <c r="F186" s="5" t="n"/>
+      <c r="F186" s="20" t="n"/>
+      <c r="G186" s="5" t="n"/>
+      <c r="I186" s="20" t="n"/>
     </row>
     <row r="187" ht="45" customHeight="1">
       <c r="A187" s="4" t="inlineStr">
@@ -5169,7 +5566,9 @@
       <c r="C187" s="4" t="n"/>
       <c r="D187" s="4" t="n"/>
       <c r="E187" s="4" t="n"/>
-      <c r="F187" s="5" t="n"/>
+      <c r="F187" s="20" t="n"/>
+      <c r="G187" s="5" t="n"/>
+      <c r="I187" s="20" t="n"/>
     </row>
     <row r="188" ht="30" customHeight="1">
       <c r="A188" s="4" t="inlineStr">
@@ -5185,7 +5584,9 @@
       <c r="C188" s="4" t="n"/>
       <c r="D188" s="4" t="n"/>
       <c r="E188" s="4" t="n"/>
-      <c r="F188" s="5" t="n"/>
+      <c r="F188" s="20" t="n"/>
+      <c r="G188" s="5" t="n"/>
+      <c r="I188" s="20" t="n"/>
     </row>
     <row r="189" ht="45" customHeight="1">
       <c r="A189" s="4" t="inlineStr">
@@ -5201,7 +5602,9 @@
       <c r="C189" s="4" t="n"/>
       <c r="D189" s="4" t="n"/>
       <c r="E189" s="4" t="n"/>
-      <c r="F189" s="5" t="n"/>
+      <c r="F189" s="20" t="n"/>
+      <c r="G189" s="5" t="n"/>
+      <c r="I189" s="20" t="n"/>
     </row>
     <row r="190" ht="45" customHeight="1">
       <c r="A190" s="4" t="inlineStr">
@@ -5217,7 +5620,9 @@
       <c r="C190" s="4" t="n"/>
       <c r="D190" s="4" t="n"/>
       <c r="E190" s="4" t="n"/>
-      <c r="F190" s="5" t="n"/>
+      <c r="F190" s="20" t="n"/>
+      <c r="G190" s="5" t="n"/>
+      <c r="I190" s="20" t="n"/>
     </row>
     <row r="191" ht="60" customHeight="1">
       <c r="A191" s="4" t="inlineStr">
@@ -5233,7 +5638,9 @@
       <c r="C191" s="4" t="n"/>
       <c r="D191" s="4" t="n"/>
       <c r="E191" s="4" t="n"/>
-      <c r="F191" s="5" t="n"/>
+      <c r="F191" s="20" t="n"/>
+      <c r="G191" s="5" t="n"/>
+      <c r="I191" s="20" t="n"/>
     </row>
     <row r="192" ht="60" customHeight="1">
       <c r="A192" s="4" t="inlineStr">
@@ -5249,7 +5656,9 @@
       <c r="C192" s="4" t="n"/>
       <c r="D192" s="4" t="n"/>
       <c r="E192" s="4" t="n"/>
-      <c r="F192" s="5" t="n"/>
+      <c r="F192" s="20" t="n"/>
+      <c r="G192" s="5" t="n"/>
+      <c r="I192" s="20" t="n"/>
     </row>
     <row r="193" ht="45" customHeight="1">
       <c r="A193" s="4" t="inlineStr">
@@ -5265,7 +5674,9 @@
       <c r="C193" s="4" t="n"/>
       <c r="D193" s="4" t="n"/>
       <c r="E193" s="4" t="n"/>
-      <c r="F193" s="5" t="n"/>
+      <c r="F193" s="20" t="n"/>
+      <c r="G193" s="5" t="n"/>
+      <c r="I193" s="20" t="n"/>
     </row>
     <row r="194" ht="75" customHeight="1">
       <c r="A194" s="4" t="inlineStr">
@@ -5281,7 +5692,9 @@
       <c r="C194" s="4" t="n"/>
       <c r="D194" s="4" t="n"/>
       <c r="E194" s="4" t="n"/>
-      <c r="F194" s="5" t="n"/>
+      <c r="F194" s="20" t="n"/>
+      <c r="G194" s="5" t="n"/>
+      <c r="I194" s="20" t="n"/>
     </row>
     <row r="195" ht="60" customHeight="1">
       <c r="A195" s="4" t="inlineStr">
@@ -5297,7 +5710,9 @@
       <c r="C195" s="4" t="n"/>
       <c r="D195" s="4" t="n"/>
       <c r="E195" s="4" t="n"/>
-      <c r="F195" s="5" t="n"/>
+      <c r="F195" s="20" t="n"/>
+      <c r="G195" s="5" t="n"/>
+      <c r="I195" s="20" t="n"/>
     </row>
     <row r="196" ht="45" customHeight="1">
       <c r="A196" s="4" t="inlineStr">
@@ -5313,7 +5728,9 @@
       <c r="C196" s="4" t="n"/>
       <c r="D196" s="4" t="n"/>
       <c r="E196" s="4" t="n"/>
-      <c r="F196" s="5" t="n"/>
+      <c r="F196" s="20" t="n"/>
+      <c r="G196" s="5" t="n"/>
+      <c r="I196" s="20" t="n"/>
     </row>
     <row r="197" ht="60" customHeight="1">
       <c r="A197" s="4" t="inlineStr">
@@ -5329,7 +5746,9 @@
       <c r="C197" s="4" t="n"/>
       <c r="D197" s="4" t="n"/>
       <c r="E197" s="4" t="n"/>
-      <c r="F197" s="5" t="n"/>
+      <c r="F197" s="20" t="n"/>
+      <c r="G197" s="5" t="n"/>
+      <c r="I197" s="20" t="n"/>
     </row>
     <row r="198" ht="30" customHeight="1">
       <c r="A198" s="4" t="inlineStr">
@@ -5345,7 +5764,9 @@
       <c r="C198" s="4" t="n"/>
       <c r="D198" s="4" t="n"/>
       <c r="E198" s="4" t="n"/>
-      <c r="F198" s="5" t="n"/>
+      <c r="F198" s="20" t="n"/>
+      <c r="G198" s="5" t="n"/>
+      <c r="I198" s="20" t="n"/>
     </row>
     <row r="199" ht="60" customHeight="1">
       <c r="A199" s="4" t="inlineStr">
@@ -5361,7 +5782,9 @@
       <c r="C199" s="4" t="n"/>
       <c r="D199" s="4" t="n"/>
       <c r="E199" s="4" t="n"/>
-      <c r="F199" s="5" t="n"/>
+      <c r="F199" s="20" t="n"/>
+      <c r="G199" s="5" t="n"/>
+      <c r="I199" s="20" t="n"/>
     </row>
     <row r="200" ht="30" customHeight="1">
       <c r="A200" s="4" t="inlineStr">
@@ -5377,7 +5800,9 @@
       <c r="C200" s="4" t="n"/>
       <c r="D200" s="4" t="n"/>
       <c r="E200" s="4" t="n"/>
-      <c r="F200" s="5" t="n"/>
+      <c r="F200" s="20" t="n"/>
+      <c r="G200" s="5" t="n"/>
+      <c r="I200" s="20" t="n"/>
     </row>
     <row r="201">
       <c r="A201" s="4" t="inlineStr">
@@ -5389,7 +5814,9 @@
       <c r="C201" s="4" t="n"/>
       <c r="D201" s="4" t="n"/>
       <c r="E201" s="5" t="n"/>
-      <c r="F201" s="5" t="n"/>
+      <c r="F201" s="20" t="n"/>
+      <c r="G201" s="5" t="n"/>
+      <c r="I201" s="20" t="n"/>
     </row>
     <row r="202" ht="30" customHeight="1">
       <c r="A202" s="4" t="inlineStr">
@@ -5401,7 +5828,9 @@
       <c r="C202" s="4" t="n"/>
       <c r="D202" s="4" t="n"/>
       <c r="E202" s="5" t="n"/>
-      <c r="F202" s="5" t="n"/>
+      <c r="F202" s="20" t="n"/>
+      <c r="G202" s="5" t="n"/>
+      <c r="I202" s="20" t="n"/>
     </row>
     <row r="203" ht="30" customHeight="1">
       <c r="A203" s="4" t="inlineStr">
@@ -5413,15 +5842,17 @@
       <c r="C203" s="4" t="n"/>
       <c r="D203" s="4" t="n"/>
       <c r="E203" s="5" t="n"/>
-      <c r="F203" s="5" t="n"/>
+      <c r="F203" s="20" t="n"/>
+      <c r="G203" s="5" t="n"/>
+      <c r="I203" s="20" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="15">
     <mergeCell ref="A170:F170"/>
     <mergeCell ref="A85:F85"/>
     <mergeCell ref="A161:F161"/>
+    <mergeCell ref="A137:F137"/>
     <mergeCell ref="A42:F42"/>
-    <mergeCell ref="A137:F137"/>
     <mergeCell ref="A7:F7"/>
     <mergeCell ref="A146:F146"/>
     <mergeCell ref="A120:F120"/>

--- a/app/UAT-TEST-SET.xlsx
+++ b/app/UAT-TEST-SET.xlsx
@@ -18,7 +18,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="9">
+  <fonts count="12">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -64,13 +64,36 @@
     </font>
     <font>
       <name val="Calibri"/>
+      <family val="2"/>
       <b val="1"/>
-      <color rgb="00FFFFFF"/>
+      <color rgb="FFFFFFFF"/>
       <sz val="12"/>
     </font>
     <font>
+      <name val="Calibri"/>
+      <family val="2"/>
       <b val="1"/>
-      <color rgb="00FFFFFF"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <b val="1"/>
+      <color rgb="FFFF0000"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color rgb="FFFF0000"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color rgb="FF00B050"/>
+      <sz val="10"/>
     </font>
   </fonts>
   <fills count="6">
@@ -94,18 +117,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="002B5F8A"/>
-        <bgColor rgb="002B5F8A"/>
+        <fgColor rgb="FF2B5F8A"/>
+        <bgColor rgb="FF2B5F8A"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="001F4E79"/>
-        <bgColor rgb="001F4E79"/>
+        <fgColor rgb="FF1F4E79"/>
+        <bgColor rgb="FF1F4E79"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -129,38 +152,9 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
+      <left style="thin">
         <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
+      </left>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -173,16 +167,63 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -204,35 +245,49 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="6">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -252,16 +307,32 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="00C6EFCE"/>
-          <bgColor rgb="00C6EFCE"/>
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="00FFC7CE"/>
-          <bgColor rgb="00FFC7CE"/>
+          <fgColor rgb="FFC6EFCE"/>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFC6EFCE"/>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -627,11 +698,11 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K203"/>
+  <dimension ref="A1:K205"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E148" sqref="E148"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H52" sqref="H52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -642,7 +713,7 @@
     <col width="45" customWidth="1" min="4" max="4"/>
     <col width="10" customWidth="1" min="5" max="5"/>
     <col width="12" customWidth="1" min="6" max="6"/>
-    <col width="10" customWidth="1" min="7" max="7"/>
+    <col width="26.83203125" customWidth="1" min="7" max="7"/>
     <col width="32.33203125" customWidth="1" min="8" max="8"/>
     <col width="12" customWidth="1" min="9" max="9"/>
   </cols>
@@ -655,7 +726,7 @@
       </c>
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>1.0.2</t>
+          <t>1.0.3</t>
         </is>
       </c>
     </row>
@@ -667,7 +738,7 @@
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
     </row>
@@ -703,18 +774,20 @@
         </is>
       </c>
     </row>
-    <row r="6"/>
     <row r="7" ht="17" customHeight="1">
-      <c r="A7" s="11" t="inlineStr">
+      <c r="A7" s="17" t="inlineStr">
         <is>
           <t>Section 1: Authentication</t>
         </is>
       </c>
-      <c r="B7" s="15" t="n"/>
-      <c r="C7" s="15" t="n"/>
-      <c r="D7" s="15" t="n"/>
-      <c r="E7" s="15" t="n"/>
-      <c r="G7" s="16" t="n"/>
+      <c r="B7" s="22" t="n"/>
+      <c r="C7" s="22" t="n"/>
+      <c r="D7" s="22" t="n"/>
+      <c r="E7" s="22" t="n"/>
+      <c r="F7" s="22" t="n"/>
+      <c r="G7" s="22" t="n"/>
+      <c r="H7" s="22" t="n"/>
+      <c r="I7" s="22" t="n"/>
     </row>
     <row r="8" ht="17" customHeight="1">
       <c r="A8" s="3" t="inlineStr">
@@ -742,7 +815,7 @@
           <t>Result</t>
         </is>
       </c>
-      <c r="F8" s="19" t="inlineStr">
+      <c r="F8" s="15" t="inlineStr">
         <is>
           <t>Date Tested</t>
         </is>
@@ -752,12 +825,12 @@
           <t>Notes</t>
         </is>
       </c>
-      <c r="H8" s="17" t="inlineStr">
+      <c r="H8" s="13" t="inlineStr">
         <is>
           <t>Retest</t>
         </is>
       </c>
-      <c r="I8" s="19" t="inlineStr">
+      <c r="I8" s="15" t="inlineStr">
         <is>
           <t>Retest Date</t>
         </is>
@@ -781,27 +854,14 @@
       </c>
       <c r="D9" s="4" t="inlineStr">
         <is>
-          <t>Login page shows with Providence logo, "Propel Onboarding" title, email input, and "Send magic link" button</t>
-        </is>
-      </c>
-      <c r="E9" s="4" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
+          <t>Login page shows with "Propel Onboarding" title, email input, 6-digit code input, and "Sign in" button</t>
+        </is>
+      </c>
+      <c r="E9" s="4" t="n"/>
       <c r="F9" s="20" t="n"/>
-      <c r="G9" s="4" t="inlineStr">
-        <is>
-          <t>Initial Access Issue: First attempt loaded an old deployment. Cleared cache and reloaded — displayed correctly after that.
-UI Fixes Needed:
-1.  "Providence Health" text — Currently black text on a blue background, making it unreadable. Needs a color update for contrast/readability.
-2.  Icon placeholder — There's what appears to be a broken icon or placeholder next to "Providence Health." Remove it.
-3.  Text update — Change "Providence Health" to just "Providence."
-4.  Tagline update — Change "Streamline setup for genetic testing programs" to "Streamline setup for EICI program."</t>
-        </is>
-      </c>
-      <c r="H9" s="18" t="n"/>
-      <c r="I9" s="20" t="n"/>
+      <c r="G9" s="4" t="n"/>
+      <c r="H9" s="14" t="n"/>
+      <c r="I9" s="16" t="n"/>
     </row>
     <row r="10" ht="105" customHeight="1">
       <c r="A10" s="4" t="inlineStr">
@@ -811,33 +871,24 @@
       </c>
       <c r="B10" s="4" t="inlineStr">
         <is>
-          <t>Magic link sent for valid email</t>
+          <t>Code required for login</t>
         </is>
       </c>
       <c r="C10" s="4" t="inlineStr">
         <is>
-          <t>Enter a valid email address, click "Send magic link"</t>
+          <t>Enter email only, observe "Sign in" button</t>
         </is>
       </c>
       <c r="D10" s="4" t="inlineStr">
         <is>
-          <t>Green success message: "Check your email for the magic link to sign in."</t>
-        </is>
-      </c>
-      <c r="E10" s="4" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
+          <t>Button is disabled until 6-digit code is entered</t>
+        </is>
+      </c>
+      <c r="E10" s="4" t="n"/>
       <c r="F10" s="20" t="n"/>
-      <c r="G10" s="4" t="inlineStr">
-        <is>
-          <t>Test Actions Performed: Entered Providence email (glen.a.lewis@providence.org) and clicked "Send."
-Results:"Check your email for the Magic Link" confirmation displayed with green success message. PASS.</t>
-        </is>
-      </c>
-      <c r="H10" s="18" t="n"/>
-      <c r="I10" s="20" t="n"/>
+      <c r="G10" s="4" t="n"/>
+      <c r="H10" s="14" t="n"/>
+      <c r="I10" s="16" t="n"/>
     </row>
     <row r="11" ht="90" customHeight="1">
       <c r="A11" s="4" t="inlineStr">
@@ -852,7 +903,7 @@
       </c>
       <c r="C11" s="4" t="inlineStr">
         <is>
-          <t>Enter an invalid email (e.g., "notanemail"), click "Send magic link"</t>
+          <t>Enter an invalid email (e.g., "notanemail"), enter code, click "Sign in"</t>
         </is>
       </c>
       <c r="D11" s="4" t="inlineStr">
@@ -860,21 +911,13 @@
           <t>Browser validation prevents submission OR error message displays</t>
         </is>
       </c>
-      <c r="E11" s="4" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
+      <c r="E11" s="4" t="n"/>
       <c r="F11" s="20" t="n"/>
-      <c r="G11" s="4" t="inlineStr">
-        <is>
-          <t>Browser recognized incomplete email input and displayed prompts indicating what was required. Validation checked in real-time as each character was entered, continuing to flag the email as incomplete until fully formed. PASS.</t>
-        </is>
-      </c>
-      <c r="H11" s="18" t="n"/>
-      <c r="I11" s="20" t="n"/>
-    </row>
-    <row r="12" ht="409.6" customHeight="1">
+      <c r="G11" s="4" t="n"/>
+      <c r="H11" s="14" t="n"/>
+      <c r="I11" s="16" t="n"/>
+    </row>
+    <row r="12" ht="409.5" customHeight="1">
       <c r="A12" s="4" t="inlineStr">
         <is>
           <t>1.4</t>
@@ -882,47 +925,25 @@
       </c>
       <c r="B12" s="4" t="inlineStr">
         <is>
-          <t>Magic link authenticates user</t>
+          <t>Valid code authenticates user</t>
         </is>
       </c>
       <c r="C12" s="4" t="inlineStr">
         <is>
-          <t>Click the magic link received via email</t>
+          <t>Enter email and valid 6-digit code (from admin), click "Sign in"</t>
         </is>
       </c>
       <c r="D12" s="4" t="inlineStr">
         <is>
-          <t>User is redirected to the app and sees the form wizard (loading spinner, then form)</t>
-        </is>
-      </c>
-      <c r="E12" s="4" t="inlineStr">
-        <is>
-          <t>FAIL</t>
-        </is>
-      </c>
+          <t>User sees loading spinner, then form wizard appears</t>
+        </is>
+      </c>
+      <c r="E12" s="4" t="n"/>
       <c r="F12" s="20" t="n"/>
-      <c r="G12" s="4" t="inlineStr">
-        <is>
-          <t>Test Actions Performed: Completed full Magic Link sign-in flow after submitting email.
-Results:
-Email 1 — "Confirm Your Sign Up" Received email with "Follow this link to confirm your user" prompt. Clicked "Confirm Email." Redirected back to login page. PASS.
-Second Sign-In Attempt Re-entered email on login page. Submitted successfully.
-Email 2 — "Signing In to Propel Health Portal" Received email with "Click the button below to sign in." Clicked "Sign In." Redirected back to login page instead of authenticating into the portal. FAIL.
-DEFECT: Magic Link Sign-In Does Not Authenticate
-Severity: High
-Steps to Reproduce:
-1.  Enter email on login page and send Magic Link
-2.  Receive and click "Confirm Email" in first email
-3.  Re-enter email on login page
-4.  Receive and click "Sign In" in second email
-5.  Observe: redirected back to login page — never authenticated into the portal
-Expected: Clicking "Sign In" in the second email should authenticate the user and land them inside the portal.
-Actual: User is returned to the login page with no authentication.</t>
-        </is>
-      </c>
-      <c r="H12" s="18" t="n"/>
-      <c r="I12" s="20" t="n"/>
-      <c r="J12" s="13" t="inlineStr">
+      <c r="G12" s="4" t="n"/>
+      <c r="H12" s="14" t="n"/>
+      <c r="I12" s="16" t="n"/>
+      <c r="J12" s="11" t="inlineStr">
         <is>
           <t>UX Improvement: First-Time Double Sign-In Experience
 Priority: Medium
@@ -932,7 +953,7 @@
 2. If the double sign-in must stay — Add clear on-screen messaging after the user clicks "Confirm Email" explaining that they'll need to sign in one more time, and that a second email is on its way.</t>
         </is>
       </c>
-      <c r="K12" s="13" t="inlineStr">
+      <c r="K12" s="11" t="inlineStr">
         <is>
           <t>Test Case 1.3 (Continued): Magic Link Authentication — Existing User
 Test Actions Performed:
@@ -955,114 +976,170 @@
       </c>
       <c r="B13" s="4" t="inlineStr">
         <is>
+          <t>Invalid code shows error</t>
+        </is>
+      </c>
+      <c r="C13" s="4" t="inlineStr">
+        <is>
+          <t>Enter email and wrong code (e.g., "000000"), click "Sign in"</t>
+        </is>
+      </c>
+      <c r="D13" s="4" t="inlineStr">
+        <is>
+          <t>Error message: "Invalid or expired code"</t>
+        </is>
+      </c>
+      <c r="E13" s="4" t="n"/>
+      <c r="F13" s="16" t="n"/>
+      <c r="G13" s="4" t="n"/>
+      <c r="H13" s="14" t="n"/>
+      <c r="I13" s="16" t="n"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>1.6</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
           <t>Sign out works</t>
         </is>
       </c>
-      <c r="C13" s="4" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>Click the user/auth button in the header, sign out</t>
         </is>
       </c>
-      <c r="D13" s="4" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>User returns to login page; refreshing page still shows login</t>
         </is>
       </c>
-      <c r="E13" s="4" t="n"/>
-      <c r="F13" s="20" t="n"/>
-      <c r="G13" s="4" t="n"/>
-      <c r="H13" s="18" t="n"/>
-      <c r="I13" s="20" t="n"/>
-    </row>
-    <row r="14">
-      <c r="F14" s="20" t="n"/>
-      <c r="I14" s="20" t="n"/>
     </row>
     <row r="15" ht="17" customHeight="1">
-      <c r="A15" s="11" t="inlineStr">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>1.7</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Session persists on refresh</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>After logging in, refresh the page</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>User remains logged in (24hr session in localStorage)</t>
+        </is>
+      </c>
+    </row>
+    <row r="16" ht="17" customHeight="1">
+      <c r="F16" s="16" t="n"/>
+      <c r="I16" s="16" t="n"/>
+    </row>
+    <row r="17" ht="356" customHeight="1">
+      <c r="A17" s="23" t="inlineStr">
         <is>
           <t>Section 2: Step 1 — Program Selection</t>
         </is>
       </c>
-      <c r="B15" s="15" t="n"/>
-      <c r="C15" s="15" t="n"/>
-      <c r="D15" s="15" t="n"/>
-      <c r="E15" s="15" t="n"/>
-      <c r="F15" s="20" t="n"/>
-      <c r="G15" s="16" t="n"/>
-      <c r="I15" s="20" t="n"/>
-    </row>
-    <row r="16" ht="17" customHeight="1">
-      <c r="A16" s="3" t="inlineStr">
+      <c r="B17" s="22" t="n"/>
+      <c r="C17" s="22" t="n"/>
+      <c r="D17" s="22" t="n"/>
+      <c r="E17" s="22" t="n"/>
+      <c r="F17" s="22" t="n"/>
+      <c r="G17" s="22" t="n"/>
+      <c r="H17" s="22" t="n"/>
+      <c r="I17" s="24" t="n"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="3" t="inlineStr">
         <is>
           <t>#</t>
         </is>
       </c>
-      <c r="B16" s="3" t="inlineStr">
+      <c r="B18" s="3" t="inlineStr">
         <is>
           <t>Test Case</t>
         </is>
       </c>
-      <c r="C16" s="3" t="inlineStr">
+      <c r="C18" s="3" t="inlineStr">
         <is>
           <t>Steps</t>
         </is>
       </c>
-      <c r="D16" s="3" t="inlineStr">
+      <c r="D18" s="3" t="inlineStr">
         <is>
           <t>Expected Result</t>
         </is>
       </c>
-      <c r="E16" s="3" t="inlineStr">
+      <c r="E18" s="3" t="inlineStr">
         <is>
           <t>Result</t>
         </is>
       </c>
-      <c r="F16" s="20" t="n"/>
-      <c r="G16" s="3" t="inlineStr">
+      <c r="F18" s="15" t="inlineStr">
+        <is>
+          <t>Date Tested</t>
+        </is>
+      </c>
+      <c r="G18" s="3" t="inlineStr">
         <is>
           <t>Notes</t>
         </is>
       </c>
-      <c r="H16" s="17" t="inlineStr">
+      <c r="H18" s="13" t="inlineStr">
         <is>
           <t>Retest</t>
         </is>
       </c>
-      <c r="I16" s="20" t="n"/>
-    </row>
-    <row r="17" ht="356" customHeight="1">
-      <c r="A17" s="4" t="inlineStr">
+      <c r="I18" s="15" t="inlineStr">
+        <is>
+          <t>Retest Date</t>
+        </is>
+      </c>
+    </row>
+    <row r="19" ht="75" customHeight="1">
+      <c r="A19" s="4" t="inlineStr">
         <is>
           <t>2.1</t>
         </is>
       </c>
-      <c r="B17" s="4" t="inlineStr">
+      <c r="B19" s="4" t="inlineStr">
         <is>
           <t>All three programs displayed</t>
         </is>
       </c>
-      <c r="C17" s="4" t="inlineStr">
+      <c r="C19" s="4" t="inlineStr">
         <is>
           <t>View Step 1 after login</t>
         </is>
       </c>
-      <c r="D17" s="4" t="inlineStr">
+      <c r="D19" s="4" t="inlineStr">
         <is>
           <t>Three radio cards shown: Prevention4ME (P4M), Precision4ME (PR4M), GenoRx (GRX) with descriptions</t>
         </is>
       </c>
-      <c r="E17" s="4" t="inlineStr">
+      <c r="E19" s="4" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
       </c>
-      <c r="F17" s="20" t="n"/>
-      <c r="G17" s="4" t="inlineStr">
+      <c r="F19" s="20" t="n">
+        <v>46057</v>
+      </c>
+      <c r="G19" s="4" t="inlineStr">
         <is>
           <t>UX Fixes — Providence Health Clinic Onboarding
 Remove "Providence" text from far left of header.
-Remove icon/placeholder from far left of header.
+Remove icon/placeholder from far left of header.                                                                           
+Remove The tag line under Providence Health Clinic Onboarding
 Update "Providence Health" text color — currently black on blue background, unreadable.
 Remove "Previous" button on first page — no previous page exists.
 Remove "Platform" from program selection list — used for platform-level changes only.
@@ -1070,352 +1147,307 @@
 Result: All programs appeared as expected. PASS.</t>
         </is>
       </c>
-      <c r="H17" s="18" t="n"/>
-      <c r="I17" s="20" t="n"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="4" t="inlineStr">
+      <c r="H19" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="I19" s="20" t="n">
+        <v>46058</v>
+      </c>
+    </row>
+    <row r="20" ht="75" customHeight="1">
+      <c r="A20" s="4" t="inlineStr">
         <is>
           <t>2.2</t>
         </is>
       </c>
-      <c r="B18" s="4" t="inlineStr">
+      <c r="B20" s="4" t="inlineStr">
         <is>
           <t>Selecting a program highlights it</t>
         </is>
       </c>
-      <c r="C18" s="4" t="inlineStr">
+      <c r="C20" s="4" t="inlineStr">
         <is>
           <t>Click "Prevention4ME"</t>
         </is>
       </c>
-      <c r="D18" s="4" t="inlineStr">
+      <c r="D20" s="4" t="inlineStr">
         <is>
           <t>Card shows teal border/highlight, radio button selected</t>
         </is>
       </c>
-      <c r="E18" s="4" t="inlineStr">
+      <c r="E20" s="4" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
       </c>
-      <c r="F18" s="20" t="n"/>
-      <c r="G18" s="4" t="n"/>
-      <c r="H18" s="18" t="n"/>
-      <c r="I18" s="20" t="n"/>
-    </row>
-    <row r="19" ht="75" customHeight="1">
-      <c r="A19" s="4" t="inlineStr">
+      <c r="F20" s="20" t="n">
+        <v>46057</v>
+      </c>
+      <c r="G20" s="4" t="n"/>
+      <c r="H20" s="4" t="n"/>
+      <c r="I20" s="16" t="n"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="4" t="inlineStr">
         <is>
           <t>2.3</t>
         </is>
       </c>
-      <c r="B19" s="4" t="inlineStr">
+      <c r="B21" s="4" t="inlineStr">
         <is>
           <t>Cannot advance without selection</t>
         </is>
       </c>
-      <c r="C19" s="4" t="inlineStr">
+      <c r="C21" s="4" t="inlineStr">
         <is>
           <t>Click "Next" without selecting a program</t>
         </is>
       </c>
-      <c r="D19" s="4" t="inlineStr">
+      <c r="D21" s="4" t="inlineStr">
         <is>
           <t>Error message appears: "Select Program is required"</t>
         </is>
       </c>
-      <c r="E19" s="4" t="inlineStr">
+      <c r="E21" s="4" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
       </c>
-      <c r="F19" s="20" t="n"/>
-      <c r="G19" s="4" t="inlineStr">
+      <c r="F21" s="20" t="n">
+        <v>46057</v>
+      </c>
+      <c r="G21" s="4" t="inlineStr">
         <is>
           <t>Attempted to proceed without selecting a program. Clicked "Next."
 Form blocked progression. Selection box highlighted in red. Error message displayed: "Select Program is required."</t>
         </is>
       </c>
-      <c r="H19" s="18" t="n"/>
-      <c r="I19" s="20" t="n"/>
-    </row>
-    <row r="20" ht="75" customHeight="1">
-      <c r="A20" s="4" t="inlineStr">
+      <c r="H21" s="4" t="n"/>
+      <c r="I21" s="16" t="n"/>
+    </row>
+    <row r="22" ht="17" customHeight="1">
+      <c r="A22" s="4" t="inlineStr">
         <is>
           <t>2.4</t>
         </is>
       </c>
-      <c r="B20" s="4" t="inlineStr">
+      <c r="B22" s="4" t="inlineStr">
         <is>
           <t>Can advance with selection</t>
         </is>
       </c>
-      <c r="C20" s="4" t="inlineStr">
+      <c r="C22" s="4" t="inlineStr">
         <is>
           <t>Select "Prevention4ME", click "Next"</t>
         </is>
       </c>
-      <c r="D20" s="4" t="inlineStr">
+      <c r="D22" s="4" t="inlineStr">
         <is>
           <t>Moves to Step 2 (Clinic Information)</t>
         </is>
       </c>
-      <c r="E20" s="4" t="inlineStr">
+      <c r="E22" s="4" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
       </c>
-      <c r="F20" s="20" t="n"/>
-      <c r="G20" s="4" t="inlineStr">
+      <c r="F22" s="20" t="n">
+        <v>46057</v>
+      </c>
+      <c r="G22" s="4" t="inlineStr">
         <is>
           <t>Selected Prevention4ME. Red highlight disappeared. Selection box returned to normal view with green outline. Clicked "Next."
 Successfully navigated to the next page.</t>
         </is>
       </c>
-      <c r="H20" s="18" t="n"/>
-      <c r="I20" s="20" t="n"/>
-    </row>
-    <row r="21">
-      <c r="F21" s="20" t="n"/>
-      <c r="I21" s="20" t="n"/>
-    </row>
-    <row r="22" ht="17" customHeight="1">
-      <c r="A22" s="11" t="inlineStr">
+      <c r="H22" s="4" t="n"/>
+      <c r="I22" s="16" t="n"/>
+    </row>
+    <row r="23" ht="17" customHeight="1">
+      <c r="F23" s="16" t="n"/>
+      <c r="I23" s="16" t="n"/>
+    </row>
+    <row r="24" ht="135" customHeight="1">
+      <c r="A24" s="23" t="inlineStr">
         <is>
           <t>Section 3: Step 2 — Clinic Information</t>
         </is>
       </c>
-      <c r="B22" s="15" t="n"/>
-      <c r="C22" s="15" t="n"/>
-      <c r="D22" s="15" t="n"/>
-      <c r="E22" s="15" t="n"/>
-      <c r="F22" s="20" t="n"/>
-      <c r="G22" s="16" t="n"/>
-      <c r="I22" s="20" t="n"/>
-    </row>
-    <row r="23" ht="17" customHeight="1">
-      <c r="A23" s="3" t="inlineStr">
+      <c r="B24" s="22" t="n"/>
+      <c r="C24" s="22" t="n"/>
+      <c r="D24" s="22" t="n"/>
+      <c r="E24" s="22" t="n"/>
+      <c r="F24" s="22" t="n"/>
+      <c r="G24" s="22" t="n"/>
+      <c r="H24" s="22" t="n"/>
+      <c r="I24" s="24" t="n"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="3" t="inlineStr">
         <is>
           <t>#</t>
         </is>
       </c>
-      <c r="B23" s="3" t="inlineStr">
+      <c r="B25" s="3" t="inlineStr">
         <is>
           <t>Test Case</t>
         </is>
       </c>
-      <c r="C23" s="3" t="inlineStr">
+      <c r="C25" s="3" t="inlineStr">
         <is>
           <t>Steps</t>
         </is>
       </c>
-      <c r="D23" s="3" t="inlineStr">
+      <c r="D25" s="3" t="inlineStr">
         <is>
           <t>Expected Result</t>
         </is>
       </c>
-      <c r="E23" s="3" t="inlineStr">
+      <c r="E25" s="3" t="inlineStr">
         <is>
           <t>Result</t>
         </is>
       </c>
-      <c r="F23" s="20" t="n"/>
-      <c r="G23" s="3" t="inlineStr">
+      <c r="F25" s="15" t="inlineStr">
+        <is>
+          <t>Date Tested</t>
+        </is>
+      </c>
+      <c r="G25" s="3" t="inlineStr">
         <is>
           <t>Notes</t>
         </is>
       </c>
-      <c r="H23" s="17" t="inlineStr">
+      <c r="H25" s="13" t="inlineStr">
         <is>
           <t>Retest</t>
         </is>
       </c>
-      <c r="I23" s="20" t="n"/>
-    </row>
-    <row r="24" ht="135" customHeight="1">
-      <c r="A24" s="4" t="inlineStr">
+      <c r="I25" s="15" t="inlineStr">
+        <is>
+          <t>Retest Date</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="4" t="inlineStr">
         <is>
           <t>3.1</t>
         </is>
       </c>
-      <c r="B24" s="4" t="inlineStr">
+      <c r="B26" s="4" t="inlineStr">
         <is>
           <t>Required fields enforced</t>
         </is>
       </c>
-      <c r="C24" s="4" t="inlineStr">
+      <c r="C26" s="4" t="inlineStr">
         <is>
           <t>Leave all fields empty, click "Next"</t>
         </is>
       </c>
-      <c r="D24" s="4" t="inlineStr">
+      <c r="D26" s="4" t="inlineStr">
         <is>
           <t>Errors shown for: Clinic Name, Clinic EPIC ID, Clinic Address (street/city/state/zip), Timezone, Clinic Office Phone Number</t>
         </is>
       </c>
-      <c r="E24" s="4" t="inlineStr">
+      <c r="E26" s="4" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
       </c>
-      <c r="F24" s="20" t="n"/>
-      <c r="G24" s="4" t="inlineStr">
+      <c r="F26" s="20" t="n">
+        <v>46057</v>
+      </c>
+      <c r="G26" s="4" t="inlineStr">
         <is>
           <t>Attempted to proceed without completing any required fields. Clicked "Next."
 Form blocked progression. All required fields highlighted in red with corresponding error messages: "Clinic Name is required," "Clinic EPIC ID is required," "Please complete all required address fields," "Timezone is required," "Clinic Office Phone Number is required."</t>
         </is>
       </c>
-      <c r="H24" s="18" t="n"/>
-      <c r="I24" s="20" t="n"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="4" t="inlineStr">
+      <c r="H26" s="14" t="n"/>
+      <c r="I26" s="16" t="n"/>
+    </row>
+    <row r="27" ht="60" customHeight="1">
+      <c r="A27" s="4" t="inlineStr">
         <is>
           <t>3.2</t>
         </is>
       </c>
-      <c r="B25" s="4" t="inlineStr">
+      <c r="B27" s="4" t="inlineStr">
         <is>
           <t>Clinic Name accepts text</t>
         </is>
       </c>
-      <c r="C25" s="4" t="inlineStr">
+      <c r="C27" s="4" t="inlineStr">
         <is>
           <t>Enter "Montana Breast Care Center - TEST"</t>
         </is>
       </c>
-      <c r="D25" s="4" t="inlineStr">
+      <c r="D27" s="4" t="inlineStr">
         <is>
           <t>Value displays correctly in field</t>
         </is>
       </c>
-      <c r="E25" s="4" t="inlineStr">
+      <c r="E27" s="4" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
       </c>
-      <c r="F25" s="20" t="n"/>
-      <c r="G25" s="4" t="n"/>
-      <c r="H25" s="18" t="n"/>
-      <c r="I25" s="20" t="n"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="4" t="inlineStr">
-        <is>
-          <t>3.3</t>
-        </is>
-      </c>
-      <c r="B26" s="4" t="inlineStr">
-        <is>
-          <t>Clinic Name checkbox toggles</t>
-        </is>
-      </c>
-      <c r="C26" s="4" t="inlineStr">
-        <is>
-          <t>Check "Use this clinic name for patient emails and SMS"</t>
-        </is>
-      </c>
-      <c r="D26" s="4" t="inlineStr">
-        <is>
-          <t>Checkbox checked, value stored</t>
-        </is>
-      </c>
-      <c r="E26" s="4" t="n"/>
-      <c r="F26" s="20" t="n"/>
-      <c r="G26" s="4" t="n"/>
-      <c r="H26" s="18" t="n"/>
-      <c r="I26" s="20" t="n"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="4" t="inlineStr">
-        <is>
-          <t>3.4</t>
-        </is>
-      </c>
-      <c r="B27" s="4" t="inlineStr">
-        <is>
-          <t>Clinic EPIC ID accepts text</t>
-        </is>
-      </c>
-      <c r="C27" s="4" t="inlineStr">
-        <is>
-          <t>Enter "12345"</t>
-        </is>
-      </c>
-      <c r="D27" s="4" t="inlineStr">
-        <is>
-          <t>Value displays correctly</t>
-        </is>
-      </c>
-      <c r="E27" s="4" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="F27" s="20" t="n"/>
-      <c r="G27" s="4" t="inlineStr">
-        <is>
-          <t>12345 (for DB reconcillation)</t>
-        </is>
-      </c>
-      <c r="H27" s="18" t="n"/>
-      <c r="I27" s="20" t="n"/>
+      <c r="F27" s="20" t="n">
+        <v>46057</v>
+      </c>
+      <c r="G27" s="4" t="n"/>
+      <c r="H27" s="14" t="n"/>
+      <c r="I27" s="16" t="n"/>
     </row>
     <row r="28" ht="30" customHeight="1">
       <c r="A28" s="4" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>3.3</t>
         </is>
       </c>
       <c r="B28" s="4" t="inlineStr">
         <is>
-          <t>Clinic Address composite renders</t>
+          <t>Clinic Name checkbox toggles</t>
         </is>
       </c>
       <c r="C28" s="4" t="inlineStr">
         <is>
-          <t>Observe the Clinic Address section</t>
+          <t>Check "Use this clinic name for patient emails and SMS"</t>
         </is>
       </c>
       <c r="D28" s="4" t="inlineStr">
         <is>
-          <t>Shows Street Address, City, State (dropdown), ZIP Code fields grouped in a gray box</t>
-        </is>
-      </c>
-      <c r="E28" s="4" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="F28" s="20" t="n"/>
-      <c r="G28" s="4" t="inlineStr">
-        <is>
-          <t>123 Any Street, Auburn CA (for DB reconcillation)</t>
-        </is>
-      </c>
-      <c r="H28" s="18" t="n"/>
-      <c r="I28" s="20" t="n"/>
+          <t>Checkbox checked, value stored</t>
+        </is>
+      </c>
+      <c r="E28" s="4" t="n"/>
+      <c r="F28" s="16" t="n"/>
+      <c r="G28" s="4" t="n"/>
+      <c r="H28" s="14" t="n"/>
+      <c r="I28" s="16" t="n"/>
     </row>
     <row r="29">
       <c r="A29" s="4" t="inlineStr">
         <is>
-          <t>3.6</t>
+          <t>3.4</t>
         </is>
       </c>
       <c r="B29" s="4" t="inlineStr">
         <is>
-          <t>Clinic Address state dropdown</t>
+          <t>Clinic EPIC ID accepts text</t>
         </is>
       </c>
       <c r="C29" s="4" t="inlineStr">
         <is>
-          <t>Click the State dropdown</t>
+          <t>Enter "12345"</t>
         </is>
       </c>
       <c r="D29" s="4" t="inlineStr">
         <is>
-          <t>Shows all US state abbreviations</t>
+          <t>Value displays correctly</t>
         </is>
       </c>
       <c r="E29" s="4" t="inlineStr">
@@ -1423,30 +1455,36 @@
           <t>PASS</t>
         </is>
       </c>
-      <c r="F29" s="20" t="n"/>
-      <c r="G29" s="4" t="n"/>
-      <c r="H29" s="18" t="n"/>
-      <c r="I29" s="20" t="n"/>
+      <c r="F29" s="20" t="n">
+        <v>46057</v>
+      </c>
+      <c r="G29" s="4" t="inlineStr">
+        <is>
+          <t>12345 (for DB reconcillation)</t>
+        </is>
+      </c>
+      <c r="H29" s="14" t="n"/>
+      <c r="I29" s="16" t="n"/>
     </row>
     <row r="30" ht="64" customHeight="1">
       <c r="A30" s="4" t="inlineStr">
         <is>
-          <t>3.7</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="B30" s="4" t="inlineStr">
         <is>
-          <t>ZIP Code validates format</t>
+          <t>Clinic Address composite renders</t>
         </is>
       </c>
       <c r="C30" s="4" t="inlineStr">
         <is>
-          <t>Enter "9720" (4 digits) in ZIP, click Next</t>
+          <t>Observe the Clinic Address section</t>
         </is>
       </c>
       <c r="D30" s="4" t="inlineStr">
         <is>
-          <t>Error shown (requires 5-digit or 5+4 format)</t>
+          <t>Shows Street Address, City, State (dropdown), ZIP Code fields grouped in a gray box</t>
         </is>
       </c>
       <c r="E30" s="4" t="inlineStr">
@@ -1454,34 +1492,36 @@
           <t>PASS</t>
         </is>
       </c>
-      <c r="F30" s="20" t="n"/>
-      <c r="G30" s="13" t="inlineStr">
-        <is>
-          <t>Entered a 4-digit zip code. Zip code field remained red. Entire address box remained outlined in red. Could not proceed to next page.</t>
-        </is>
-      </c>
-      <c r="H30" s="18" t="n"/>
-      <c r="I30" s="20" t="n"/>
-    </row>
-    <row r="31">
+      <c r="F30" s="20" t="n">
+        <v>46057</v>
+      </c>
+      <c r="G30" s="4" t="inlineStr">
+        <is>
+          <t>123 Any Street, Auburn CA (for DB reconcillation)</t>
+        </is>
+      </c>
+      <c r="H30" s="14" t="n"/>
+      <c r="I30" s="16" t="n"/>
+    </row>
+    <row r="31" ht="60" customHeight="1">
       <c r="A31" s="4" t="inlineStr">
         <is>
-          <t>3.8</t>
+          <t>3.6</t>
         </is>
       </c>
       <c r="B31" s="4" t="inlineStr">
         <is>
-          <t>ZIP Code accepts valid format</t>
+          <t>Clinic Address state dropdown</t>
         </is>
       </c>
       <c r="C31" s="4" t="inlineStr">
         <is>
-          <t>Enter "97201" or "97201-1234"</t>
+          <t>Click the State dropdown</t>
         </is>
       </c>
       <c r="D31" s="4" t="inlineStr">
         <is>
-          <t>No error</t>
+          <t>Shows all US state abbreviations</t>
         </is>
       </c>
       <c r="E31" s="4" t="inlineStr">
@@ -1489,34 +1529,32 @@
           <t>PASS</t>
         </is>
       </c>
-      <c r="F31" s="20" t="n"/>
-      <c r="G31" s="4" t="inlineStr">
-        <is>
-          <t>97201 (for DB reconsillation)</t>
-        </is>
-      </c>
-      <c r="H31" s="18" t="n"/>
-      <c r="I31" s="20" t="n"/>
+      <c r="F31" s="20" t="n">
+        <v>46057</v>
+      </c>
+      <c r="G31" s="4" t="n"/>
+      <c r="H31" s="14" t="n"/>
+      <c r="I31" s="16" t="n"/>
     </row>
     <row r="32" ht="30" customHeight="1">
       <c r="A32" s="4" t="inlineStr">
         <is>
-          <t>3.9</t>
+          <t>3.7</t>
         </is>
       </c>
       <c r="B32" s="4" t="inlineStr">
         <is>
-          <t>Timezone dropdown populated</t>
+          <t>ZIP Code validates format</t>
         </is>
       </c>
       <c r="C32" s="4" t="inlineStr">
         <is>
-          <t>Click the Timezone dropdown</t>
+          <t>Enter "9720" (4 digits) in ZIP, click Next</t>
         </is>
       </c>
       <c r="D32" s="4" t="inlineStr">
         <is>
-          <t>Shows timezone options (e.g., America/Los_Angeles, America/Denver)</t>
+          <t>Error shown (requires 5-digit or 5+4 format)</t>
         </is>
       </c>
       <c r="E32" s="4" t="inlineStr">
@@ -1524,34 +1562,36 @@
           <t>PASS</t>
         </is>
       </c>
-      <c r="F32" s="20" t="n"/>
-      <c r="G32" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pacific (for DB reconcillation) </t>
-        </is>
-      </c>
-      <c r="H32" s="18" t="n"/>
-      <c r="I32" s="20" t="n"/>
+      <c r="F32" s="20" t="n">
+        <v>46057</v>
+      </c>
+      <c r="G32" s="11" t="inlineStr">
+        <is>
+          <t>Entered a 4-digit zip code. Zip code field remained red. Entire address box remained outlined in red. Could not proceed to next page.</t>
+        </is>
+      </c>
+      <c r="H32" s="14" t="n"/>
+      <c r="I32" s="16" t="n"/>
     </row>
     <row r="33" ht="45" customHeight="1">
       <c r="A33" s="4" t="inlineStr">
         <is>
-          <t>3.10</t>
+          <t>3.8</t>
         </is>
       </c>
       <c r="B33" s="4" t="inlineStr">
         <is>
-          <t>Clinic phone validates format</t>
+          <t>ZIP Code accepts valid format</t>
         </is>
       </c>
       <c r="C33" s="4" t="inlineStr">
         <is>
-          <t>Enter "555-123" (incomplete), click Next</t>
+          <t>Enter "97201" or "97201-1234"</t>
         </is>
       </c>
       <c r="D33" s="4" t="inlineStr">
         <is>
-          <t>Error shown: "Main clinic phone number (10 digits)" pattern error</t>
+          <t>No error</t>
         </is>
       </c>
       <c r="E33" s="4" t="inlineStr">
@@ -1559,34 +1599,36 @@
           <t>PASS</t>
         </is>
       </c>
-      <c r="F33" s="20" t="n"/>
+      <c r="F33" s="20" t="n">
+        <v>46057</v>
+      </c>
       <c r="G33" s="4" t="inlineStr">
         <is>
-          <t>Entered partial phone number (555-123). Phone number field remained highlighted in red. Could not proceed to next page.</t>
-        </is>
-      </c>
-      <c r="H33" s="18" t="n"/>
-      <c r="I33" s="20" t="n"/>
-    </row>
-    <row r="34">
+          <t>97201 (for DB reconsillation)</t>
+        </is>
+      </c>
+      <c r="H33" s="14" t="n"/>
+      <c r="I33" s="16" t="n"/>
+    </row>
+    <row r="34" ht="60" customHeight="1">
       <c r="A34" s="4" t="inlineStr">
         <is>
-          <t>3.11</t>
+          <t>3.9</t>
         </is>
       </c>
       <c r="B34" s="4" t="inlineStr">
         <is>
-          <t>Clinic phone accepts valid format</t>
+          <t>Timezone dropdown populated</t>
         </is>
       </c>
       <c r="C34" s="4" t="inlineStr">
         <is>
-          <t>Enter "555-123-4567"</t>
+          <t>Click the Timezone dropdown</t>
         </is>
       </c>
       <c r="D34" s="4" t="inlineStr">
         <is>
-          <t>No error</t>
+          <t>Shows timezone options (e.g., America/Los_Angeles, America/Denver)</t>
         </is>
       </c>
       <c r="E34" s="4" t="inlineStr">
@@ -1594,34 +1636,36 @@
           <t>PASS</t>
         </is>
       </c>
-      <c r="F34" s="20" t="n"/>
+      <c r="F34" s="20" t="n">
+        <v>46057</v>
+      </c>
       <c r="G34" s="4" t="inlineStr">
         <is>
-          <t>555-123-4567 (for DB reconcillation)</t>
-        </is>
-      </c>
-      <c r="H34" s="18" t="n"/>
-      <c r="I34" s="20" t="n"/>
+          <t xml:space="preserve">Pacific (for DB reconcillation) </t>
+        </is>
+      </c>
+      <c r="H34" s="14" t="n"/>
+      <c r="I34" s="16" t="n"/>
     </row>
     <row r="35" ht="30" customHeight="1">
       <c r="A35" s="4" t="inlineStr">
         <is>
-          <t>3.12</t>
+          <t>3.10</t>
         </is>
       </c>
       <c r="B35" s="4" t="inlineStr">
         <is>
-          <t>Helpdesk fields are hidden initially</t>
+          <t>Clinic phone validates format</t>
         </is>
       </c>
       <c r="C35" s="4" t="inlineStr">
         <is>
-          <t>Observe page without checking helpdesk checkbox</t>
+          <t>Enter "555-123" (incomplete), click Next</t>
         </is>
       </c>
       <c r="D35" s="4" t="inlineStr">
         <is>
-          <t>"Patient Helpline Phone Number", "Helpline Hours of Operation", and associated checkboxes are NOT visible</t>
+          <t>Error shown: "Main clinic phone number (10 digits)" pattern error</t>
         </is>
       </c>
       <c r="E35" s="4" t="inlineStr">
@@ -1629,30 +1673,36 @@
           <t>PASS</t>
         </is>
       </c>
-      <c r="F35" s="20" t="n"/>
-      <c r="G35" s="4" t="n"/>
-      <c r="H35" s="18" t="n"/>
-      <c r="I35" s="20" t="n"/>
+      <c r="F35" s="20" t="n">
+        <v>46057</v>
+      </c>
+      <c r="G35" s="4" t="inlineStr">
+        <is>
+          <t>Entered partial phone number (555-123). Phone number field remained highlighted in red. Could not proceed to next page.</t>
+        </is>
+      </c>
+      <c r="H35" s="14" t="n"/>
+      <c r="I35" s="16" t="n"/>
     </row>
     <row r="36" ht="30" customHeight="1">
       <c r="A36" s="4" t="inlineStr">
         <is>
-          <t>3.13</t>
+          <t>3.11</t>
         </is>
       </c>
       <c r="B36" s="4" t="inlineStr">
         <is>
-          <t>Helpdesk checkbox reveals fields</t>
+          <t>Clinic phone accepts valid format</t>
         </is>
       </c>
       <c r="C36" s="4" t="inlineStr">
         <is>
-          <t>Check "Does this clinic have a separate patient-facing helpline?"</t>
+          <t>Enter "555-123-4567"</t>
         </is>
       </c>
       <c r="D36" s="4" t="inlineStr">
         <is>
-          <t>"Patient Helpline Phone Number", "Helpline Hours of Operation", and email checkboxes appear</t>
+          <t>No error</t>
         </is>
       </c>
       <c r="E36" s="4" t="inlineStr">
@@ -1660,30 +1710,36 @@
           <t>PASS</t>
         </is>
       </c>
-      <c r="F36" s="20" t="n"/>
-      <c r="G36" s="4" t="n"/>
-      <c r="H36" s="18" t="n"/>
-      <c r="I36" s="20" t="n"/>
+      <c r="F36" s="20" t="n">
+        <v>46057</v>
+      </c>
+      <c r="G36" s="4" t="inlineStr">
+        <is>
+          <t>555-123-4567 (for DB reconcillation)</t>
+        </is>
+      </c>
+      <c r="H36" s="14" t="n"/>
+      <c r="I36" s="16" t="n"/>
     </row>
     <row r="37" ht="45" customHeight="1">
       <c r="A37" s="4" t="inlineStr">
         <is>
-          <t>3.14</t>
+          <t>3.12</t>
         </is>
       </c>
       <c r="B37" s="4" t="inlineStr">
         <is>
-          <t>Helpdesk phone validates format</t>
+          <t>Helpdesk fields are hidden initially</t>
         </is>
       </c>
       <c r="C37" s="4" t="inlineStr">
         <is>
-          <t>Enter "123" in Patient Helpline Phone, click Next</t>
+          <t>Observe page without checking helpdesk checkbox</t>
         </is>
       </c>
       <c r="D37" s="4" t="inlineStr">
         <is>
-          <t>Pattern error shown</t>
+          <t>"Patient Helpline Phone Number", "Helpline Hours of Operation", and associated checkboxes are NOT visible</t>
         </is>
       </c>
       <c r="E37" s="4" t="inlineStr">
@@ -1691,34 +1747,32 @@
           <t>PASS</t>
         </is>
       </c>
-      <c r="F37" s="20" t="n"/>
-      <c r="G37" s="4" t="inlineStr">
-        <is>
-          <t>Entered partial phone number (555-123). Phone number field remained highlighted in red. Could not proceed to next page.</t>
-        </is>
-      </c>
-      <c r="H37" s="18" t="n"/>
-      <c r="I37" s="20" t="n"/>
+      <c r="F37" s="20" t="n">
+        <v>46057</v>
+      </c>
+      <c r="G37" s="4" t="n"/>
+      <c r="H37" s="14" t="n"/>
+      <c r="I37" s="16" t="n"/>
     </row>
     <row r="38">
       <c r="A38" s="4" t="inlineStr">
         <is>
-          <t>3.15</t>
+          <t>3.13</t>
         </is>
       </c>
       <c r="B38" s="4" t="inlineStr">
         <is>
-          <t>Unchecking helpdesk hides fields again</t>
+          <t>Helpdesk checkbox reveals fields</t>
         </is>
       </c>
       <c r="C38" s="4" t="inlineStr">
         <is>
-          <t>Uncheck the helpdesk checkbox</t>
+          <t>Check "Does this clinic have a separate patient-facing helpline?"</t>
         </is>
       </c>
       <c r="D38" s="4" t="inlineStr">
         <is>
-          <t>All helpdesk-related fields disappear</t>
+          <t>"Patient Helpline Phone Number", "Helpline Hours of Operation", and email checkboxes appear</t>
         </is>
       </c>
       <c r="E38" s="4" t="inlineStr">
@@ -1726,30 +1780,32 @@
           <t>PASS</t>
         </is>
       </c>
-      <c r="F38" s="20" t="n"/>
+      <c r="F38" s="20" t="n">
+        <v>46057</v>
+      </c>
       <c r="G38" s="4" t="n"/>
-      <c r="H38" s="18" t="n"/>
-      <c r="I38" s="20" t="n"/>
+      <c r="H38" s="14" t="n"/>
+      <c r="I38" s="16" t="n"/>
     </row>
     <row r="39" ht="30" customHeight="1">
       <c r="A39" s="4" t="inlineStr">
         <is>
-          <t>3.16</t>
+          <t>3.14</t>
         </is>
       </c>
       <c r="B39" s="4" t="inlineStr">
         <is>
-          <t>Website fields are optional</t>
+          <t>Helpdesk phone validates format</t>
         </is>
       </c>
       <c r="C39" s="4" t="inlineStr">
         <is>
-          <t>Leave both website fields blank, fill all required fields, click Next</t>
+          <t>Enter "123" in Patient Helpline Phone, click Next</t>
         </is>
       </c>
       <c r="D39" s="4" t="inlineStr">
         <is>
-          <t>Advances to Step 3 without error</t>
+          <t>Pattern error shown</t>
         </is>
       </c>
       <c r="E39" s="4" t="inlineStr">
@@ -1757,219 +1813,234 @@
           <t>PASS</t>
         </is>
       </c>
-      <c r="F39" s="20" t="n"/>
-      <c r="G39" s="4" t="n"/>
-      <c r="H39" s="18" t="n"/>
-      <c r="I39" s="20" t="n"/>
+      <c r="F39" s="20" t="n">
+        <v>46057</v>
+      </c>
+      <c r="G39" s="4" t="inlineStr">
+        <is>
+          <t>Entered partial phone number (555-123). Phone number field remained highlighted in red. Could not proceed to next page.</t>
+        </is>
+      </c>
+      <c r="H39" s="14" t="n"/>
+      <c r="I39" s="16" t="n"/>
     </row>
     <row r="40" ht="30" customHeight="1">
       <c r="A40" s="4" t="inlineStr">
         <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="B40" s="4" t="inlineStr">
+        <is>
+          <t>Unchecking helpdesk hides fields again</t>
+        </is>
+      </c>
+      <c r="C40" s="4" t="inlineStr">
+        <is>
+          <t>Uncheck the helpdesk checkbox</t>
+        </is>
+      </c>
+      <c r="D40" s="4" t="inlineStr">
+        <is>
+          <t>All helpdesk-related fields disappear</t>
+        </is>
+      </c>
+      <c r="E40" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="F40" s="20" t="n">
+        <v>46057</v>
+      </c>
+      <c r="G40" s="4" t="n"/>
+      <c r="H40" s="14" t="n"/>
+      <c r="I40" s="16" t="n"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="4" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="B41" s="4" t="inlineStr">
+        <is>
+          <t>Website fields are optional</t>
+        </is>
+      </c>
+      <c r="C41" s="4" t="inlineStr">
+        <is>
+          <t>Leave both website fields blank, fill all required fields, click Next</t>
+        </is>
+      </c>
+      <c r="D41" s="4" t="inlineStr">
+        <is>
+          <t>Advances to Step 3 without error</t>
+        </is>
+      </c>
+      <c r="E41" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="F41" s="20" t="n">
+        <v>46057</v>
+      </c>
+      <c r="G41" s="4" t="n"/>
+      <c r="H41" s="14" t="n"/>
+      <c r="I41" s="16" t="n"/>
+    </row>
+    <row r="42" ht="17" customHeight="1">
+      <c r="A42" s="4" t="inlineStr">
+        <is>
           <t>3.17</t>
         </is>
       </c>
-      <c r="B40" s="4" t="inlineStr">
+      <c r="B42" s="4" t="inlineStr">
         <is>
           <t>Hours of operation is optional</t>
         </is>
       </c>
-      <c r="C40" s="4" t="inlineStr">
+      <c r="C42" s="4" t="inlineStr">
         <is>
           <t>Leave Hours of Operation blank, fill all required fields, click Next</t>
         </is>
       </c>
-      <c r="D40" s="4" t="inlineStr">
+      <c r="D42" s="4" t="inlineStr">
         <is>
           <t>Advances without error</t>
         </is>
       </c>
-      <c r="E40" s="4" t="inlineStr">
+      <c r="E42" s="4" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
       </c>
-      <c r="F40" s="20" t="n"/>
-      <c r="G40" s="4" t="n"/>
-      <c r="H40" s="18" t="n"/>
-      <c r="I40" s="20" t="n"/>
-    </row>
-    <row r="41">
-      <c r="F41" s="20" t="n"/>
-      <c r="I41" s="20" t="n"/>
-    </row>
-    <row r="42" ht="17" customHeight="1">
-      <c r="A42" s="11" t="inlineStr">
+      <c r="F42" s="20" t="n">
+        <v>46057</v>
+      </c>
+      <c r="G42" s="4" t="n"/>
+      <c r="H42" s="14" t="n"/>
+      <c r="I42" s="16" t="n"/>
+    </row>
+    <row r="43" ht="17" customHeight="1">
+      <c r="F43" s="16" t="n"/>
+      <c r="I43" s="16" t="n"/>
+    </row>
+    <row r="44" ht="30" customHeight="1">
+      <c r="A44" s="23" t="inlineStr">
         <is>
           <t>Section 4: Step 3 — Contacts</t>
         </is>
       </c>
-      <c r="B42" s="15" t="n"/>
-      <c r="C42" s="15" t="n"/>
-      <c r="D42" s="15" t="n"/>
-      <c r="E42" s="15" t="n"/>
-      <c r="F42" s="20" t="n"/>
-      <c r="G42" s="16" t="n"/>
-      <c r="I42" s="20" t="n"/>
-    </row>
-    <row r="43" ht="17" customHeight="1">
-      <c r="A43" s="3" t="inlineStr">
+      <c r="B44" s="22" t="n"/>
+      <c r="C44" s="22" t="n"/>
+      <c r="D44" s="22" t="n"/>
+      <c r="E44" s="22" t="n"/>
+      <c r="F44" s="22" t="n"/>
+      <c r="G44" s="22" t="n"/>
+      <c r="H44" s="22" t="n"/>
+      <c r="I44" s="24" t="n"/>
+    </row>
+    <row r="45" ht="80" customHeight="1">
+      <c r="A45" s="3" t="inlineStr">
         <is>
           <t>#</t>
         </is>
       </c>
-      <c r="B43" s="3" t="inlineStr">
+      <c r="B45" s="3" t="inlineStr">
         <is>
           <t>Test Case</t>
         </is>
       </c>
-      <c r="C43" s="3" t="inlineStr">
+      <c r="C45" s="3" t="inlineStr">
         <is>
           <t>Steps</t>
         </is>
       </c>
-      <c r="D43" s="3" t="inlineStr">
+      <c r="D45" s="3" t="inlineStr">
         <is>
           <t>Expected Result</t>
         </is>
       </c>
-      <c r="E43" s="3" t="inlineStr">
+      <c r="E45" s="3" t="inlineStr">
         <is>
           <t>Result</t>
         </is>
       </c>
-      <c r="F43" s="20" t="n"/>
-      <c r="G43" s="3" t="inlineStr">
+      <c r="F45" s="15" t="inlineStr">
+        <is>
+          <t>Date Tested</t>
+        </is>
+      </c>
+      <c r="G45" s="3" t="inlineStr">
         <is>
           <t>Notes</t>
         </is>
       </c>
-      <c r="H43" s="17" t="inlineStr">
+      <c r="H45" s="13" t="inlineStr">
         <is>
           <t>Retest</t>
         </is>
       </c>
-      <c r="I43" s="20" t="n"/>
-    </row>
-    <row r="44" ht="30" customHeight="1">
-      <c r="A44" s="4" t="inlineStr">
+      <c r="I45" s="15" t="inlineStr">
+        <is>
+          <t>Retest Date</t>
+        </is>
+      </c>
+    </row>
+    <row r="46" ht="60" customHeight="1">
+      <c r="A46" s="4" t="inlineStr">
         <is>
           <t>4.1</t>
         </is>
       </c>
-      <c r="B44" s="4" t="inlineStr">
+      <c r="B46" s="4" t="inlineStr">
         <is>
           <t>Contact group renders all sub-fields</t>
         </is>
       </c>
-      <c r="C44" s="4" t="inlineStr">
+      <c r="C46" s="4" t="inlineStr">
         <is>
           <t>Observe the Clinic Champion section</t>
         </is>
       </c>
-      <c r="D44" s="4" t="inlineStr">
+      <c r="D46" s="4" t="inlineStr">
         <is>
           <t>Shows Name, Title, Email, Phone, Preferred Contact Method, and Best Time to Reach fields in a gray group box</t>
         </is>
       </c>
-      <c r="E44" s="4" t="inlineStr">
+      <c r="E46" s="4" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
       </c>
-      <c r="F44" s="20" t="n"/>
-      <c r="G44" s="4" t="n"/>
-      <c r="H44" s="18" t="n"/>
-      <c r="I44" s="20" t="n"/>
-    </row>
-    <row r="45" ht="80" customHeight="1">
-      <c r="A45" s="4" t="inlineStr">
-        <is>
-          <t>4.2</t>
-        </is>
-      </c>
-      <c r="B45" s="4" t="inlineStr">
-        <is>
-          <t>Clinic Champion is required</t>
-        </is>
-      </c>
-      <c r="C45" s="4" t="inlineStr">
-        <is>
-          <t>Leave Clinic Champion empty, click Next</t>
-        </is>
-      </c>
-      <c r="D45" s="4" t="inlineStr">
-        <is>
-          <t>Errors shown for Name and Email (required sub-fields)</t>
-        </is>
-      </c>
-      <c r="E45" s="4" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="F45" s="20" t="n"/>
-      <c r="G45" s="13" t="inlineStr">
-        <is>
-          <t>Left all contact fields blank (covers sub-tests 4.2, 4.8, 4.9). Attempted to navigate to next page. All fields highlighted in red as required. Could not proceed.</t>
-        </is>
-      </c>
-      <c r="H45" s="18" t="n"/>
-      <c r="I45" s="20" t="n"/>
-    </row>
-    <row r="46">
-      <c r="A46" s="4" t="inlineStr">
-        <is>
-          <t>4.3</t>
-        </is>
-      </c>
-      <c r="B46" s="4" t="inlineStr">
-        <is>
-          <t>Clinic Champion accepts valid data</t>
-        </is>
-      </c>
-      <c r="C46" s="4" t="inlineStr">
-        <is>
-          <t>Enter Name: "Jane Smith", Email: "jane@clinic.org"</t>
-        </is>
-      </c>
-      <c r="D46" s="4" t="inlineStr">
-        <is>
-          <t>Fields accept input, no errors</t>
-        </is>
-      </c>
-      <c r="E46" s="4" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="F46" s="20" t="n"/>
-      <c r="G46" s="4" t="inlineStr">
-        <is>
-          <t>Jane Smith (for DB reconcillation)</t>
-        </is>
-      </c>
-      <c r="H46" s="18" t="n"/>
-      <c r="I46" s="20" t="n"/>
+      <c r="F46" s="20" t="n">
+        <v>46057</v>
+      </c>
+      <c r="G46" s="4" t="n"/>
+      <c r="H46" s="14" t="n"/>
+      <c r="I46" s="16" t="n"/>
     </row>
     <row r="47" ht="64" customHeight="1">
       <c r="A47" s="4" t="inlineStr">
         <is>
-          <t>4.4</t>
+          <t>4.2</t>
         </is>
       </c>
       <c r="B47" s="4" t="inlineStr">
         <is>
-          <t>Email validation on contact fields</t>
+          <t>Clinic Champion is required</t>
         </is>
       </c>
       <c r="C47" s="4" t="inlineStr">
         <is>
-          <t>Enter "notanemail" in Clinic Champion email, click Next</t>
+          <t>Leave Clinic Champion empty, click Next</t>
         </is>
       </c>
       <c r="D47" s="4" t="inlineStr">
         <is>
-          <t>Email format error shown</t>
+          <t>Errors shown for Name and Email (required sub-fields)</t>
         </is>
       </c>
       <c r="E47" s="4" t="inlineStr">
@@ -1977,133 +2048,149 @@
           <t>PASS</t>
         </is>
       </c>
-      <c r="F47" s="20" t="n"/>
-      <c r="G47" s="13" t="inlineStr">
-        <is>
-          <t>Entered improperly formatted email. Form blocked navigation to next page until a properly formatted email was entered.</t>
-        </is>
-      </c>
-      <c r="H47" s="18" t="n"/>
-      <c r="I47" s="20" t="n"/>
+      <c r="F47" s="20" t="n">
+        <v>46057</v>
+      </c>
+      <c r="G47" s="11" t="inlineStr">
+        <is>
+          <t>Left all contact fields blank (covers sub-tests 4.2, 4.8, 4.9). Attempted to navigate to next page. All fields highlighted in red as required. Could not proceed.</t>
+        </is>
+      </c>
+      <c r="H47" s="14" t="n"/>
+      <c r="I47" s="16" t="n"/>
     </row>
     <row r="48" ht="195" customHeight="1">
       <c r="A48" s="4" t="inlineStr">
         <is>
+          <t>4.3</t>
+        </is>
+      </c>
+      <c r="B48" s="4" t="inlineStr">
+        <is>
+          <t>Clinic Champion accepts valid data</t>
+        </is>
+      </c>
+      <c r="C48" s="4" t="inlineStr">
+        <is>
+          <t>Enter Name: "Jane Smith", Email: "jane@clinic.org"</t>
+        </is>
+      </c>
+      <c r="D48" s="4" t="inlineStr">
+        <is>
+          <t>Fields accept input, no errors</t>
+        </is>
+      </c>
+      <c r="E48" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="F48" s="20" t="n">
+        <v>46057</v>
+      </c>
+      <c r="G48" s="4" t="inlineStr">
+        <is>
+          <t>Jane Smith (for DB reconcillation)</t>
+        </is>
+      </c>
+      <c r="H48" s="14" t="n"/>
+      <c r="I48" s="16" t="n"/>
+    </row>
+    <row r="49" ht="30" customHeight="1">
+      <c r="A49" s="4" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+      <c r="B49" s="4" t="inlineStr">
+        <is>
+          <t>Email validation on contact fields</t>
+        </is>
+      </c>
+      <c r="C49" s="4" t="inlineStr">
+        <is>
+          <t>Enter "notanemail" in Clinic Champion email, click Next</t>
+        </is>
+      </c>
+      <c r="D49" s="4" t="inlineStr">
+        <is>
+          <t>Email format error shown</t>
+        </is>
+      </c>
+      <c r="E49" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="F49" s="20" t="n">
+        <v>46057</v>
+      </c>
+      <c r="G49" s="11" t="inlineStr">
+        <is>
+          <t>Entered improperly formatted email. Form blocked navigation to next page until a properly formatted email was entered.</t>
+        </is>
+      </c>
+      <c r="H49" s="14" t="n"/>
+      <c r="I49" s="16" t="n"/>
+    </row>
+    <row r="50" ht="30" customHeight="1">
+      <c r="A50" s="4" t="inlineStr">
+        <is>
           <t>4.5</t>
         </is>
       </c>
-      <c r="B48" s="4" t="inlineStr">
+      <c r="B50" s="4" t="inlineStr">
         <is>
           <t>Phone validation on contact fields</t>
         </is>
       </c>
-      <c r="C48" s="4" t="inlineStr">
+      <c r="C50" s="4" t="inlineStr">
         <is>
           <t>Enter "123" in Clinic Champion phone, click Next</t>
         </is>
       </c>
-      <c r="D48" s="4" t="inlineStr">
+      <c r="D50" s="4" t="inlineStr">
         <is>
           <t>Phone format error shown</t>
         </is>
       </c>
-      <c r="E48" s="4" t="inlineStr">
+      <c r="E50" s="4" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
       </c>
-      <c r="F48" s="20" t="n"/>
-      <c r="G48" s="4" t="inlineStr">
+      <c r="F50" s="20" t="n">
+        <v>46057</v>
+      </c>
+      <c r="G50" s="4" t="inlineStr">
         <is>
           <t>Entered incomplete phone number. Form blocked navigation to next page.
 PASS — but with UX issue noted below.     UX Improvement — Phone Number Error Indicator
 When an incomplete phone number is entered, the form correctly blocks navigation but does not highlight the phone number field as an error. While the field may not be required, if the format is invalid, there should be a visual indication that it needs correction. Currently the user has no feedback on what's blocking them.</t>
         </is>
       </c>
-      <c r="H48" s="18" t="n"/>
-      <c r="I48" s="20" t="n"/>
-    </row>
-    <row r="49" ht="30" customHeight="1">
-      <c r="A49" s="4" t="inlineStr">
-        <is>
-          <t>4.6</t>
-        </is>
-      </c>
-      <c r="B49" s="4" t="inlineStr">
-        <is>
-          <t>Champion is primary hides Primary Contact</t>
-        </is>
-      </c>
-      <c r="C49" s="4" t="inlineStr">
-        <is>
-          <t>Check "Clinic Champion is also the Primary Point of Contact"</t>
-        </is>
-      </c>
-      <c r="D49" s="4" t="inlineStr">
-        <is>
-          <t>Primary Contact section disappears</t>
-        </is>
-      </c>
-      <c r="E49" s="4" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="F49" s="20" t="n"/>
-      <c r="G49" s="4" t="n"/>
-      <c r="H49" s="18" t="n"/>
-      <c r="I49" s="20" t="n"/>
-    </row>
-    <row r="50" ht="30" customHeight="1">
-      <c r="A50" s="4" t="inlineStr">
-        <is>
-          <t>4.7</t>
-        </is>
-      </c>
-      <c r="B50" s="4" t="inlineStr">
-        <is>
-          <t>Unchecking champion reveals Primary Contact</t>
-        </is>
-      </c>
-      <c r="C50" s="4" t="inlineStr">
-        <is>
-          <t>Uncheck "Clinic Champion is also the Primary Point of Contact"</t>
-        </is>
-      </c>
-      <c r="D50" s="4" t="inlineStr">
-        <is>
-          <t>Primary Contact section reappears</t>
-        </is>
-      </c>
-      <c r="E50" s="4" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="F50" s="20" t="n"/>
-      <c r="G50" s="4" t="n"/>
-      <c r="H50" s="18" t="n"/>
-      <c r="I50" s="20" t="n"/>
+      <c r="H50" s="14" t="n"/>
+      <c r="I50" s="16" t="n"/>
     </row>
     <row r="51" ht="80" customHeight="1">
       <c r="A51" s="4" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="B51" s="4" t="inlineStr">
         <is>
-          <t>Primary Contact required when visible</t>
+          <t>Champion is primary hides Primary Contact</t>
         </is>
       </c>
       <c r="C51" s="4" t="inlineStr">
         <is>
-          <t>Leave champion_is_primary unchecked, leave Primary Contact empty, click Next</t>
+          <t>Check "Clinic Champion is also the Primary Point of Contact"</t>
         </is>
       </c>
       <c r="D51" s="4" t="inlineStr">
         <is>
-          <t>Errors shown on Primary Contact Name and Email</t>
+          <t>Primary Contact section disappears</t>
         </is>
       </c>
       <c r="E51" s="4" t="inlineStr">
@@ -2111,34 +2198,32 @@
           <t>PASS</t>
         </is>
       </c>
-      <c r="F51" s="20" t="n"/>
-      <c r="G51" s="14" t="inlineStr">
-        <is>
-          <t>Left all contact fields blank (covers sub-tests 4.2, 4.8, 4.9). Attempted to navigate to next page. All fields highlighted in red as required. Could not proceed.</t>
-        </is>
-      </c>
-      <c r="H51" s="18" t="n"/>
-      <c r="I51" s="20" t="n"/>
+      <c r="F51" s="20" t="n">
+        <v>46057</v>
+      </c>
+      <c r="G51" s="4" t="n"/>
+      <c r="H51" s="14" t="n"/>
+      <c r="I51" s="16" t="n"/>
     </row>
     <row r="52" ht="96" customHeight="1">
       <c r="A52" s="4" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>4.7</t>
         </is>
       </c>
       <c r="B52" s="4" t="inlineStr">
         <is>
-          <t>Genetic Counselor is required</t>
+          <t>Unchecking champion reveals Primary Contact</t>
         </is>
       </c>
       <c r="C52" s="4" t="inlineStr">
         <is>
-          <t>Leave Genetic Counselor empty, click Next</t>
+          <t>Uncheck "Clinic Champion is also the Primary Point of Contact"</t>
         </is>
       </c>
       <c r="D52" s="4" t="inlineStr">
         <is>
-          <t>Errors shown for Name and Email</t>
+          <t>Primary Contact section reappears</t>
         </is>
       </c>
       <c r="E52" s="4" t="inlineStr">
@@ -2146,34 +2231,32 @@
           <t>PASS</t>
         </is>
       </c>
-      <c r="F52" s="20" t="n"/>
-      <c r="G52" s="14" t="inlineStr">
-        <is>
-          <t>Left all contact fields blank (covers sub-tests 4.2, 4.8, 4.9). Attempted to navigate to next page. All fields highlighted in red as required. Could not proceed. Jon Doe (for DB reconcillation)</t>
-        </is>
-      </c>
-      <c r="H52" s="18" t="n"/>
-      <c r="I52" s="20" t="n"/>
+      <c r="F52" s="20" t="n">
+        <v>46057</v>
+      </c>
+      <c r="G52" s="4" t="n"/>
+      <c r="H52" s="14" t="n"/>
+      <c r="I52" s="16" t="n"/>
     </row>
     <row r="53" ht="30" customHeight="1">
       <c r="A53" s="4" t="inlineStr">
         <is>
-          <t>4.10</t>
+          <t>4.8</t>
         </is>
       </c>
       <c r="B53" s="4" t="inlineStr">
         <is>
-          <t>Optional contacts can be skipped</t>
+          <t>Primary Contact required when visible</t>
         </is>
       </c>
       <c r="C53" s="4" t="inlineStr">
         <is>
-          <t>Leave Secondary Contact, IT Contact, Lab Contact all empty, fill required contacts, click Next</t>
+          <t>Leave champion_is_primary unchecked, leave Primary Contact empty, click Next</t>
         </is>
       </c>
       <c r="D53" s="4" t="inlineStr">
         <is>
-          <t>Advances to Step 4 without error</t>
+          <t>Errors shown on Primary Contact Name and Email</t>
         </is>
       </c>
       <c r="E53" s="4" t="inlineStr">
@@ -2181,30 +2264,36 @@
           <t>PASS</t>
         </is>
       </c>
-      <c r="F53" s="20" t="n"/>
-      <c r="G53" s="4" t="n"/>
-      <c r="H53" s="18" t="n"/>
-      <c r="I53" s="20" t="n"/>
+      <c r="F53" s="20" t="n">
+        <v>46057</v>
+      </c>
+      <c r="G53" s="12" t="inlineStr">
+        <is>
+          <t>Left all contact fields blank (covers sub-tests 4.2, 4.8, 4.9). Attempted to navigate to next page. All fields highlighted in red as required. Could not proceed.</t>
+        </is>
+      </c>
+      <c r="H53" s="14" t="n"/>
+      <c r="I53" s="16" t="n"/>
     </row>
     <row r="54" ht="30" customHeight="1">
       <c r="A54" s="4" t="inlineStr">
         <is>
-          <t>4.11</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="B54" s="4" t="inlineStr">
         <is>
-          <t>Preferred contact method dropdown</t>
+          <t>Genetic Counselor is required</t>
         </is>
       </c>
       <c r="C54" s="4" t="inlineStr">
         <is>
-          <t>Click the Preferred Contact Method dropdown in any contact group</t>
+          <t>Leave Genetic Counselor empty, click Next</t>
         </is>
       </c>
       <c r="D54" s="4" t="inlineStr">
         <is>
-          <t>Shows options (Email, Phone, etc.)</t>
+          <t>Errors shown for Name and Email</t>
         </is>
       </c>
       <c r="E54" s="4" t="inlineStr">
@@ -2212,734 +2301,782 @@
           <t>PASS</t>
         </is>
       </c>
-      <c r="F54" s="20" t="n"/>
-      <c r="G54" s="4" t="n"/>
-      <c r="H54" s="18" t="n"/>
-      <c r="I54" s="20" t="n"/>
+      <c r="F54" s="20" t="n">
+        <v>46057</v>
+      </c>
+      <c r="G54" s="12" t="inlineStr">
+        <is>
+          <t>Left all contact fields blank (covers sub-tests 4.2, 4.8, 4.9). Attempted to navigate to next page. All fields highlighted in red as required. Could not proceed. Jon Doe (for DB reconcillation)</t>
+        </is>
+      </c>
+      <c r="H54" s="14" t="n"/>
+      <c r="I54" s="16" t="n"/>
     </row>
     <row r="55">
       <c r="A55" s="4" t="inlineStr">
         <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="B55" s="4" t="inlineStr">
+        <is>
+          <t>Optional contacts can be skipped</t>
+        </is>
+      </c>
+      <c r="C55" s="4" t="inlineStr">
+        <is>
+          <t>Leave Secondary Contact, IT Contact, Lab Contact all empty, fill required contacts, click Next</t>
+        </is>
+      </c>
+      <c r="D55" s="4" t="inlineStr">
+        <is>
+          <t>Advances to Step 4 without error</t>
+        </is>
+      </c>
+      <c r="E55" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="F55" s="20" t="n">
+        <v>46057</v>
+      </c>
+      <c r="G55" s="21" t="inlineStr">
+        <is>
+          <t>Lab Contact - update tag line: Lab Sale Represenative (if there is one)</t>
+        </is>
+      </c>
+      <c r="H55" s="14" t="n"/>
+      <c r="I55" s="16" t="n"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="4" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="B56" s="4" t="inlineStr">
+        <is>
+          <t>Preferred contact method dropdown</t>
+        </is>
+      </c>
+      <c r="C56" s="4" t="inlineStr">
+        <is>
+          <t>Click the Preferred Contact Method dropdown in any contact group</t>
+        </is>
+      </c>
+      <c r="D56" s="4" t="inlineStr">
+        <is>
+          <t>Shows options (Email, Phone, etc.)</t>
+        </is>
+      </c>
+      <c r="E56" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="F56" s="20" t="n">
+        <v>46057</v>
+      </c>
+      <c r="G56" s="4" t="n"/>
+      <c r="H56" s="14" t="n"/>
+      <c r="I56" s="16" t="n"/>
+    </row>
+    <row r="57" ht="17" customHeight="1">
+      <c r="A57" s="4" t="inlineStr">
+        <is>
           <t>4.12</t>
         </is>
       </c>
-      <c r="B55" s="4" t="inlineStr">
+      <c r="B57" s="4" t="inlineStr">
         <is>
           <t>Best Time to Reach dropdown</t>
         </is>
       </c>
-      <c r="C55" s="4" t="inlineStr">
+      <c r="C57" s="4" t="inlineStr">
         <is>
           <t>Click the Best Time to Reach dropdown</t>
         </is>
       </c>
-      <c r="D55" s="4" t="inlineStr">
+      <c r="D57" s="4" t="inlineStr">
         <is>
           <t>Shows time options (Morning, Afternoon, etc.)</t>
         </is>
       </c>
-      <c r="E55" s="4" t="inlineStr">
+      <c r="E57" s="4" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
       </c>
-      <c r="F55" s="20" t="n"/>
-      <c r="G55" s="4" t="n"/>
-      <c r="H55" s="18" t="n"/>
-      <c r="I55" s="20" t="n"/>
-    </row>
-    <row r="56">
-      <c r="F56" s="20" t="n"/>
-      <c r="I56" s="20" t="n"/>
-    </row>
-    <row r="57" ht="17" customHeight="1">
-      <c r="A57" s="11" t="inlineStr">
+      <c r="F57" s="20" t="n">
+        <v>46057</v>
+      </c>
+      <c r="G57" s="4" t="n"/>
+      <c r="H57" s="14" t="n"/>
+      <c r="I57" s="16" t="n"/>
+    </row>
+    <row r="58" ht="17" customHeight="1">
+      <c r="F58" s="16" t="n"/>
+      <c r="I58" s="16" t="n"/>
+    </row>
+    <row r="59" ht="30" customHeight="1">
+      <c r="A59" s="23" t="inlineStr">
         <is>
           <t>Section 5: Step 4 — Key Stakeholders</t>
         </is>
       </c>
-      <c r="B57" s="15" t="n"/>
-      <c r="C57" s="15" t="n"/>
-      <c r="D57" s="15" t="n"/>
-      <c r="E57" s="15" t="n"/>
-      <c r="F57" s="20" t="n"/>
-      <c r="G57" s="16" t="n"/>
-      <c r="I57" s="20" t="n"/>
-    </row>
-    <row r="58" ht="17" customHeight="1">
-      <c r="A58" s="3" t="inlineStr">
+      <c r="B59" s="22" t="n"/>
+      <c r="C59" s="22" t="n"/>
+      <c r="D59" s="22" t="n"/>
+      <c r="E59" s="22" t="n"/>
+      <c r="F59" s="22" t="n"/>
+      <c r="G59" s="22" t="n"/>
+      <c r="H59" s="22" t="n"/>
+      <c r="I59" s="24" t="n"/>
+    </row>
+    <row r="60" ht="30" customHeight="1">
+      <c r="A60" s="3" t="inlineStr">
         <is>
           <t>#</t>
         </is>
       </c>
-      <c r="B58" s="3" t="inlineStr">
+      <c r="B60" s="3" t="inlineStr">
         <is>
           <t>Test Case</t>
         </is>
       </c>
-      <c r="C58" s="3" t="inlineStr">
+      <c r="C60" s="3" t="inlineStr">
         <is>
           <t>Steps</t>
         </is>
       </c>
-      <c r="D58" s="3" t="inlineStr">
+      <c r="D60" s="3" t="inlineStr">
         <is>
           <t>Expected Result</t>
         </is>
       </c>
-      <c r="E58" s="3" t="inlineStr">
+      <c r="E60" s="3" t="inlineStr">
         <is>
           <t>Result</t>
         </is>
       </c>
-      <c r="F58" s="20" t="n"/>
-      <c r="G58" s="3" t="inlineStr">
+      <c r="F60" s="15" t="inlineStr">
+        <is>
+          <t>Date Tested</t>
+        </is>
+      </c>
+      <c r="G60" s="3" t="inlineStr">
         <is>
           <t>Notes</t>
         </is>
       </c>
-      <c r="H58" s="17" t="inlineStr">
+      <c r="H60" s="13" t="inlineStr">
         <is>
           <t>Retest</t>
         </is>
       </c>
-      <c r="I58" s="20" t="n"/>
-    </row>
-    <row r="59" ht="30" customHeight="1">
-      <c r="A59" s="4" t="inlineStr">
-        <is>
-          <t>5.1</t>
-        </is>
-      </c>
-      <c r="B59" s="4" t="inlineStr">
-        <is>
-          <t>All stakeholder fields are optional</t>
-        </is>
-      </c>
-      <c r="C59" s="4" t="inlineStr">
-        <is>
-          <t>Leave all fields empty, click Next</t>
-        </is>
-      </c>
-      <c r="D59" s="4" t="inlineStr">
-        <is>
-          <t>Advances to Step 5 without error</t>
-        </is>
-      </c>
-      <c r="E59" s="4" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="F59" s="20" t="n"/>
-      <c r="G59" s="4" t="inlineStr">
-        <is>
-          <t>All fields displayed properly. Able to navigate to next page.</t>
-        </is>
-      </c>
-      <c r="H59" s="18" t="n"/>
-      <c r="I59" s="20" t="n"/>
-    </row>
-    <row r="60" ht="30" customHeight="1">
-      <c r="A60" s="4" t="inlineStr">
-        <is>
-          <t>5.2</t>
-        </is>
-      </c>
-      <c r="B60" s="4" t="inlineStr">
-        <is>
-          <t>Stakeholder group renders correctly</t>
-        </is>
-      </c>
-      <c r="C60" s="4" t="inlineStr">
-        <is>
-          <t>Observe Program Champion section</t>
-        </is>
-      </c>
-      <c r="D60" s="4" t="inlineStr">
-        <is>
-          <t>Shows Name, Title, Email, Phone, and "This stakeholder is also an ordering provider" checkbox</t>
-        </is>
-      </c>
-      <c r="E60" s="4" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="F60" s="20" t="n"/>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>All stakeholder groups rendered correctly.</t>
-        </is>
-      </c>
-      <c r="H60" s="18" t="n"/>
-      <c r="I60" s="20" t="n"/>
+      <c r="I60" s="15" t="inlineStr">
+        <is>
+          <t>Retest Date</t>
+        </is>
+      </c>
     </row>
     <row r="61" ht="195" customHeight="1">
       <c r="A61" s="4" t="inlineStr">
         <is>
+          <t>5.1</t>
+        </is>
+      </c>
+      <c r="B61" s="4" t="inlineStr">
+        <is>
+          <t>All stakeholder fields are optional</t>
+        </is>
+      </c>
+      <c r="C61" s="4" t="inlineStr">
+        <is>
+          <t>Leave all fields empty, click Next</t>
+        </is>
+      </c>
+      <c r="D61" s="4" t="inlineStr">
+        <is>
+          <t>Advances to Step 5 without error</t>
+        </is>
+      </c>
+      <c r="E61" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="F61" s="20" t="n">
+        <v>46057</v>
+      </c>
+      <c r="G61" s="4" t="inlineStr">
+        <is>
+          <t>All fields displayed properly. Able to navigate to next page.</t>
+        </is>
+      </c>
+      <c r="H61" s="14" t="n"/>
+      <c r="I61" s="16" t="n"/>
+    </row>
+    <row r="62" ht="30" customHeight="1">
+      <c r="A62" s="4" t="inlineStr">
+        <is>
+          <t>5.2</t>
+        </is>
+      </c>
+      <c r="B62" s="4" t="inlineStr">
+        <is>
+          <t>Stakeholder group renders correctly</t>
+        </is>
+      </c>
+      <c r="C62" s="4" t="inlineStr">
+        <is>
+          <t>Observe Program Champion section</t>
+        </is>
+      </c>
+      <c r="D62" s="4" t="inlineStr">
+        <is>
+          <t>Shows Name, Title, Email, Phone, and "This stakeholder is also an ordering provider" checkbox</t>
+        </is>
+      </c>
+      <c r="E62" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="F62" s="20" t="n">
+        <v>46057</v>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>All stakeholder groups rendered correctly.</t>
+        </is>
+      </c>
+      <c r="H62" s="14" t="n"/>
+      <c r="I62" s="16" t="n"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="4" t="inlineStr">
+        <is>
           <t>5.3</t>
         </is>
       </c>
-      <c r="B61" s="4" t="inlineStr">
+      <c r="B63" s="4" t="inlineStr">
         <is>
           <t>Stakeholder email validates</t>
         </is>
       </c>
-      <c r="C61" s="4" t="inlineStr">
+      <c r="C63" s="4" t="inlineStr">
         <is>
           <t>Enter "bad-email" in Program Champion email, click Next</t>
         </is>
       </c>
-      <c r="D61" s="4" t="inlineStr">
+      <c r="D63" s="4" t="inlineStr">
         <is>
           <t>Email format error shown</t>
         </is>
       </c>
-      <c r="E61" s="4" t="inlineStr">
+      <c r="E63" s="4" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
       </c>
-      <c r="F61" s="20" t="n"/>
-      <c r="G61" s="4" t="inlineStr">
+      <c r="F63" s="20" t="n">
+        <v>46057</v>
+      </c>
+      <c r="G63" s="4" t="inlineStr">
         <is>
           <t>Email and phone number fields validated properly. Could not navigate to next page without properly formatted email or phone number.
 PASS — but with UX issue noted below.  Same behavior as previous contact section. When clicking "Next" with an improperly formatted email or phone number, the form blocks navigation but provides no visual indication of which field is causing the issue. No error highlighting, helper icon, or tooltip appears. User must scroll to top to manually identify the problem.</t>
         </is>
       </c>
-      <c r="H61" s="18" t="n"/>
-      <c r="I61" s="20" t="n"/>
-    </row>
-    <row r="62" ht="30" customHeight="1">
-      <c r="A62" s="4" t="inlineStr">
+      <c r="H63" s="14" t="n"/>
+      <c r="I63" s="16" t="n"/>
+    </row>
+    <row r="64" ht="17" customHeight="1">
+      <c r="A64" s="4" t="inlineStr">
         <is>
           <t>5.4</t>
         </is>
       </c>
-      <c r="B62" s="4" t="inlineStr">
+      <c r="B64" s="4" t="inlineStr">
         <is>
           <t>Ordering provider checkbox</t>
         </is>
       </c>
-      <c r="C62" s="4" t="inlineStr">
+      <c r="C64" s="4" t="inlineStr">
         <is>
           <t>Check "This stakeholder is also an ordering provider" on a stakeholder</t>
         </is>
       </c>
-      <c r="D62" s="4" t="inlineStr">
+      <c r="D64" s="4" t="inlineStr">
         <is>
           <t>Checkbox checked, value stored</t>
         </is>
       </c>
-      <c r="E62" s="4" t="n"/>
-      <c r="F62" s="20" t="n"/>
-      <c r="G62" s="4" t="inlineStr">
+      <c r="E64" s="4" t="n"/>
+      <c r="F64" s="16" t="n"/>
+      <c r="G64" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">Robert Mill (for db reconcillaiton) check as ordering provider. </t>
         </is>
       </c>
-      <c r="H62" s="18" t="n"/>
-      <c r="I62" s="20" t="n"/>
-    </row>
-    <row r="63">
-      <c r="F63" s="20" t="n"/>
-      <c r="I63" s="20" t="n"/>
-    </row>
-    <row r="64" ht="17" customHeight="1">
-      <c r="A64" s="11" t="inlineStr">
+      <c r="H64" s="14" t="n"/>
+      <c r="I64" s="16" t="n"/>
+    </row>
+    <row r="65" ht="17" customHeight="1">
+      <c r="F65" s="16" t="n"/>
+      <c r="I65" s="16" t="n"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="23" t="inlineStr">
         <is>
           <t>Section 6: Step 5 — Lab Configuration</t>
         </is>
       </c>
-      <c r="B64" s="15" t="n"/>
-      <c r="C64" s="15" t="n"/>
-      <c r="D64" s="15" t="n"/>
-      <c r="E64" s="15" t="n"/>
-      <c r="F64" s="20" t="n"/>
-      <c r="G64" s="16" t="n"/>
-      <c r="I64" s="20" t="n"/>
-    </row>
-    <row r="65" ht="17" customHeight="1">
-      <c r="A65" s="3" t="inlineStr">
+      <c r="B66" s="22" t="n"/>
+      <c r="C66" s="22" t="n"/>
+      <c r="D66" s="22" t="n"/>
+      <c r="E66" s="22" t="n"/>
+      <c r="F66" s="22" t="n"/>
+      <c r="G66" s="22" t="n"/>
+      <c r="H66" s="22" t="n"/>
+      <c r="I66" s="24" t="n"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="3" t="inlineStr">
         <is>
           <t>#</t>
         </is>
       </c>
-      <c r="B65" s="3" t="inlineStr">
+      <c r="B67" s="3" t="inlineStr">
         <is>
           <t>Test Case</t>
         </is>
       </c>
-      <c r="C65" s="3" t="inlineStr">
+      <c r="C67" s="3" t="inlineStr">
         <is>
           <t>Steps</t>
         </is>
       </c>
-      <c r="D65" s="3" t="inlineStr">
+      <c r="D67" s="3" t="inlineStr">
         <is>
           <t>Expected Result</t>
         </is>
       </c>
-      <c r="E65" s="3" t="inlineStr">
+      <c r="E67" s="3" t="inlineStr">
         <is>
           <t>Result</t>
         </is>
       </c>
-      <c r="F65" s="20" t="n"/>
-      <c r="G65" s="3" t="inlineStr">
+      <c r="F67" s="15" t="inlineStr">
+        <is>
+          <t>Date Tested</t>
+        </is>
+      </c>
+      <c r="G67" s="3" t="inlineStr">
         <is>
           <t>Notes</t>
         </is>
       </c>
-      <c r="H65" s="17" t="inlineStr">
+      <c r="H67" s="13" t="inlineStr">
         <is>
           <t>Retest</t>
         </is>
       </c>
-      <c r="I65" s="20" t="n"/>
-    </row>
-    <row r="66">
-      <c r="A66" s="4" t="inlineStr">
-        <is>
-          <t>6.1</t>
-        </is>
-      </c>
-      <c r="B66" s="4" t="inlineStr">
-        <is>
-          <t>Lab Partner auto-filtered by program</t>
-        </is>
-      </c>
-      <c r="C66" s="4" t="inlineStr">
-        <is>
-          <t>With P4M selected on Step 1, view Lab Partner dropdown</t>
-        </is>
-      </c>
-      <c r="D66" s="4" t="inlineStr">
-        <is>
-          <t>Only "Ambry" (AMBRY) is available</t>
-        </is>
-      </c>
-      <c r="E66" s="4" t="n"/>
-      <c r="F66" s="20" t="n"/>
-      <c r="G66" s="4" t="n"/>
-      <c r="H66" s="18" t="n"/>
-      <c r="I66" s="20" t="n"/>
-    </row>
-    <row r="67">
-      <c r="A67" s="4" t="inlineStr">
-        <is>
-          <t>6.2</t>
-        </is>
-      </c>
-      <c r="B67" s="4" t="inlineStr">
-        <is>
-          <t>Lab Partner shows Helix for GRX</t>
-        </is>
-      </c>
-      <c r="C67" s="4" t="inlineStr">
-        <is>
-          <t>Go back, change program to GRX, return to Step 5</t>
-        </is>
-      </c>
-      <c r="D67" s="4" t="inlineStr">
-        <is>
-          <t>Lab Partner dropdown shows only "Helix" (HELIX)</t>
-        </is>
-      </c>
-      <c r="E67" s="4" t="n"/>
-      <c r="F67" s="20" t="n"/>
-      <c r="G67" s="4" t="n"/>
-      <c r="H67" s="18" t="n"/>
-      <c r="I67" s="20" t="n"/>
+      <c r="I67" s="15" t="inlineStr">
+        <is>
+          <t>Retest Date</t>
+        </is>
+      </c>
     </row>
     <row r="68" ht="30" customHeight="1">
       <c r="A68" s="4" t="inlineStr">
         <is>
-          <t>6.3</t>
+          <t>6.1</t>
         </is>
       </c>
       <c r="B68" s="4" t="inlineStr">
         <is>
-          <t>Test Panel dropdown populated</t>
+          <t>Lab Partner auto-filtered by program</t>
         </is>
       </c>
       <c r="C68" s="4" t="inlineStr">
         <is>
-          <t>Select a Lab Partner, click Default Test Panel dropdown</t>
+          <t>With P4M selected on Step 1, view Lab Partner dropdown</t>
         </is>
       </c>
       <c r="D68" s="4" t="inlineStr">
         <is>
-          <t>Shows available test panels (e.g., CustomNext-Cancer, CancerNext-Expanded)</t>
+          <t>Only "Ambry" (AMBRY) is available</t>
         </is>
       </c>
       <c r="E68" s="4" t="n"/>
-      <c r="F68" s="20" t="n"/>
+      <c r="F68" s="16" t="n"/>
       <c r="G68" s="4" t="n"/>
-      <c r="H68" s="18" t="n"/>
-      <c r="I68" s="20" t="n"/>
+      <c r="H68" s="14" t="n"/>
+      <c r="I68" s="16" t="n"/>
     </row>
     <row r="69" ht="30" customHeight="1">
       <c r="A69" s="4" t="inlineStr">
         <is>
-          <t>6.4</t>
+          <t>6.2</t>
         </is>
       </c>
       <c r="B69" s="4" t="inlineStr">
         <is>
-          <t>RNAInsight checkbox appears after panel selection</t>
+          <t>Lab Partner shows Helix for GRX</t>
         </is>
       </c>
       <c r="C69" s="4" t="inlineStr">
         <is>
-          <t>Select any test panel</t>
+          <t>Go back, change program to GRX, return to Step 5</t>
         </is>
       </c>
       <c r="D69" s="4" t="inlineStr">
         <is>
-          <t>"Include RNAInsight" checkbox appears</t>
+          <t>Lab Partner dropdown shows only "Helix" (HELIX)</t>
         </is>
       </c>
       <c r="E69" s="4" t="n"/>
-      <c r="F69" s="20" t="n"/>
+      <c r="F69" s="16" t="n"/>
       <c r="G69" s="4" t="n"/>
-      <c r="H69" s="18" t="n"/>
-      <c r="I69" s="20" t="n"/>
+      <c r="H69" s="14" t="n"/>
+      <c r="I69" s="16" t="n"/>
     </row>
     <row r="70">
       <c r="A70" s="4" t="inlineStr">
         <is>
-          <t>6.5</t>
+          <t>6.3</t>
         </is>
       </c>
       <c r="B70" s="4" t="inlineStr">
         <is>
-          <t>RNAInsight hidden when no panel selected</t>
+          <t>Test Panel dropdown populated</t>
         </is>
       </c>
       <c r="C70" s="4" t="inlineStr">
         <is>
-          <t>Clear test panel selection</t>
+          <t>Select a Lab Partner, click Default Test Panel dropdown</t>
         </is>
       </c>
       <c r="D70" s="4" t="inlineStr">
         <is>
-          <t>"Include RNAInsight" checkbox disappears</t>
+          <t>Shows available test panels (e.g., CustomNext-Cancer, CancerNext-Expanded)</t>
         </is>
       </c>
       <c r="E70" s="4" t="n"/>
-      <c r="F70" s="20" t="n"/>
+      <c r="F70" s="16" t="n"/>
       <c r="G70" s="4" t="n"/>
-      <c r="H70" s="18" t="n"/>
-      <c r="I70" s="20" t="n"/>
+      <c r="H70" s="14" t="n"/>
+      <c r="I70" s="16" t="n"/>
     </row>
     <row r="71" ht="30" customHeight="1">
       <c r="A71" s="4" t="inlineStr">
         <is>
-          <t>6.6</t>
+          <t>6.4</t>
         </is>
       </c>
       <c r="B71" s="4" t="inlineStr">
         <is>
-          <t>Gene selector appears for CustomNext-Cancer</t>
+          <t>RNAInsight checkbox appears after panel selection</t>
         </is>
       </c>
       <c r="C71" s="4" t="inlineStr">
         <is>
-          <t>Select "CustomNext-Cancer" as Default Test Panel</t>
+          <t>Select any test panel</t>
         </is>
       </c>
       <c r="D71" s="4" t="inlineStr">
         <is>
-          <t>Gene selector component appears with 90 available genes, ~85 pre-selected by default</t>
+          <t>"Include RNAInsight" checkbox appears</t>
         </is>
       </c>
       <c r="E71" s="4" t="n"/>
-      <c r="F71" s="20" t="n"/>
+      <c r="F71" s="16" t="n"/>
       <c r="G71" s="4" t="n"/>
-      <c r="H71" s="18" t="n"/>
-      <c r="I71" s="20" t="n"/>
+      <c r="H71" s="14" t="n"/>
+      <c r="I71" s="16" t="n"/>
     </row>
     <row r="72">
       <c r="A72" s="4" t="inlineStr">
         <is>
-          <t>6.7</t>
+          <t>6.5</t>
         </is>
       </c>
       <c r="B72" s="4" t="inlineStr">
         <is>
-          <t>Gene selector hidden for other panels</t>
+          <t>RNAInsight hidden when no panel selected</t>
         </is>
       </c>
       <c r="C72" s="4" t="inlineStr">
         <is>
-          <t>Select "CancerNext-Expanded" instead</t>
+          <t>Clear test panel selection</t>
         </is>
       </c>
       <c r="D72" s="4" t="inlineStr">
         <is>
-          <t>Gene selector disappears</t>
+          <t>"Include RNAInsight" checkbox disappears</t>
         </is>
       </c>
       <c r="E72" s="4" t="n"/>
-      <c r="F72" s="20" t="n"/>
+      <c r="F72" s="16" t="n"/>
       <c r="G72" s="4" t="n"/>
-      <c r="H72" s="18" t="n"/>
-      <c r="I72" s="20" t="n"/>
+      <c r="H72" s="14" t="n"/>
+      <c r="I72" s="16" t="n"/>
     </row>
     <row r="73">
       <c r="A73" s="4" t="inlineStr">
         <is>
-          <t>6.8</t>
+          <t>6.6</t>
         </is>
       </c>
       <c r="B73" s="4" t="inlineStr">
         <is>
-          <t>Gene selector — deselect a gene</t>
+          <t>Gene selector appears for CustomNext-Cancer</t>
         </is>
       </c>
       <c r="C73" s="4" t="inlineStr">
         <is>
-          <t>With CustomNext-Cancer selected, uncheck "BRCA1"</t>
+          <t>Select "CustomNext-Cancer" as Default Test Panel</t>
         </is>
       </c>
       <c r="D73" s="4" t="inlineStr">
         <is>
-          <t>BRCA1 is removed from selected genes, count decreases by 1</t>
+          <t>Gene selector component appears with 90 available genes, ~85 pre-selected by default</t>
         </is>
       </c>
       <c r="E73" s="4" t="n"/>
-      <c r="F73" s="20" t="n"/>
+      <c r="F73" s="16" t="n"/>
       <c r="G73" s="4" t="n"/>
-      <c r="H73" s="18" t="n"/>
-      <c r="I73" s="20" t="n"/>
+      <c r="H73" s="14" t="n"/>
+      <c r="I73" s="16" t="n"/>
     </row>
     <row r="74">
       <c r="A74" s="4" t="inlineStr">
         <is>
-          <t>6.9</t>
+          <t>6.7</t>
         </is>
       </c>
       <c r="B74" s="4" t="inlineStr">
         <is>
-          <t>Gene selector — select a gene</t>
+          <t>Gene selector hidden for other panels</t>
         </is>
       </c>
       <c r="C74" s="4" t="inlineStr">
         <is>
-          <t>Check a previously unchecked gene (e.g., "CFTR")</t>
+          <t>Select "CancerNext-Expanded" instead</t>
         </is>
       </c>
       <c r="D74" s="4" t="inlineStr">
         <is>
-          <t>Gene is added, count increases by 1</t>
+          <t>Gene selector disappears</t>
         </is>
       </c>
       <c r="E74" s="4" t="n"/>
-      <c r="F74" s="20" t="n"/>
+      <c r="F74" s="16" t="n"/>
       <c r="G74" s="4" t="n"/>
-      <c r="H74" s="18" t="n"/>
-      <c r="I74" s="20" t="n"/>
+      <c r="H74" s="14" t="n"/>
+      <c r="I74" s="16" t="n"/>
     </row>
     <row r="75">
       <c r="A75" s="4" t="inlineStr">
         <is>
-          <t>6.10</t>
+          <t>6.8</t>
         </is>
       </c>
       <c r="B75" s="4" t="inlineStr">
         <is>
-          <t>Gene selector required</t>
+          <t>Gene selector — deselect a gene</t>
         </is>
       </c>
       <c r="C75" s="4" t="inlineStr">
         <is>
-          <t>Clear all gene selections, click Next</t>
+          <t>With CustomNext-Cancer selected, uncheck "BRCA1"</t>
         </is>
       </c>
       <c r="D75" s="4" t="inlineStr">
         <is>
-          <t>Error: "Please select at least one gene"</t>
+          <t>BRCA1 is removed from selected genes, count decreases by 1</t>
         </is>
       </c>
       <c r="E75" s="4" t="n"/>
-      <c r="F75" s="20" t="n"/>
+      <c r="F75" s="16" t="n"/>
       <c r="G75" s="4" t="n"/>
-      <c r="H75" s="18" t="n"/>
-      <c r="I75" s="20" t="n"/>
+      <c r="H75" s="14" t="n"/>
+      <c r="I75" s="16" t="n"/>
     </row>
     <row r="76" ht="30" customHeight="1">
       <c r="A76" s="4" t="inlineStr">
         <is>
-          <t>6.11</t>
+          <t>6.9</t>
         </is>
       </c>
       <c r="B76" s="4" t="inlineStr">
         <is>
-          <t>Specimen Type renders as select-with-alternates</t>
+          <t>Gene selector — select a gene</t>
         </is>
       </c>
       <c r="C76" s="4" t="inlineStr">
         <is>
-          <t>Observe the Default Specimen Collection Type</t>
+          <t>Check a previously unchecked gene (e.g., "CFTR")</t>
         </is>
       </c>
       <c r="D76" s="4" t="inlineStr">
         <is>
-          <t>Shows a dropdown for default selection and an "Offer additional sample type options" checkbox</t>
+          <t>Gene is added, count increases by 1</t>
         </is>
       </c>
       <c r="E76" s="4" t="n"/>
-      <c r="F76" s="20" t="n"/>
+      <c r="F76" s="16" t="n"/>
       <c r="G76" s="4" t="n"/>
-      <c r="H76" s="18" t="n"/>
-      <c r="I76" s="20" t="n"/>
+      <c r="H76" s="14" t="n"/>
+      <c r="I76" s="16" t="n"/>
     </row>
     <row r="77">
       <c r="A77" s="4" t="inlineStr">
         <is>
-          <t>6.12</t>
+          <t>6.10</t>
         </is>
       </c>
       <c r="B77" s="4" t="inlineStr">
         <is>
-          <t>Specimen Type alternates checkbox</t>
+          <t>Gene selector required</t>
         </is>
       </c>
       <c r="C77" s="4" t="inlineStr">
         <is>
-          <t>Check "Offer additional sample type options"</t>
+          <t>Clear all gene selections, click Next</t>
         </is>
       </c>
       <c r="D77" s="4" t="inlineStr">
         <is>
-          <t>Additional specimen type checkboxes appear</t>
+          <t>Error: "Please select at least one gene"</t>
         </is>
       </c>
       <c r="E77" s="4" t="n"/>
-      <c r="F77" s="20" t="n"/>
+      <c r="F77" s="16" t="n"/>
       <c r="G77" s="4" t="n"/>
-      <c r="H77" s="18" t="n"/>
-      <c r="I77" s="20" t="n"/>
+      <c r="H77" s="14" t="n"/>
+      <c r="I77" s="16" t="n"/>
     </row>
     <row r="78">
       <c r="A78" s="4" t="inlineStr">
         <is>
-          <t>6.13</t>
+          <t>6.11</t>
         </is>
       </c>
       <c r="B78" s="4" t="inlineStr">
         <is>
-          <t>Billing Method dropdown</t>
+          <t>Specimen Type renders as select-with-alternates</t>
         </is>
       </c>
       <c r="C78" s="4" t="inlineStr">
         <is>
-          <t>Click the Billing Method dropdown</t>
+          <t>Observe the Default Specimen Collection Type</t>
         </is>
       </c>
       <c r="D78" s="4" t="inlineStr">
         <is>
-          <t>Shows billing method options</t>
+          <t>Shows a dropdown for default selection and an "Offer additional sample type options" checkbox</t>
         </is>
       </c>
       <c r="E78" s="4" t="n"/>
-      <c r="F78" s="20" t="n"/>
+      <c r="F78" s="16" t="n"/>
       <c r="G78" s="4" t="n"/>
-      <c r="H78" s="18" t="n"/>
-      <c r="I78" s="20" t="n"/>
+      <c r="H78" s="14" t="n"/>
+      <c r="I78" s="16" t="n"/>
     </row>
     <row r="79">
       <c r="A79" s="4" t="inlineStr">
         <is>
-          <t>6.14</t>
+          <t>6.12</t>
         </is>
       </c>
       <c r="B79" s="4" t="inlineStr">
         <is>
-          <t>Send Kit to Patient radio</t>
+          <t>Specimen Type alternates checkbox</t>
         </is>
       </c>
       <c r="C79" s="4" t="inlineStr">
         <is>
-          <t>Observe "Send Kit to Patient's Home?"</t>
+          <t>Check "Offer additional sample type options"</t>
         </is>
       </c>
       <c r="D79" s="4" t="inlineStr">
         <is>
-          <t>Shows radio options (Yes/No or similar)</t>
+          <t>Additional specimen type checkboxes appear</t>
         </is>
       </c>
       <c r="E79" s="4" t="n"/>
-      <c r="F79" s="20" t="n"/>
+      <c r="F79" s="16" t="n"/>
       <c r="G79" s="4" t="n"/>
-      <c r="H79" s="18" t="n"/>
-      <c r="I79" s="20" t="n"/>
+      <c r="H79" s="14" t="n"/>
+      <c r="I79" s="16" t="n"/>
     </row>
     <row r="80">
       <c r="A80" s="4" t="inlineStr">
         <is>
-          <t>6.15</t>
+          <t>6.13</t>
         </is>
       </c>
       <c r="B80" s="4" t="inlineStr">
         <is>
-          <t>Indication visible for P4M/PR4M only</t>
+          <t>Billing Method dropdown</t>
         </is>
       </c>
       <c r="C80" s="4" t="inlineStr">
         <is>
-          <t>With P4M selected, observe</t>
+          <t>Click the Billing Method dropdown</t>
         </is>
       </c>
       <c r="D80" s="4" t="inlineStr">
         <is>
-          <t>"Default Indication" dropdown is visible</t>
+          <t>Shows billing method options</t>
         </is>
       </c>
       <c r="E80" s="4" t="n"/>
-      <c r="F80" s="20" t="n"/>
+      <c r="F80" s="16" t="n"/>
       <c r="G80" s="4" t="n"/>
-      <c r="H80" s="18" t="n"/>
-      <c r="I80" s="20" t="n"/>
+      <c r="H80" s="14" t="n"/>
+      <c r="I80" s="16" t="n"/>
     </row>
     <row r="81">
       <c r="A81" s="4" t="inlineStr">
         <is>
-          <t>6.16</t>
+          <t>6.14</t>
         </is>
       </c>
       <c r="B81" s="4" t="inlineStr">
         <is>
-          <t>Indication hidden for GRX</t>
+          <t>Send Kit to Patient radio</t>
         </is>
       </c>
       <c r="C81" s="4" t="inlineStr">
         <is>
-          <t>With GRX selected, observe</t>
+          <t>Observe "Send Kit to Patient's Home?"</t>
         </is>
       </c>
       <c r="D81" s="4" t="inlineStr">
         <is>
-          <t>"Default Indication" dropdown is NOT visible</t>
+          <t>Shows radio options (Yes/No or similar)</t>
         </is>
       </c>
       <c r="E81" s="4" t="n"/>
-      <c r="F81" s="20" t="n"/>
+      <c r="F81" s="16" t="n"/>
       <c r="G81" s="4" t="n"/>
-      <c r="H81" s="18" t="n"/>
-      <c r="I81" s="20" t="n"/>
+      <c r="H81" s="14" t="n"/>
+      <c r="I81" s="16" t="n"/>
     </row>
     <row r="82">
       <c r="A82" s="4" t="inlineStr">
         <is>
-          <t>6.17</t>
+          <t>6.15</t>
         </is>
       </c>
       <c r="B82" s="4" t="inlineStr">
         <is>
-          <t>Criteria visible for P4M/PR4M only</t>
+          <t>Indication visible for P4M/PR4M only</t>
         </is>
       </c>
       <c r="C82" s="4" t="inlineStr">
@@ -2949,1654 +3086,1764 @@
       </c>
       <c r="D82" s="4" t="inlineStr">
         <is>
-          <t>"Default Criteria" dropdown is visible</t>
+          <t>"Default Indication" dropdown is visible</t>
         </is>
       </c>
       <c r="E82" s="4" t="n"/>
-      <c r="F82" s="20" t="n"/>
+      <c r="F82" s="16" t="n"/>
       <c r="G82" s="4" t="n"/>
-      <c r="H82" s="18" t="n"/>
-      <c r="I82" s="20" t="n"/>
+      <c r="H82" s="14" t="n"/>
+      <c r="I82" s="16" t="n"/>
     </row>
     <row r="83" ht="30" customHeight="1">
       <c r="A83" s="4" t="inlineStr">
         <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="B83" s="4" t="inlineStr">
+        <is>
+          <t>Indication hidden for GRX</t>
+        </is>
+      </c>
+      <c r="C83" s="4" t="inlineStr">
+        <is>
+          <t>With GRX selected, observe</t>
+        </is>
+      </c>
+      <c r="D83" s="4" t="inlineStr">
+        <is>
+          <t>"Default Indication" dropdown is NOT visible</t>
+        </is>
+      </c>
+      <c r="E83" s="4" t="n"/>
+      <c r="F83" s="16" t="n"/>
+      <c r="G83" s="4" t="n"/>
+      <c r="H83" s="14" t="n"/>
+      <c r="I83" s="16" t="n"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="4" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="B84" s="4" t="inlineStr">
+        <is>
+          <t>Criteria visible for P4M/PR4M only</t>
+        </is>
+      </c>
+      <c r="C84" s="4" t="inlineStr">
+        <is>
+          <t>With P4M selected, observe</t>
+        </is>
+      </c>
+      <c r="D84" s="4" t="inlineStr">
+        <is>
+          <t>"Default Criteria" dropdown is visible</t>
+        </is>
+      </c>
+      <c r="E84" s="4" t="n"/>
+      <c r="F84" s="16" t="n"/>
+      <c r="G84" s="4" t="n"/>
+      <c r="H84" s="14" t="n"/>
+      <c r="I84" s="16" t="n"/>
+    </row>
+    <row r="85" ht="17" customHeight="1">
+      <c r="A85" s="4" t="inlineStr">
+        <is>
           <t>6.18</t>
         </is>
       </c>
-      <c r="B83" s="4" t="inlineStr">
+      <c r="B85" s="4" t="inlineStr">
         <is>
           <t>All required fields validated</t>
         </is>
       </c>
-      <c r="C83" s="4" t="inlineStr">
+      <c r="C85" s="4" t="inlineStr">
         <is>
           <t>Leave required fields empty, click Next</t>
         </is>
       </c>
-      <c r="D83" s="4" t="inlineStr">
+      <c r="D85" s="4" t="inlineStr">
         <is>
           <t>Errors shown for Lab Partner, Test Panel, Specimen Type, Billing Method, Send Kit, and (if P4M) Indication, Criteria</t>
         </is>
       </c>
-      <c r="E83" s="4" t="n"/>
-      <c r="F83" s="20" t="n"/>
-      <c r="G83" s="4" t="n"/>
-      <c r="H83" s="18" t="n"/>
-      <c r="I83" s="20" t="n"/>
-    </row>
-    <row r="84">
-      <c r="F84" s="20" t="n"/>
-      <c r="I84" s="20" t="n"/>
-    </row>
-    <row r="85" ht="17" customHeight="1">
-      <c r="A85" s="11" t="inlineStr">
+      <c r="E85" s="4" t="n"/>
+      <c r="F85" s="16" t="n"/>
+      <c r="G85" s="4" t="n"/>
+      <c r="H85" s="14" t="n"/>
+      <c r="I85" s="16" t="n"/>
+    </row>
+    <row r="86" ht="17" customHeight="1">
+      <c r="F86" s="16" t="n"/>
+      <c r="I86" s="16" t="n"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="23" t="inlineStr">
         <is>
           <t>Section 7: Step 6 — Additional Test Panels (Repeatable)</t>
         </is>
       </c>
-      <c r="B85" s="15" t="n"/>
-      <c r="C85" s="15" t="n"/>
-      <c r="D85" s="15" t="n"/>
-      <c r="E85" s="15" t="n"/>
-      <c r="F85" s="20" t="n"/>
-      <c r="G85" s="16" t="n"/>
-      <c r="I85" s="20" t="n"/>
-    </row>
-    <row r="86" ht="17" customHeight="1">
-      <c r="A86" s="3" t="inlineStr">
+      <c r="B87" s="22" t="n"/>
+      <c r="C87" s="22" t="n"/>
+      <c r="D87" s="22" t="n"/>
+      <c r="E87" s="22" t="n"/>
+      <c r="F87" s="22" t="n"/>
+      <c r="G87" s="22" t="n"/>
+      <c r="H87" s="22" t="n"/>
+      <c r="I87" s="24" t="n"/>
+    </row>
+    <row r="88" ht="30" customHeight="1">
+      <c r="A88" s="3" t="inlineStr">
         <is>
           <t>#</t>
         </is>
       </c>
-      <c r="B86" s="3" t="inlineStr">
+      <c r="B88" s="3" t="inlineStr">
         <is>
           <t>Test Case</t>
         </is>
       </c>
-      <c r="C86" s="3" t="inlineStr">
+      <c r="C88" s="3" t="inlineStr">
         <is>
           <t>Steps</t>
         </is>
       </c>
-      <c r="D86" s="3" t="inlineStr">
+      <c r="D88" s="3" t="inlineStr">
         <is>
           <t>Expected Result</t>
         </is>
       </c>
-      <c r="E86" s="3" t="inlineStr">
+      <c r="E88" s="3" t="inlineStr">
         <is>
           <t>Result</t>
         </is>
       </c>
-      <c r="F86" s="20" t="n"/>
-      <c r="G86" s="3" t="inlineStr">
+      <c r="F88" s="15" t="inlineStr">
+        <is>
+          <t>Date Tested</t>
+        </is>
+      </c>
+      <c r="G88" s="3" t="inlineStr">
         <is>
           <t>Notes</t>
         </is>
       </c>
-      <c r="H86" s="17" t="inlineStr">
+      <c r="H88" s="13" t="inlineStr">
         <is>
           <t>Retest</t>
         </is>
       </c>
-      <c r="I86" s="20" t="n"/>
-    </row>
-    <row r="87">
-      <c r="A87" s="4" t="inlineStr">
-        <is>
-          <t>7.1</t>
-        </is>
-      </c>
-      <c r="B87" s="4" t="inlineStr">
-        <is>
-          <t>Step is optional (0 min items)</t>
-        </is>
-      </c>
-      <c r="C87" s="4" t="inlineStr">
-        <is>
-          <t>Click Next without adding any panels</t>
-        </is>
-      </c>
-      <c r="D87" s="4" t="inlineStr">
-        <is>
-          <t>Advances to Step 7 without error</t>
-        </is>
-      </c>
-      <c r="E87" s="4" t="n"/>
-      <c r="F87" s="20" t="n"/>
-      <c r="G87" s="4" t="n"/>
-      <c r="H87" s="18" t="n"/>
-      <c r="I87" s="20" t="n"/>
-    </row>
-    <row r="88" ht="30" customHeight="1">
-      <c r="A88" s="4" t="inlineStr">
-        <is>
-          <t>7.2</t>
-        </is>
-      </c>
-      <c r="B88" s="4" t="inlineStr">
-        <is>
-          <t>Add Test Panel button works</t>
-        </is>
-      </c>
-      <c r="C88" s="4" t="inlineStr">
-        <is>
-          <t>Click "Add Test Panel"</t>
-        </is>
-      </c>
-      <c r="D88" s="4" t="inlineStr">
-        <is>
-          <t>New panel section appears (Panel 1) with Test Panel dropdown, gene selector (conditional), and Modifications textarea</t>
-        </is>
-      </c>
-      <c r="E88" s="4" t="n"/>
-      <c r="F88" s="20" t="n"/>
-      <c r="G88" s="4" t="n"/>
-      <c r="H88" s="18" t="n"/>
-      <c r="I88" s="20" t="n"/>
+      <c r="I88" s="15" t="inlineStr">
+        <is>
+          <t>Retest Date</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="4" t="inlineStr">
         <is>
-          <t>7.3</t>
+          <t>7.1</t>
         </is>
       </c>
       <c r="B89" s="4" t="inlineStr">
         <is>
-          <t>Panel dropdown shows all panels</t>
+          <t>Step is optional (0 min items)</t>
         </is>
       </c>
       <c r="C89" s="4" t="inlineStr">
         <is>
-          <t>Click the Test Panel dropdown in the new panel</t>
+          <t>Click Next without adding any panels</t>
         </is>
       </c>
       <c r="D89" s="4" t="inlineStr">
         <is>
-          <t>Shows all 5 Ambry test panels (not filtered by Step 5 selection)</t>
+          <t>Advances to Step 7 without error</t>
         </is>
       </c>
       <c r="E89" s="4" t="n"/>
-      <c r="F89" s="20" t="n"/>
+      <c r="F89" s="16" t="n"/>
       <c r="G89" s="4" t="n"/>
-      <c r="H89" s="18" t="n"/>
-      <c r="I89" s="20" t="n"/>
+      <c r="H89" s="14" t="n"/>
+      <c r="I89" s="16" t="n"/>
     </row>
     <row r="90">
       <c r="A90" s="4" t="inlineStr">
         <is>
-          <t>7.4</t>
+          <t>7.2</t>
         </is>
       </c>
       <c r="B90" s="4" t="inlineStr">
         <is>
-          <t>Gene selector appears for CustomNext</t>
+          <t>Add Test Panel button works</t>
         </is>
       </c>
       <c r="C90" s="4" t="inlineStr">
         <is>
-          <t>Select "CustomNext-Cancer" in the additional panel</t>
+          <t>Click "Add Test Panel"</t>
         </is>
       </c>
       <c r="D90" s="4" t="inlineStr">
         <is>
-          <t>Gene selector appears within that panel</t>
+          <t>New panel section appears (Panel 1) with Test Panel dropdown, gene selector (conditional), and Modifications textarea</t>
         </is>
       </c>
       <c r="E90" s="4" t="n"/>
-      <c r="F90" s="20" t="n"/>
+      <c r="F90" s="16" t="n"/>
       <c r="G90" s="4" t="n"/>
-      <c r="H90" s="18" t="n"/>
-      <c r="I90" s="20" t="n"/>
+      <c r="H90" s="14" t="n"/>
+      <c r="I90" s="16" t="n"/>
     </row>
     <row r="91">
       <c r="A91" s="4" t="inlineStr">
         <is>
-          <t>7.5</t>
+          <t>7.3</t>
         </is>
       </c>
       <c r="B91" s="4" t="inlineStr">
         <is>
-          <t>Can add multiple panels</t>
+          <t>Panel dropdown shows all panels</t>
         </is>
       </c>
       <c r="C91" s="4" t="inlineStr">
         <is>
-          <t>Click "Add Test Panel" again</t>
+          <t>Click the Test Panel dropdown in the new panel</t>
         </is>
       </c>
       <c r="D91" s="4" t="inlineStr">
         <is>
-          <t>Panel 2 appears</t>
+          <t>Shows all 5 Ambry test panels (not filtered by Step 5 selection)</t>
         </is>
       </c>
       <c r="E91" s="4" t="n"/>
-      <c r="F91" s="20" t="n"/>
+      <c r="F91" s="16" t="n"/>
       <c r="G91" s="4" t="n"/>
-      <c r="H91" s="18" t="n"/>
-      <c r="I91" s="20" t="n"/>
+      <c r="H91" s="14" t="n"/>
+      <c r="I91" s="16" t="n"/>
     </row>
     <row r="92">
       <c r="A92" s="4" t="inlineStr">
         <is>
-          <t>7.6</t>
+          <t>7.4</t>
         </is>
       </c>
       <c r="B92" s="4" t="inlineStr">
         <is>
-          <t>Can remove a panel</t>
+          <t>Gene selector appears for CustomNext</t>
         </is>
       </c>
       <c r="C92" s="4" t="inlineStr">
         <is>
-          <t>Click the remove/delete button on Panel 1</t>
+          <t>Select "CustomNext-Cancer" in the additional panel</t>
         </is>
       </c>
       <c r="D92" s="4" t="inlineStr">
         <is>
-          <t>Panel 1 is removed, Panel 2 renumbers to Panel 1</t>
+          <t>Gene selector appears within that panel</t>
         </is>
       </c>
       <c r="E92" s="4" t="n"/>
-      <c r="F92" s="20" t="n"/>
+      <c r="F92" s="16" t="n"/>
       <c r="G92" s="4" t="n"/>
-      <c r="H92" s="18" t="n"/>
-      <c r="I92" s="20" t="n"/>
+      <c r="H92" s="14" t="n"/>
+      <c r="I92" s="16" t="n"/>
     </row>
     <row r="93" ht="30" customHeight="1">
       <c r="A93" s="4" t="inlineStr">
         <is>
+          <t>7.5</t>
+        </is>
+      </c>
+      <c r="B93" s="4" t="inlineStr">
+        <is>
+          <t>Can add multiple panels</t>
+        </is>
+      </c>
+      <c r="C93" s="4" t="inlineStr">
+        <is>
+          <t>Click "Add Test Panel" again</t>
+        </is>
+      </c>
+      <c r="D93" s="4" t="inlineStr">
+        <is>
+          <t>Panel 2 appears</t>
+        </is>
+      </c>
+      <c r="E93" s="4" t="n"/>
+      <c r="F93" s="16" t="n"/>
+      <c r="G93" s="4" t="n"/>
+      <c r="H93" s="14" t="n"/>
+      <c r="I93" s="16" t="n"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="4" t="inlineStr">
+        <is>
+          <t>7.6</t>
+        </is>
+      </c>
+      <c r="B94" s="4" t="inlineStr">
+        <is>
+          <t>Can remove a panel</t>
+        </is>
+      </c>
+      <c r="C94" s="4" t="inlineStr">
+        <is>
+          <t>Click the remove/delete button on Panel 1</t>
+        </is>
+      </c>
+      <c r="D94" s="4" t="inlineStr">
+        <is>
+          <t>Panel 1 is removed, Panel 2 renumbers to Panel 1</t>
+        </is>
+      </c>
+      <c r="E94" s="4" t="n"/>
+      <c r="F94" s="16" t="n"/>
+      <c r="G94" s="4" t="n"/>
+      <c r="H94" s="14" t="n"/>
+      <c r="I94" s="16" t="n"/>
+    </row>
+    <row r="95" ht="17" customHeight="1">
+      <c r="A95" s="4" t="inlineStr">
+        <is>
           <t>7.7</t>
         </is>
       </c>
-      <c r="B93" s="4" t="inlineStr">
+      <c r="B95" s="4" t="inlineStr">
         <is>
           <t>Modifications textarea is optional</t>
         </is>
       </c>
-      <c r="C93" s="4" t="inlineStr">
+      <c r="C95" s="4" t="inlineStr">
         <is>
           <t>Add a panel, select a test, leave Modifications blank, click Next</t>
         </is>
       </c>
-      <c r="D93" s="4" t="inlineStr">
+      <c r="D95" s="4" t="inlineStr">
         <is>
           <t>No error on Modifications field</t>
         </is>
       </c>
-      <c r="E93" s="4" t="n"/>
-      <c r="F93" s="20" t="n"/>
-      <c r="G93" s="4" t="n"/>
-      <c r="H93" s="18" t="n"/>
-      <c r="I93" s="20" t="n"/>
-    </row>
-    <row r="94">
-      <c r="F94" s="20" t="n"/>
-      <c r="I94" s="20" t="n"/>
-    </row>
-    <row r="95" ht="17" customHeight="1">
-      <c r="A95" s="11" t="inlineStr">
+      <c r="E95" s="4" t="n"/>
+      <c r="F95" s="16" t="n"/>
+      <c r="G95" s="4" t="n"/>
+      <c r="H95" s="14" t="n"/>
+      <c r="I95" s="16" t="n"/>
+    </row>
+    <row r="96" ht="17" customHeight="1">
+      <c r="F96" s="16" t="n"/>
+      <c r="I96" s="16" t="n"/>
+    </row>
+    <row r="97">
+      <c r="A97" s="23" t="inlineStr">
         <is>
           <t>Section 8: Step 7 — Ordering Providers (Repeatable)</t>
         </is>
       </c>
-      <c r="B95" s="15" t="n"/>
-      <c r="C95" s="15" t="n"/>
-      <c r="D95" s="15" t="n"/>
-      <c r="E95" s="15" t="n"/>
-      <c r="F95" s="20" t="n"/>
-      <c r="G95" s="16" t="n"/>
-      <c r="I95" s="20" t="n"/>
-    </row>
-    <row r="96" ht="17" customHeight="1">
-      <c r="A96" s="3" t="inlineStr">
+      <c r="B97" s="22" t="n"/>
+      <c r="C97" s="22" t="n"/>
+      <c r="D97" s="22" t="n"/>
+      <c r="E97" s="22" t="n"/>
+      <c r="F97" s="22" t="n"/>
+      <c r="G97" s="22" t="n"/>
+      <c r="H97" s="22" t="n"/>
+      <c r="I97" s="24" t="n"/>
+    </row>
+    <row r="98" ht="30" customHeight="1">
+      <c r="A98" s="3" t="inlineStr">
         <is>
           <t>#</t>
         </is>
       </c>
-      <c r="B96" s="3" t="inlineStr">
+      <c r="B98" s="3" t="inlineStr">
         <is>
           <t>Test Case</t>
         </is>
       </c>
-      <c r="C96" s="3" t="inlineStr">
+      <c r="C98" s="3" t="inlineStr">
         <is>
           <t>Steps</t>
         </is>
       </c>
-      <c r="D96" s="3" t="inlineStr">
+      <c r="D98" s="3" t="inlineStr">
         <is>
           <t>Expected Result</t>
         </is>
       </c>
-      <c r="E96" s="3" t="inlineStr">
+      <c r="E98" s="3" t="inlineStr">
         <is>
           <t>Result</t>
         </is>
       </c>
-      <c r="F96" s="20" t="n"/>
-      <c r="G96" s="3" t="inlineStr">
+      <c r="F98" s="15" t="inlineStr">
+        <is>
+          <t>Date Tested</t>
+        </is>
+      </c>
+      <c r="G98" s="3" t="inlineStr">
         <is>
           <t>Notes</t>
         </is>
       </c>
-      <c r="H96" s="17" t="inlineStr">
+      <c r="H98" s="13" t="inlineStr">
         <is>
           <t>Retest</t>
         </is>
       </c>
-      <c r="I96" s="20" t="n"/>
-    </row>
-    <row r="97">
-      <c r="A97" s="4" t="inlineStr">
-        <is>
-          <t>8.1</t>
-        </is>
-      </c>
-      <c r="B97" s="4" t="inlineStr">
-        <is>
-          <t>At least 1 provider required</t>
-        </is>
-      </c>
-      <c r="C97" s="4" t="inlineStr">
-        <is>
-          <t>Remove all providers (if any), click Next</t>
-        </is>
-      </c>
-      <c r="D97" s="4" t="inlineStr">
-        <is>
-          <t>Error: "At least 1 item(s) required"</t>
-        </is>
-      </c>
-      <c r="E97" s="4" t="n"/>
-      <c r="F97" s="20" t="n"/>
-      <c r="G97" s="4" t="n"/>
-      <c r="H97" s="18" t="n"/>
-      <c r="I97" s="20" t="n"/>
-    </row>
-    <row r="98" ht="30" customHeight="1">
-      <c r="A98" s="4" t="inlineStr">
-        <is>
-          <t>8.2</t>
-        </is>
-      </c>
-      <c r="B98" s="4" t="inlineStr">
-        <is>
-          <t>Provider 1 auto-populated from stakeholder</t>
-        </is>
-      </c>
-      <c r="C98" s="4" t="inlineStr">
-        <is>
-          <t>If a stakeholder was marked "also ordering provider" on Step 4, observe Provider 1</t>
-        </is>
-      </c>
-      <c r="D98" s="4" t="inlineStr">
-        <is>
-          <t>Provider 1 is pre-filled with stakeholder name, email, and phone</t>
-        </is>
-      </c>
-      <c r="E98" s="4" t="n"/>
-      <c r="F98" s="20" t="n"/>
-      <c r="G98" s="4" t="n"/>
-      <c r="H98" s="18" t="n"/>
-      <c r="I98" s="20" t="n"/>
+      <c r="I98" s="15" t="inlineStr">
+        <is>
+          <t>Retest Date</t>
+        </is>
+      </c>
     </row>
     <row r="99" ht="30" customHeight="1">
       <c r="A99" s="4" t="inlineStr">
         <is>
-          <t>8.3</t>
+          <t>8.1</t>
         </is>
       </c>
       <c r="B99" s="4" t="inlineStr">
         <is>
-          <t>Provider required fields validated</t>
+          <t>At least 1 provider required</t>
         </is>
       </c>
       <c r="C99" s="4" t="inlineStr">
         <is>
-          <t>Leave Provider Name, Email, Phone, NPI, and Office Address blank, click Next</t>
+          <t>Remove all providers (if any), click Next</t>
         </is>
       </c>
       <c r="D99" s="4" t="inlineStr">
         <is>
-          <t>Errors on all required fields</t>
+          <t>Error: "At least 1 item(s) required"</t>
         </is>
       </c>
       <c r="E99" s="4" t="n"/>
-      <c r="F99" s="20" t="n"/>
+      <c r="F99" s="16" t="n"/>
       <c r="G99" s="4" t="n"/>
-      <c r="H99" s="18" t="n"/>
-      <c r="I99" s="20" t="n"/>
+      <c r="H99" s="14" t="n"/>
+      <c r="I99" s="16" t="n"/>
     </row>
     <row r="100">
       <c r="A100" s="4" t="inlineStr">
         <is>
-          <t>8.4</t>
+          <t>8.2</t>
         </is>
       </c>
       <c r="B100" s="4" t="inlineStr">
         <is>
-          <t>Provider email validates</t>
+          <t>Provider 1 auto-populated from stakeholder</t>
         </is>
       </c>
       <c r="C100" s="4" t="inlineStr">
         <is>
-          <t>Enter "bademail" in provider email</t>
+          <t>If a stakeholder was marked "also ordering provider" on Step 4, observe Provider 1</t>
         </is>
       </c>
       <c r="D100" s="4" t="inlineStr">
         <is>
-          <t>Email format error shown</t>
+          <t>Provider 1 is pre-filled with stakeholder name, email, and phone</t>
         </is>
       </c>
       <c r="E100" s="4" t="n"/>
-      <c r="F100" s="20" t="n"/>
+      <c r="F100" s="16" t="n"/>
       <c r="G100" s="4" t="n"/>
-      <c r="H100" s="18" t="n"/>
-      <c r="I100" s="20" t="n"/>
+      <c r="H100" s="14" t="n"/>
+      <c r="I100" s="16" t="n"/>
     </row>
     <row r="101">
       <c r="A101" s="4" t="inlineStr">
         <is>
-          <t>8.5</t>
+          <t>8.3</t>
         </is>
       </c>
       <c r="B101" s="4" t="inlineStr">
         <is>
-          <t>Provider phone validates</t>
+          <t>Provider required fields validated</t>
         </is>
       </c>
       <c r="C101" s="4" t="inlineStr">
         <is>
-          <t>Enter "123" in provider phone</t>
+          <t>Leave Provider Name, Email, Phone, NPI, and Office Address blank, click Next</t>
         </is>
       </c>
       <c r="D101" s="4" t="inlineStr">
         <is>
-          <t>Phone format error shown (10 digits required)</t>
+          <t>Errors on all required fields</t>
         </is>
       </c>
       <c r="E101" s="4" t="n"/>
-      <c r="F101" s="20" t="n"/>
+      <c r="F101" s="16" t="n"/>
       <c r="G101" s="4" t="n"/>
-      <c r="H101" s="18" t="n"/>
-      <c r="I101" s="20" t="n"/>
+      <c r="H101" s="14" t="n"/>
+      <c r="I101" s="16" t="n"/>
     </row>
     <row r="102">
       <c r="A102" s="4" t="inlineStr">
         <is>
-          <t>8.6</t>
+          <t>8.4</t>
         </is>
       </c>
       <c r="B102" s="4" t="inlineStr">
         <is>
-          <t>NPI validates 10 digits</t>
+          <t>Provider email validates</t>
         </is>
       </c>
       <c r="C102" s="4" t="inlineStr">
         <is>
-          <t>Enter "12345" in NPI, click Next</t>
+          <t>Enter "bademail" in provider email</t>
         </is>
       </c>
       <c r="D102" s="4" t="inlineStr">
         <is>
-          <t>Error: NPI must be 10 digits</t>
+          <t>Email format error shown</t>
         </is>
       </c>
       <c r="E102" s="4" t="n"/>
-      <c r="F102" s="20" t="n"/>
+      <c r="F102" s="16" t="n"/>
       <c r="G102" s="4" t="n"/>
-      <c r="H102" s="18" t="n"/>
-      <c r="I102" s="20" t="n"/>
+      <c r="H102" s="14" t="n"/>
+      <c r="I102" s="16" t="n"/>
     </row>
     <row r="103">
       <c r="A103" s="4" t="inlineStr">
         <is>
-          <t>8.7</t>
+          <t>8.5</t>
         </is>
       </c>
       <c r="B103" s="4" t="inlineStr">
         <is>
-          <t>NPI accepts valid 10 digits</t>
+          <t>Provider phone validates</t>
         </is>
       </c>
       <c r="C103" s="4" t="inlineStr">
         <is>
-          <t>Enter "1234567890" in NPI</t>
+          <t>Enter "123" in provider phone</t>
         </is>
       </c>
       <c r="D103" s="4" t="inlineStr">
         <is>
-          <t>No error</t>
+          <t>Phone format error shown (10 digits required)</t>
         </is>
       </c>
       <c r="E103" s="4" t="n"/>
-      <c r="F103" s="20" t="n"/>
+      <c r="F103" s="16" t="n"/>
       <c r="G103" s="4" t="n"/>
-      <c r="H103" s="18" t="n"/>
-      <c r="I103" s="20" t="n"/>
+      <c r="H103" s="14" t="n"/>
+      <c r="I103" s="16" t="n"/>
     </row>
     <row r="104">
       <c r="A104" s="4" t="inlineStr">
         <is>
-          <t>8.8</t>
+          <t>8.6</t>
         </is>
       </c>
       <c r="B104" s="4" t="inlineStr">
         <is>
-          <t>Office Address composite renders</t>
+          <t>NPI validates 10 digits</t>
         </is>
       </c>
       <c r="C104" s="4" t="inlineStr">
         <is>
-          <t>Observe Provider Office Address</t>
+          <t>Enter "12345" in NPI, click Next</t>
         </is>
       </c>
       <c r="D104" s="4" t="inlineStr">
         <is>
-          <t>Shows Street, City, State dropdown, ZIP grouped together</t>
+          <t>Error: NPI must be 10 digits</t>
         </is>
       </c>
       <c r="E104" s="4" t="n"/>
-      <c r="F104" s="20" t="n"/>
+      <c r="F104" s="16" t="n"/>
       <c r="G104" s="4" t="n"/>
-      <c r="H104" s="18" t="n"/>
-      <c r="I104" s="20" t="n"/>
+      <c r="H104" s="14" t="n"/>
+      <c r="I104" s="16" t="n"/>
     </row>
     <row r="105">
       <c r="A105" s="4" t="inlineStr">
         <is>
-          <t>8.9</t>
+          <t>8.7</t>
         </is>
       </c>
       <c r="B105" s="4" t="inlineStr">
         <is>
-          <t>Specialty dropdown is optional</t>
+          <t>NPI accepts valid 10 digits</t>
         </is>
       </c>
       <c r="C105" s="4" t="inlineStr">
         <is>
-          <t>Leave Specialty blank, fill all required fields, click Next</t>
+          <t>Enter "1234567890" in NPI</t>
         </is>
       </c>
       <c r="D105" s="4" t="inlineStr">
         <is>
-          <t>Advances without error</t>
+          <t>No error</t>
         </is>
       </c>
       <c r="E105" s="4" t="n"/>
-      <c r="F105" s="20" t="n"/>
+      <c r="F105" s="16" t="n"/>
       <c r="G105" s="4" t="n"/>
-      <c r="H105" s="18" t="n"/>
-      <c r="I105" s="20" t="n"/>
+      <c r="H105" s="14" t="n"/>
+      <c r="I105" s="16" t="n"/>
     </row>
     <row r="106">
       <c r="A106" s="4" t="inlineStr">
         <is>
-          <t>8.10</t>
+          <t>8.8</t>
         </is>
       </c>
       <c r="B106" s="4" t="inlineStr">
         <is>
-          <t>Can add multiple providers</t>
+          <t>Office Address composite renders</t>
         </is>
       </c>
       <c r="C106" s="4" t="inlineStr">
         <is>
-          <t>Click "Add Provider"</t>
+          <t>Observe Provider Office Address</t>
         </is>
       </c>
       <c r="D106" s="4" t="inlineStr">
         <is>
-          <t>Provider 2 section appears</t>
+          <t>Shows Street, City, State dropdown, ZIP grouped together</t>
         </is>
       </c>
       <c r="E106" s="4" t="n"/>
-      <c r="F106" s="20" t="n"/>
+      <c r="F106" s="16" t="n"/>
       <c r="G106" s="4" t="n"/>
-      <c r="H106" s="18" t="n"/>
-      <c r="I106" s="20" t="n"/>
+      <c r="H106" s="14" t="n"/>
+      <c r="I106" s="16" t="n"/>
     </row>
     <row r="107">
       <c r="A107" s="4" t="inlineStr">
         <is>
+          <t>8.9</t>
+        </is>
+      </c>
+      <c r="B107" s="4" t="inlineStr">
+        <is>
+          <t>Specialty dropdown is optional</t>
+        </is>
+      </c>
+      <c r="C107" s="4" t="inlineStr">
+        <is>
+          <t>Leave Specialty blank, fill all required fields, click Next</t>
+        </is>
+      </c>
+      <c r="D107" s="4" t="inlineStr">
+        <is>
+          <t>Advances without error</t>
+        </is>
+      </c>
+      <c r="E107" s="4" t="n"/>
+      <c r="F107" s="16" t="n"/>
+      <c r="G107" s="4" t="n"/>
+      <c r="H107" s="14" t="n"/>
+      <c r="I107" s="16" t="n"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="4" t="inlineStr">
+        <is>
+          <t>8.10</t>
+        </is>
+      </c>
+      <c r="B108" s="4" t="inlineStr">
+        <is>
+          <t>Can add multiple providers</t>
+        </is>
+      </c>
+      <c r="C108" s="4" t="inlineStr">
+        <is>
+          <t>Click "Add Provider"</t>
+        </is>
+      </c>
+      <c r="D108" s="4" t="inlineStr">
+        <is>
+          <t>Provider 2 section appears</t>
+        </is>
+      </c>
+      <c r="E108" s="4" t="n"/>
+      <c r="F108" s="16" t="n"/>
+      <c r="G108" s="4" t="n"/>
+      <c r="H108" s="14" t="n"/>
+      <c r="I108" s="16" t="n"/>
+    </row>
+    <row r="109" ht="17" customHeight="1">
+      <c r="A109" s="4" t="inlineStr">
+        <is>
           <t>8.11</t>
         </is>
       </c>
-      <c r="B107" s="4" t="inlineStr">
+      <c r="B109" s="4" t="inlineStr">
         <is>
           <t>Can remove a provider</t>
         </is>
       </c>
-      <c r="C107" s="4" t="inlineStr">
+      <c r="C109" s="4" t="inlineStr">
         <is>
           <t>Click remove on Provider 2</t>
         </is>
       </c>
-      <c r="D107" s="4" t="inlineStr">
+      <c r="D109" s="4" t="inlineStr">
         <is>
           <t>Provider 2 removed, only Provider 1 remains</t>
         </is>
       </c>
-      <c r="E107" s="4" t="n"/>
-      <c r="F107" s="20" t="n"/>
-      <c r="G107" s="4" t="n"/>
-      <c r="H107" s="18" t="n"/>
-      <c r="I107" s="20" t="n"/>
-    </row>
-    <row r="108">
-      <c r="F108" s="20" t="n"/>
-      <c r="I108" s="20" t="n"/>
-    </row>
-    <row r="109" ht="17" customHeight="1">
-      <c r="A109" s="11" t="inlineStr">
+      <c r="E109" s="4" t="n"/>
+      <c r="F109" s="16" t="n"/>
+      <c r="G109" s="4" t="n"/>
+      <c r="H109" s="14" t="n"/>
+      <c r="I109" s="16" t="n"/>
+    </row>
+    <row r="110" ht="17" customHeight="1">
+      <c r="F110" s="16" t="n"/>
+      <c r="I110" s="16" t="n"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="23" t="inlineStr">
         <is>
           <t>Section 9: Step 8 — Extract Filtering</t>
         </is>
       </c>
-      <c r="B109" s="15" t="n"/>
-      <c r="C109" s="15" t="n"/>
-      <c r="D109" s="15" t="n"/>
-      <c r="E109" s="15" t="n"/>
-      <c r="F109" s="20" t="n"/>
-      <c r="G109" s="16" t="n"/>
-      <c r="I109" s="20" t="n"/>
-    </row>
-    <row r="110" ht="17" customHeight="1">
-      <c r="A110" s="3" t="inlineStr">
+      <c r="B111" s="22" t="n"/>
+      <c r="C111" s="22" t="n"/>
+      <c r="D111" s="22" t="n"/>
+      <c r="E111" s="22" t="n"/>
+      <c r="F111" s="22" t="n"/>
+      <c r="G111" s="22" t="n"/>
+      <c r="H111" s="22" t="n"/>
+      <c r="I111" s="24" t="n"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="3" t="inlineStr">
         <is>
           <t>#</t>
         </is>
       </c>
-      <c r="B110" s="3" t="inlineStr">
+      <c r="B112" s="3" t="inlineStr">
         <is>
           <t>Test Case</t>
         </is>
       </c>
-      <c r="C110" s="3" t="inlineStr">
+      <c r="C112" s="3" t="inlineStr">
         <is>
           <t>Steps</t>
         </is>
       </c>
-      <c r="D110" s="3" t="inlineStr">
+      <c r="D112" s="3" t="inlineStr">
         <is>
           <t>Expected Result</t>
         </is>
       </c>
-      <c r="E110" s="3" t="inlineStr">
+      <c r="E112" s="3" t="inlineStr">
         <is>
           <t>Result</t>
         </is>
       </c>
-      <c r="F110" s="20" t="n"/>
-      <c r="G110" s="3" t="inlineStr">
+      <c r="F112" s="15" t="inlineStr">
+        <is>
+          <t>Date Tested</t>
+        </is>
+      </c>
+      <c r="G112" s="3" t="inlineStr">
         <is>
           <t>Notes</t>
         </is>
       </c>
-      <c r="H110" s="17" t="inlineStr">
+      <c r="H112" s="13" t="inlineStr">
         <is>
           <t>Retest</t>
         </is>
       </c>
-      <c r="I110" s="20" t="n"/>
-    </row>
-    <row r="111">
-      <c r="A111" s="4" t="inlineStr">
-        <is>
-          <t>9.1</t>
-        </is>
-      </c>
-      <c r="B111" s="4" t="inlineStr">
-        <is>
-          <t>Patient Status Filter required</t>
-        </is>
-      </c>
-      <c r="C111" s="4" t="inlineStr">
-        <is>
-          <t>Leave empty, click Next</t>
-        </is>
-      </c>
-      <c r="D111" s="4" t="inlineStr">
-        <is>
-          <t>Error shown</t>
-        </is>
-      </c>
-      <c r="E111" s="4" t="n"/>
-      <c r="F111" s="20" t="n"/>
-      <c r="G111" s="4" t="n"/>
-      <c r="H111" s="18" t="n"/>
-      <c r="I111" s="20" t="n"/>
-    </row>
-    <row r="112">
-      <c r="A112" s="4" t="inlineStr">
-        <is>
-          <t>9.2</t>
-        </is>
-      </c>
-      <c r="B112" s="4" t="inlineStr">
-        <is>
-          <t>Procedure Type Filter required</t>
-        </is>
-      </c>
-      <c r="C112" s="4" t="inlineStr">
-        <is>
-          <t>Leave empty, click Next</t>
-        </is>
-      </c>
-      <c r="D112" s="4" t="inlineStr">
-        <is>
-          <t>Error shown</t>
-        </is>
-      </c>
-      <c r="E112" s="4" t="n"/>
-      <c r="F112" s="20" t="n"/>
-      <c r="G112" s="4" t="n"/>
-      <c r="H112" s="18" t="n"/>
-      <c r="I112" s="20" t="n"/>
+      <c r="I112" s="15" t="inlineStr">
+        <is>
+          <t>Retest Date</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="4" t="inlineStr">
         <is>
-          <t>9.3</t>
+          <t>9.1</t>
         </is>
       </c>
       <c r="B113" s="4" t="inlineStr">
         <is>
-          <t>Custom procedures textarea hidden initially</t>
+          <t>Patient Status Filter required</t>
         </is>
       </c>
       <c r="C113" s="4" t="inlineStr">
         <is>
-          <t>Observe without checking custom procedures</t>
+          <t>Leave empty, click Next</t>
         </is>
       </c>
       <c r="D113" s="4" t="inlineStr">
         <is>
-          <t>"Custom Procedure Filter Details" textarea is NOT visible</t>
+          <t>Error shown</t>
         </is>
       </c>
       <c r="E113" s="4" t="n"/>
-      <c r="F113" s="20" t="n"/>
+      <c r="F113" s="16" t="n"/>
       <c r="G113" s="4" t="n"/>
-      <c r="H113" s="18" t="n"/>
-      <c r="I113" s="20" t="n"/>
+      <c r="H113" s="14" t="n"/>
+      <c r="I113" s="16" t="n"/>
     </row>
     <row r="114" ht="30" customHeight="1">
       <c r="A114" s="4" t="inlineStr">
         <is>
-          <t>9.4</t>
+          <t>9.2</t>
         </is>
       </c>
       <c r="B114" s="4" t="inlineStr">
         <is>
-          <t>Custom procedures checkbox reveals textarea</t>
+          <t>Procedure Type Filter required</t>
         </is>
       </c>
       <c r="C114" s="4" t="inlineStr">
         <is>
-          <t>Check "Use customized procedure filtering"</t>
+          <t>Leave empty, click Next</t>
         </is>
       </c>
       <c r="D114" s="4" t="inlineStr">
         <is>
-          <t>Textarea appears</t>
+          <t>Error shown</t>
         </is>
       </c>
       <c r="E114" s="4" t="n"/>
-      <c r="F114" s="20" t="n"/>
+      <c r="F114" s="16" t="n"/>
       <c r="G114" s="4" t="n"/>
-      <c r="H114" s="18" t="n"/>
-      <c r="I114" s="20" t="n"/>
+      <c r="H114" s="14" t="n"/>
+      <c r="I114" s="16" t="n"/>
     </row>
     <row r="115">
       <c r="A115" s="4" t="inlineStr">
         <is>
-          <t>9.5</t>
+          <t>9.3</t>
         </is>
       </c>
       <c r="B115" s="4" t="inlineStr">
         <is>
-          <t>Provider filter list hidden initially</t>
+          <t>Custom procedures textarea hidden initially</t>
         </is>
       </c>
       <c r="C115" s="4" t="inlineStr">
         <is>
-          <t>Observe without checking provider filter</t>
+          <t>Observe without checking custom procedures</t>
         </is>
       </c>
       <c r="D115" s="4" t="inlineStr">
         <is>
-          <t>"Providers to Include in Extract" is NOT visible</t>
+          <t>"Custom Procedure Filter Details" textarea is NOT visible</t>
         </is>
       </c>
       <c r="E115" s="4" t="n"/>
-      <c r="F115" s="20" t="n"/>
+      <c r="F115" s="16" t="n"/>
       <c r="G115" s="4" t="n"/>
-      <c r="H115" s="18" t="n"/>
-      <c r="I115" s="20" t="n"/>
+      <c r="H115" s="14" t="n"/>
+      <c r="I115" s="16" t="n"/>
     </row>
     <row r="116">
       <c r="A116" s="4" t="inlineStr">
         <is>
-          <t>9.6</t>
+          <t>9.4</t>
         </is>
       </c>
       <c r="B116" s="4" t="inlineStr">
         <is>
-          <t>Provider filter checkbox reveals list</t>
+          <t>Custom procedures checkbox reveals textarea</t>
         </is>
       </c>
       <c r="C116" s="4" t="inlineStr">
         <is>
-          <t>Check "Filter extracts to specific provider(s)"</t>
+          <t>Check "Use customized procedure filtering"</t>
         </is>
       </c>
       <c r="D116" s="4" t="inlineStr">
         <is>
-          <t>Provider filter list appears with first/last name inputs</t>
+          <t>Textarea appears</t>
         </is>
       </c>
       <c r="E116" s="4" t="n"/>
-      <c r="F116" s="20" t="n"/>
+      <c r="F116" s="16" t="n"/>
       <c r="G116" s="4" t="n"/>
-      <c r="H116" s="18" t="n"/>
-      <c r="I116" s="20" t="n"/>
+      <c r="H116" s="14" t="n"/>
+      <c r="I116" s="16" t="n"/>
     </row>
     <row r="117" ht="30" customHeight="1">
       <c r="A117" s="4" t="inlineStr">
         <is>
-          <t>9.7</t>
+          <t>9.5</t>
         </is>
       </c>
       <c r="B117" s="4" t="inlineStr">
         <is>
-          <t>Provider filter requires at least 1</t>
+          <t>Provider filter list hidden initially</t>
         </is>
       </c>
       <c r="C117" s="4" t="inlineStr">
         <is>
-          <t>Check the filter checkbox, leave the provider list empty, click Next</t>
+          <t>Observe without checking provider filter</t>
         </is>
       </c>
       <c r="D117" s="4" t="inlineStr">
         <is>
-          <t>Error: at least 1 provider required</t>
+          <t>"Providers to Include in Extract" is NOT visible</t>
         </is>
       </c>
       <c r="E117" s="4" t="n"/>
-      <c r="F117" s="20" t="n"/>
+      <c r="F117" s="16" t="n"/>
       <c r="G117" s="4" t="n"/>
-      <c r="H117" s="18" t="n"/>
-      <c r="I117" s="20" t="n"/>
+      <c r="H117" s="14" t="n"/>
+      <c r="I117" s="16" t="n"/>
     </row>
     <row r="118" ht="30" customHeight="1">
       <c r="A118" s="4" t="inlineStr">
         <is>
+          <t>9.6</t>
+        </is>
+      </c>
+      <c r="B118" s="4" t="inlineStr">
+        <is>
+          <t>Provider filter checkbox reveals list</t>
+        </is>
+      </c>
+      <c r="C118" s="4" t="inlineStr">
+        <is>
+          <t>Check "Filter extracts to specific provider(s)"</t>
+        </is>
+      </c>
+      <c r="D118" s="4" t="inlineStr">
+        <is>
+          <t>Provider filter list appears with first/last name inputs</t>
+        </is>
+      </c>
+      <c r="E118" s="4" t="n"/>
+      <c r="F118" s="16" t="n"/>
+      <c r="G118" s="4" t="n"/>
+      <c r="H118" s="14" t="n"/>
+      <c r="I118" s="16" t="n"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="4" t="inlineStr">
+        <is>
+          <t>9.7</t>
+        </is>
+      </c>
+      <c r="B119" s="4" t="inlineStr">
+        <is>
+          <t>Provider filter requires at least 1</t>
+        </is>
+      </c>
+      <c r="C119" s="4" t="inlineStr">
+        <is>
+          <t>Check the filter checkbox, leave the provider list empty, click Next</t>
+        </is>
+      </c>
+      <c r="D119" s="4" t="inlineStr">
+        <is>
+          <t>Error: at least 1 provider required</t>
+        </is>
+      </c>
+      <c r="E119" s="4" t="n"/>
+      <c r="F119" s="16" t="n"/>
+      <c r="G119" s="4" t="n"/>
+      <c r="H119" s="14" t="n"/>
+      <c r="I119" s="16" t="n"/>
+    </row>
+    <row r="120" ht="17" customHeight="1">
+      <c r="A120" s="4" t="inlineStr">
+        <is>
           <t>9.8</t>
         </is>
       </c>
-      <c r="B118" s="4" t="inlineStr">
+      <c r="B120" s="4" t="inlineStr">
         <is>
           <t>Can add/remove filter providers</t>
         </is>
       </c>
-      <c r="C118" s="4" t="inlineStr">
+      <c r="C120" s="4" t="inlineStr">
         <is>
           <t>Add a provider (first: "Jane", last: "Smith"), click "Add Another Provider", then remove the second</t>
         </is>
       </c>
-      <c r="D118" s="4" t="inlineStr">
+      <c r="D120" s="4" t="inlineStr">
         <is>
           <t>Correctly adds and removes entries</t>
         </is>
       </c>
-      <c r="E118" s="4" t="n"/>
-      <c r="F118" s="20" t="n"/>
-      <c r="G118" s="4" t="n"/>
-      <c r="H118" s="18" t="n"/>
-      <c r="I118" s="20" t="n"/>
-    </row>
-    <row r="119">
-      <c r="F119" s="20" t="n"/>
-      <c r="I119" s="20" t="n"/>
-    </row>
-    <row r="120" ht="17" customHeight="1">
-      <c r="A120" s="11" t="inlineStr">
+      <c r="E120" s="4" t="n"/>
+      <c r="F120" s="16" t="n"/>
+      <c r="G120" s="4" t="n"/>
+      <c r="H120" s="14" t="n"/>
+      <c r="I120" s="16" t="n"/>
+    </row>
+    <row r="121" ht="17" customHeight="1">
+      <c r="F121" s="16" t="n"/>
+      <c r="I121" s="16" t="n"/>
+    </row>
+    <row r="122" ht="30" customHeight="1">
+      <c r="A122" s="23" t="inlineStr">
         <is>
           <t>Section 10: Step 9 — Review &amp; Download</t>
         </is>
       </c>
-      <c r="B120" s="15" t="n"/>
-      <c r="C120" s="15" t="n"/>
-      <c r="D120" s="15" t="n"/>
-      <c r="E120" s="15" t="n"/>
-      <c r="F120" s="20" t="n"/>
-      <c r="G120" s="16" t="n"/>
-      <c r="I120" s="20" t="n"/>
-    </row>
-    <row r="121" ht="17" customHeight="1">
-      <c r="A121" s="3" t="inlineStr">
+      <c r="B122" s="22" t="n"/>
+      <c r="C122" s="22" t="n"/>
+      <c r="D122" s="22" t="n"/>
+      <c r="E122" s="22" t="n"/>
+      <c r="F122" s="22" t="n"/>
+      <c r="G122" s="22" t="n"/>
+      <c r="H122" s="22" t="n"/>
+      <c r="I122" s="24" t="n"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="3" t="inlineStr">
         <is>
           <t>#</t>
         </is>
       </c>
-      <c r="B121" s="3" t="inlineStr">
+      <c r="B123" s="3" t="inlineStr">
         <is>
           <t>Test Case</t>
         </is>
       </c>
-      <c r="C121" s="3" t="inlineStr">
+      <c r="C123" s="3" t="inlineStr">
         <is>
           <t>Steps</t>
         </is>
       </c>
-      <c r="D121" s="3" t="inlineStr">
+      <c r="D123" s="3" t="inlineStr">
         <is>
           <t>Expected Result</t>
         </is>
       </c>
-      <c r="E121" s="3" t="inlineStr">
+      <c r="E123" s="3" t="inlineStr">
         <is>
           <t>Result</t>
         </is>
       </c>
-      <c r="F121" s="20" t="n"/>
-      <c r="G121" s="3" t="inlineStr">
+      <c r="F123" s="15" t="inlineStr">
+        <is>
+          <t>Date Tested</t>
+        </is>
+      </c>
+      <c r="G123" s="3" t="inlineStr">
         <is>
           <t>Notes</t>
         </is>
       </c>
-      <c r="H121" s="17" t="inlineStr">
+      <c r="H123" s="13" t="inlineStr">
         <is>
           <t>Retest</t>
         </is>
       </c>
-      <c r="I121" s="20" t="n"/>
-    </row>
-    <row r="122" ht="30" customHeight="1">
-      <c r="A122" s="4" t="inlineStr">
-        <is>
-          <t>10.1</t>
-        </is>
-      </c>
-      <c r="B122" s="4" t="inlineStr">
-        <is>
-          <t>Review page shows all entered data</t>
-        </is>
-      </c>
-      <c r="C122" s="4" t="inlineStr">
-        <is>
-          <t>Complete all steps with valid data, arrive at Review</t>
-        </is>
-      </c>
-      <c r="D122" s="4" t="inlineStr">
-        <is>
-          <t>All sections displayed with entered values, each with an "Edit" button</t>
-        </is>
-      </c>
-      <c r="E122" s="4" t="n"/>
-      <c r="F122" s="20" t="n"/>
-      <c r="G122" s="4" t="n"/>
-      <c r="H122" s="18" t="n"/>
-      <c r="I122" s="20" t="n"/>
-    </row>
-    <row r="123">
-      <c r="A123" s="4" t="inlineStr">
-        <is>
-          <t>10.2</t>
-        </is>
-      </c>
-      <c r="B123" s="4" t="inlineStr">
-        <is>
-          <t>Conditional fields hidden in review</t>
-        </is>
-      </c>
-      <c r="C123" s="4" t="inlineStr">
-        <is>
-          <t>For GRX program (no Indication/Criteria), check review</t>
-        </is>
-      </c>
-      <c r="D123" s="4" t="inlineStr">
-        <is>
-          <t>"Default Indication" and "Default Criteria" fields are NOT shown</t>
-        </is>
-      </c>
-      <c r="E123" s="4" t="n"/>
-      <c r="F123" s="20" t="n"/>
-      <c r="G123" s="4" t="n"/>
-      <c r="H123" s="18" t="n"/>
-      <c r="I123" s="20" t="n"/>
+      <c r="I123" s="15" t="inlineStr">
+        <is>
+          <t>Retest Date</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="4" t="inlineStr">
         <is>
-          <t>10.3</t>
+          <t>10.1</t>
         </is>
       </c>
       <c r="B124" s="4" t="inlineStr">
         <is>
-          <t>Repeatable items displayed</t>
+          <t>Review page shows all entered data</t>
         </is>
       </c>
       <c r="C124" s="4" t="inlineStr">
         <is>
-          <t>With 2 ordering providers entered, check review</t>
+          <t>Complete all steps with valid data, arrive at Review</t>
         </is>
       </c>
       <c r="D124" s="4" t="inlineStr">
         <is>
-          <t>Both providers shown with all field values</t>
+          <t>All sections displayed with entered values, each with an "Edit" button</t>
         </is>
       </c>
       <c r="E124" s="4" t="n"/>
-      <c r="F124" s="20" t="n"/>
+      <c r="F124" s="16" t="n"/>
       <c r="G124" s="4" t="n"/>
-      <c r="H124" s="18" t="n"/>
-      <c r="I124" s="20" t="n"/>
+      <c r="H124" s="14" t="n"/>
+      <c r="I124" s="16" t="n"/>
     </row>
     <row r="125">
       <c r="A125" s="4" t="inlineStr">
         <is>
-          <t>10.4</t>
+          <t>10.2</t>
         </is>
       </c>
       <c r="B125" s="4" t="inlineStr">
         <is>
-          <t>Contact group displays correctly</t>
+          <t>Conditional fields hidden in review</t>
         </is>
       </c>
       <c r="C125" s="4" t="inlineStr">
         <is>
-          <t>Check review for Clinic Champion</t>
+          <t>For GRX program (no Indication/Criteria), check review</t>
         </is>
       </c>
       <c r="D125" s="4" t="inlineStr">
         <is>
-          <t>Shows "Jane Smith (jane@clinic.org)" format</t>
+          <t>"Default Indication" and "Default Criteria" fields are NOT shown</t>
         </is>
       </c>
       <c r="E125" s="4" t="n"/>
-      <c r="F125" s="20" t="n"/>
+      <c r="F125" s="16" t="n"/>
       <c r="G125" s="4" t="n"/>
-      <c r="H125" s="18" t="n"/>
-      <c r="I125" s="20" t="n"/>
+      <c r="H125" s="14" t="n"/>
+      <c r="I125" s="16" t="n"/>
     </row>
     <row r="126">
       <c r="A126" s="4" t="inlineStr">
         <is>
-          <t>10.5</t>
+          <t>10.3</t>
         </is>
       </c>
       <c r="B126" s="4" t="inlineStr">
         <is>
-          <t>Address displays correctly</t>
+          <t>Repeatable items displayed</t>
         </is>
       </c>
       <c r="C126" s="4" t="inlineStr">
         <is>
-          <t>Check review for Clinic Address</t>
+          <t>With 2 ordering providers entered, check review</t>
         </is>
       </c>
       <c r="D126" s="4" t="inlineStr">
         <is>
-          <t>Shows "123 Main St, Portland, OR 97201" format</t>
+          <t>Both providers shown with all field values</t>
         </is>
       </c>
       <c r="E126" s="4" t="n"/>
-      <c r="F126" s="20" t="n"/>
+      <c r="F126" s="16" t="n"/>
       <c r="G126" s="4" t="n"/>
-      <c r="H126" s="18" t="n"/>
-      <c r="I126" s="20" t="n"/>
+      <c r="H126" s="14" t="n"/>
+      <c r="I126" s="16" t="n"/>
     </row>
     <row r="127">
       <c r="A127" s="4" t="inlineStr">
         <is>
-          <t>10.6</t>
+          <t>10.4</t>
         </is>
       </c>
       <c r="B127" s="4" t="inlineStr">
         <is>
-          <t>Gene selector displays in review</t>
+          <t>Contact group displays correctly</t>
         </is>
       </c>
       <c r="C127" s="4" t="inlineStr">
         <is>
-          <t>With CustomNext-Cancer, check review</t>
+          <t>Check review for Clinic Champion</t>
         </is>
       </c>
       <c r="D127" s="4" t="inlineStr">
         <is>
-          <t>Shows gene count and first ~10 genes with "...and X more"</t>
+          <t>Shows "Jane Smith (jane@clinic.org)" format</t>
         </is>
       </c>
       <c r="E127" s="4" t="n"/>
-      <c r="F127" s="20" t="n"/>
+      <c r="F127" s="16" t="n"/>
       <c r="G127" s="4" t="n"/>
-      <c r="H127" s="18" t="n"/>
-      <c r="I127" s="20" t="n"/>
+      <c r="H127" s="14" t="n"/>
+      <c r="I127" s="16" t="n"/>
     </row>
     <row r="128">
       <c r="A128" s="4" t="inlineStr">
         <is>
-          <t>10.7</t>
+          <t>10.5</t>
         </is>
       </c>
       <c r="B128" s="4" t="inlineStr">
         <is>
-          <t>Specimen type displays correctly</t>
+          <t>Address displays correctly</t>
         </is>
       </c>
       <c r="C128" s="4" t="inlineStr">
         <is>
-          <t>With select_with_alternates, check review</t>
+          <t>Check review for Clinic Address</t>
         </is>
       </c>
       <c r="D128" s="4" t="inlineStr">
         <is>
-          <t>Shows default and any additional options</t>
+          <t>Shows "123 Main St, Portland, OR 97201" format</t>
         </is>
       </c>
       <c r="E128" s="4" t="n"/>
-      <c r="F128" s="20" t="n"/>
+      <c r="F128" s="16" t="n"/>
       <c r="G128" s="4" t="n"/>
-      <c r="H128" s="18" t="n"/>
-      <c r="I128" s="20" t="n"/>
+      <c r="H128" s="14" t="n"/>
+      <c r="I128" s="16" t="n"/>
     </row>
     <row r="129">
       <c r="A129" s="4" t="inlineStr">
         <is>
-          <t>10.8</t>
+          <t>10.6</t>
         </is>
       </c>
       <c r="B129" s="4" t="inlineStr">
         <is>
-          <t>Edit button navigates to correct step</t>
+          <t>Gene selector displays in review</t>
         </is>
       </c>
       <c r="C129" s="4" t="inlineStr">
         <is>
-          <t>Click "Edit" on the Contacts section</t>
+          <t>With CustomNext-Cancer, check review</t>
         </is>
       </c>
       <c r="D129" s="4" t="inlineStr">
         <is>
-          <t>Navigates to Step 3 (Contacts)</t>
+          <t>Shows gene count and first ~10 genes with "...and X more"</t>
         </is>
       </c>
       <c r="E129" s="4" t="n"/>
-      <c r="F129" s="20" t="n"/>
+      <c r="F129" s="16" t="n"/>
       <c r="G129" s="4" t="n"/>
-      <c r="H129" s="18" t="n"/>
-      <c r="I129" s="20" t="n"/>
+      <c r="H129" s="14" t="n"/>
+      <c r="I129" s="16" t="n"/>
     </row>
     <row r="130" ht="30" customHeight="1">
       <c r="A130" s="4" t="inlineStr">
         <is>
-          <t>10.9</t>
+          <t>10.7</t>
         </is>
       </c>
       <c r="B130" s="4" t="inlineStr">
         <is>
-          <t>After editing, returns to review</t>
+          <t>Specimen type displays correctly</t>
         </is>
       </c>
       <c r="C130" s="4" t="inlineStr">
         <is>
-          <t>Make a change on Step 3, click "Save &amp; Return to Summary"</t>
+          <t>With select_with_alternates, check review</t>
         </is>
       </c>
       <c r="D130" s="4" t="inlineStr">
         <is>
-          <t>Returns to Review page with updated data</t>
+          <t>Shows default and any additional options</t>
         </is>
       </c>
       <c r="E130" s="4" t="n"/>
-      <c r="F130" s="20" t="n"/>
+      <c r="F130" s="16" t="n"/>
       <c r="G130" s="4" t="n"/>
-      <c r="H130" s="18" t="n"/>
-      <c r="I130" s="20" t="n"/>
+      <c r="H130" s="14" t="n"/>
+      <c r="I130" s="16" t="n"/>
     </row>
     <row r="131" ht="30" customHeight="1">
       <c r="A131" s="4" t="inlineStr">
         <is>
-          <t>10.10</t>
+          <t>10.8</t>
         </is>
       </c>
       <c r="B131" s="4" t="inlineStr">
         <is>
-          <t>Submit button sends to Supabase</t>
+          <t>Edit button navigates to correct step</t>
         </is>
       </c>
       <c r="C131" s="4" t="inlineStr">
         <is>
-          <t>Click "Submit to Propel Health"</t>
+          <t>Click "Edit" on the Contacts section</t>
         </is>
       </c>
       <c r="D131" s="4" t="inlineStr">
         <is>
-          <t>Loading spinner shows, then success message: "Submission Received!"</t>
+          <t>Navigates to Step 3 (Contacts)</t>
         </is>
       </c>
       <c r="E131" s="4" t="n"/>
-      <c r="F131" s="20" t="n"/>
+      <c r="F131" s="16" t="n"/>
       <c r="G131" s="4" t="n"/>
-      <c r="H131" s="18" t="n"/>
-      <c r="I131" s="20" t="n"/>
+      <c r="H131" s="14" t="n"/>
+      <c r="I131" s="16" t="n"/>
     </row>
     <row r="132" ht="30" customHeight="1">
       <c r="A132" s="4" t="inlineStr">
         <is>
-          <t>10.11</t>
+          <t>10.9</t>
         </is>
       </c>
       <c r="B132" s="4" t="inlineStr">
         <is>
-          <t>Success state shows after submit</t>
+          <t>After editing, returns to review</t>
         </is>
       </c>
       <c r="C132" s="4" t="inlineStr">
         <is>
-          <t>After successful submission</t>
+          <t>Make a change on Step 3, click "Save &amp; Return to Summary"</t>
         </is>
       </c>
       <c r="D132" s="4" t="inlineStr">
         <is>
-          <t>Green success box with checkmark, "Thank you" message, and download links</t>
+          <t>Returns to Review page with updated data</t>
         </is>
       </c>
       <c r="E132" s="4" t="n"/>
-      <c r="F132" s="20" t="n"/>
+      <c r="F132" s="16" t="n"/>
       <c r="G132" s="4" t="n"/>
-      <c r="H132" s="18" t="n"/>
-      <c r="I132" s="20" t="n"/>
+      <c r="H132" s="14" t="n"/>
+      <c r="I132" s="16" t="n"/>
     </row>
     <row r="133" ht="30" customHeight="1">
       <c r="A133" s="4" t="inlineStr">
         <is>
-          <t>10.12</t>
+          <t>10.10</t>
         </is>
       </c>
       <c r="B133" s="4" t="inlineStr">
         <is>
-          <t>Download JSON works</t>
+          <t>Submit button sends to Supabase</t>
         </is>
       </c>
       <c r="C133" s="4" t="inlineStr">
         <is>
-          <t>Click "Download JSON"</t>
+          <t>Click "Submit to Propel Health"</t>
         </is>
       </c>
       <c r="D133" s="4" t="inlineStr">
         <is>
-          <t>JSON file downloads with filename like `onboarding-P4M-20260204T...json`</t>
+          <t>Loading spinner shows, then success message: "Submission Received!"</t>
         </is>
       </c>
       <c r="E133" s="4" t="n"/>
-      <c r="F133" s="20" t="n"/>
+      <c r="F133" s="16" t="n"/>
       <c r="G133" s="4" t="n"/>
-      <c r="H133" s="18" t="n"/>
-      <c r="I133" s="20" t="n"/>
+      <c r="H133" s="14" t="n"/>
+      <c r="I133" s="16" t="n"/>
     </row>
     <row r="134" ht="30" customHeight="1">
       <c r="A134" s="4" t="inlineStr">
         <is>
-          <t>10.13</t>
+          <t>10.11</t>
         </is>
       </c>
       <c r="B134" s="4" t="inlineStr">
         <is>
-          <t>Download Word works</t>
+          <t>Success state shows after submit</t>
         </is>
       </c>
       <c r="C134" s="4" t="inlineStr">
         <is>
-          <t>Click "Download Word"</t>
+          <t>After successful submission</t>
         </is>
       </c>
       <c r="D134" s="4" t="inlineStr">
         <is>
-          <t>DOCX file downloads with formatted sections matching the form data</t>
+          <t>Green success box with checkmark, "Thank you" message, and download links</t>
         </is>
       </c>
       <c r="E134" s="4" t="n"/>
-      <c r="F134" s="20" t="n"/>
+      <c r="F134" s="16" t="n"/>
       <c r="G134" s="4" t="n"/>
-      <c r="H134" s="18" t="n"/>
-      <c r="I134" s="20" t="n"/>
+      <c r="H134" s="14" t="n"/>
+      <c r="I134" s="16" t="n"/>
     </row>
     <row r="135" ht="45" customHeight="1">
       <c r="A135" s="4" t="inlineStr">
         <is>
+          <t>10.12</t>
+        </is>
+      </c>
+      <c r="B135" s="4" t="inlineStr">
+        <is>
+          <t>Download JSON works</t>
+        </is>
+      </c>
+      <c r="C135" s="4" t="inlineStr">
+        <is>
+          <t>Click "Download JSON"</t>
+        </is>
+      </c>
+      <c r="D135" s="4" t="inlineStr">
+        <is>
+          <t>JSON file downloads with filename like `onboarding-P4M-20260204T...json`</t>
+        </is>
+      </c>
+      <c r="E135" s="4" t="n"/>
+      <c r="F135" s="16" t="n"/>
+      <c r="G135" s="4" t="n"/>
+      <c r="H135" s="14" t="n"/>
+      <c r="I135" s="16" t="n"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="4" t="inlineStr">
+        <is>
+          <t>10.13</t>
+        </is>
+      </c>
+      <c r="B136" s="4" t="inlineStr">
+        <is>
+          <t>Download Word works</t>
+        </is>
+      </c>
+      <c r="C136" s="4" t="inlineStr">
+        <is>
+          <t>Click "Download Word"</t>
+        </is>
+      </c>
+      <c r="D136" s="4" t="inlineStr">
+        <is>
+          <t>DOCX file downloads with formatted sections matching the form data</t>
+        </is>
+      </c>
+      <c r="E136" s="4" t="n"/>
+      <c r="F136" s="16" t="n"/>
+      <c r="G136" s="4" t="n"/>
+      <c r="H136" s="14" t="n"/>
+      <c r="I136" s="16" t="n"/>
+    </row>
+    <row r="137" ht="17" customHeight="1">
+      <c r="A137" s="4" t="inlineStr">
+        <is>
           <t>10.14</t>
         </is>
       </c>
-      <c r="B135" s="4" t="inlineStr">
+      <c r="B137" s="4" t="inlineStr">
         <is>
           <t>JSON output structure correct</t>
         </is>
       </c>
-      <c r="C135" s="4" t="inlineStr">
+      <c r="C137" s="4" t="inlineStr">
         <is>
           <t>Open the downloaded JSON</t>
         </is>
       </c>
-      <c r="D135" s="4" t="inlineStr">
+      <c r="D137" s="4" t="inlineStr">
         <is>
           <t>Contains: schema_version, program, clinic_information, contacts, lab_order_configuration (with test_panel), ordering_providers, extract_filtering, metadata</t>
         </is>
       </c>
-      <c r="E135" s="4" t="n"/>
-      <c r="F135" s="20" t="n"/>
-      <c r="G135" s="4" t="n"/>
-      <c r="H135" s="18" t="n"/>
-      <c r="I135" s="20" t="n"/>
-    </row>
-    <row r="136">
-      <c r="F136" s="20" t="n"/>
-      <c r="I136" s="20" t="n"/>
-    </row>
-    <row r="137" ht="17" customHeight="1">
-      <c r="A137" s="11" t="inlineStr">
+      <c r="E137" s="4" t="n"/>
+      <c r="F137" s="16" t="n"/>
+      <c r="G137" s="4" t="n"/>
+      <c r="H137" s="14" t="n"/>
+      <c r="I137" s="16" t="n"/>
+    </row>
+    <row r="138" ht="17" customHeight="1">
+      <c r="F138" s="16" t="n"/>
+      <c r="I138" s="16" t="n"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="23" t="inlineStr">
         <is>
           <t>Section 11: Navigation &amp; Progress</t>
         </is>
       </c>
-      <c r="B137" s="15" t="n"/>
-      <c r="C137" s="15" t="n"/>
-      <c r="D137" s="15" t="n"/>
-      <c r="E137" s="15" t="n"/>
-      <c r="F137" s="20" t="n"/>
-      <c r="G137" s="16" t="n"/>
-      <c r="I137" s="20" t="n"/>
-    </row>
-    <row r="138" ht="17" customHeight="1">
-      <c r="A138" s="3" t="inlineStr">
+      <c r="B139" s="22" t="n"/>
+      <c r="C139" s="22" t="n"/>
+      <c r="D139" s="22" t="n"/>
+      <c r="E139" s="22" t="n"/>
+      <c r="F139" s="22" t="n"/>
+      <c r="G139" s="22" t="n"/>
+      <c r="H139" s="22" t="n"/>
+      <c r="I139" s="24" t="n"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="3" t="inlineStr">
         <is>
           <t>#</t>
         </is>
       </c>
-      <c r="B138" s="3" t="inlineStr">
+      <c r="B140" s="3" t="inlineStr">
         <is>
           <t>Test Case</t>
         </is>
       </c>
-      <c r="C138" s="3" t="inlineStr">
+      <c r="C140" s="3" t="inlineStr">
         <is>
           <t>Steps</t>
         </is>
       </c>
-      <c r="D138" s="3" t="inlineStr">
+      <c r="D140" s="3" t="inlineStr">
         <is>
           <t>Expected Result</t>
         </is>
       </c>
-      <c r="E138" s="3" t="inlineStr">
+      <c r="E140" s="3" t="inlineStr">
         <is>
           <t>Result</t>
         </is>
       </c>
-      <c r="F138" s="20" t="n"/>
-      <c r="G138" s="3" t="inlineStr">
+      <c r="F140" s="15" t="inlineStr">
+        <is>
+          <t>Date Tested</t>
+        </is>
+      </c>
+      <c r="G140" s="3" t="inlineStr">
         <is>
           <t>Notes</t>
         </is>
       </c>
-      <c r="H138" s="17" t="inlineStr">
+      <c r="H140" s="13" t="inlineStr">
         <is>
           <t>Retest</t>
         </is>
       </c>
-      <c r="I138" s="20" t="n"/>
-    </row>
-    <row r="139">
-      <c r="A139" s="4" t="inlineStr">
-        <is>
-          <t>11.1</t>
-        </is>
-      </c>
-      <c r="B139" s="4" t="inlineStr">
-        <is>
-          <t>Progress indicator shows all steps</t>
-        </is>
-      </c>
-      <c r="C139" s="4" t="inlineStr">
-        <is>
-          <t>Observe the step indicator bar</t>
-        </is>
-      </c>
-      <c r="D139" s="4" t="inlineStr">
-        <is>
-          <t>Shows all 9 steps with titles, current step highlighted</t>
-        </is>
-      </c>
-      <c r="E139" s="4" t="n"/>
-      <c r="F139" s="20" t="n"/>
-      <c r="G139" s="4" t="n"/>
-      <c r="H139" s="18" t="n"/>
-      <c r="I139" s="20" t="n"/>
-    </row>
-    <row r="140">
-      <c r="A140" s="4" t="inlineStr">
-        <is>
-          <t>11.2</t>
-        </is>
-      </c>
-      <c r="B140" s="4" t="inlineStr">
-        <is>
-          <t>Cannot skip ahead</t>
-        </is>
-      </c>
-      <c r="C140" s="4" t="inlineStr">
-        <is>
-          <t>Click on Step 5 when only on Step 1</t>
-        </is>
-      </c>
-      <c r="D140" s="4" t="inlineStr">
-        <is>
-          <t>Nothing happens (step is not clickable)</t>
-        </is>
-      </c>
-      <c r="E140" s="4" t="n"/>
-      <c r="F140" s="20" t="n"/>
-      <c r="G140" s="4" t="n"/>
-      <c r="H140" s="18" t="n"/>
-      <c r="I140" s="20" t="n"/>
+      <c r="I140" s="15" t="inlineStr">
+        <is>
+          <t>Retest Date</t>
+        </is>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="4" t="inlineStr">
         <is>
-          <t>11.3</t>
+          <t>11.1</t>
         </is>
       </c>
       <c r="B141" s="4" t="inlineStr">
         <is>
-          <t>Can go back to completed steps</t>
+          <t>Progress indicator shows all steps</t>
         </is>
       </c>
       <c r="C141" s="4" t="inlineStr">
         <is>
-          <t>Complete Steps 1-3, click on Step 1 in the progress bar</t>
+          <t>Observe the step indicator bar</t>
         </is>
       </c>
       <c r="D141" s="4" t="inlineStr">
         <is>
-          <t>Navigates back to Step 1 with data preserved</t>
+          <t>Shows all 9 steps with titles, current step highlighted</t>
         </is>
       </c>
       <c r="E141" s="4" t="n"/>
-      <c r="F141" s="20" t="n"/>
+      <c r="F141" s="16" t="n"/>
       <c r="G141" s="4" t="n"/>
-      <c r="H141" s="18" t="n"/>
-      <c r="I141" s="20" t="n"/>
+      <c r="H141" s="14" t="n"/>
+      <c r="I141" s="16" t="n"/>
     </row>
     <row r="142">
       <c r="A142" s="4" t="inlineStr">
         <is>
-          <t>11.4</t>
+          <t>11.2</t>
         </is>
       </c>
       <c r="B142" s="4" t="inlineStr">
         <is>
-          <t>Previous button works</t>
+          <t>Cannot skip ahead</t>
         </is>
       </c>
       <c r="C142" s="4" t="inlineStr">
         <is>
-          <t>Click "Previous" on Step 3</t>
+          <t>Click on Step 5 when only on Step 1</t>
         </is>
       </c>
       <c r="D142" s="4" t="inlineStr">
         <is>
-          <t>Returns to Step 2 with all data intact</t>
+          <t>Nothing happens (step is not clickable)</t>
         </is>
       </c>
       <c r="E142" s="4" t="n"/>
-      <c r="F142" s="20" t="n"/>
+      <c r="F142" s="16" t="n"/>
       <c r="G142" s="4" t="n"/>
-      <c r="H142" s="18" t="n"/>
-      <c r="I142" s="20" t="n"/>
+      <c r="H142" s="14" t="n"/>
+      <c r="I142" s="16" t="n"/>
     </row>
     <row r="143">
       <c r="A143" s="4" t="inlineStr">
         <is>
-          <t>11.5</t>
+          <t>11.3</t>
         </is>
       </c>
       <c r="B143" s="4" t="inlineStr">
         <is>
-          <t>Previous button disabled on Step 1</t>
+          <t>Can go back to completed steps</t>
         </is>
       </c>
       <c r="C143" s="4" t="inlineStr">
         <is>
-          <t>Observe on Step 1</t>
+          <t>Complete Steps 1-3, click on Step 1 in the progress bar</t>
         </is>
       </c>
       <c r="D143" s="4" t="inlineStr">
         <is>
-          <t>Previous button is grayed out / disabled</t>
+          <t>Navigates back to Step 1 with data preserved</t>
         </is>
       </c>
       <c r="E143" s="4" t="n"/>
-      <c r="F143" s="20" t="n"/>
+      <c r="F143" s="16" t="n"/>
       <c r="G143" s="4" t="n"/>
-      <c r="H143" s="18" t="n"/>
-      <c r="I143" s="20" t="n"/>
+      <c r="H143" s="14" t="n"/>
+      <c r="I143" s="16" t="n"/>
     </row>
     <row r="144">
       <c r="A144" s="4" t="inlineStr">
         <is>
+          <t>11.4</t>
+        </is>
+      </c>
+      <c r="B144" s="4" t="inlineStr">
+        <is>
+          <t>Previous button works</t>
+        </is>
+      </c>
+      <c r="C144" s="4" t="inlineStr">
+        <is>
+          <t>Click "Previous" on Step 3</t>
+        </is>
+      </c>
+      <c r="D144" s="4" t="inlineStr">
+        <is>
+          <t>Returns to Step 2 with all data intact</t>
+        </is>
+      </c>
+      <c r="E144" s="4" t="n"/>
+      <c r="F144" s="16" t="n"/>
+      <c r="G144" s="4" t="n"/>
+      <c r="H144" s="14" t="n"/>
+      <c r="I144" s="16" t="n"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="4" t="inlineStr">
+        <is>
+          <t>11.5</t>
+        </is>
+      </c>
+      <c r="B145" s="4" t="inlineStr">
+        <is>
+          <t>Previous button disabled on Step 1</t>
+        </is>
+      </c>
+      <c r="C145" s="4" t="inlineStr">
+        <is>
+          <t>Observe on Step 1</t>
+        </is>
+      </c>
+      <c r="D145" s="4" t="inlineStr">
+        <is>
+          <t>Previous button is grayed out / disabled</t>
+        </is>
+      </c>
+      <c r="E145" s="4" t="n"/>
+      <c r="F145" s="16" t="n"/>
+      <c r="G145" s="4" t="n"/>
+      <c r="H145" s="14" t="n"/>
+      <c r="I145" s="16" t="n"/>
+    </row>
+    <row r="146" ht="17" customHeight="1">
+      <c r="A146" s="4" t="inlineStr">
+        <is>
           <t>11.6</t>
         </is>
       </c>
-      <c r="B144" s="4" t="inlineStr">
+      <c r="B146" s="4" t="inlineStr">
         <is>
           <t>Page scrolls to top on navigation</t>
         </is>
       </c>
-      <c r="C144" s="4" t="inlineStr">
+      <c r="C146" s="4" t="inlineStr">
         <is>
           <t>Navigate from a long step to the next</t>
         </is>
       </c>
-      <c r="D144" s="4" t="inlineStr">
+      <c r="D146" s="4" t="inlineStr">
         <is>
           <t>Page scrolls to top of the form</t>
         </is>
       </c>
-      <c r="E144" s="4" t="n"/>
-      <c r="F144" s="20" t="n"/>
-      <c r="G144" s="4" t="n"/>
-      <c r="H144" s="18" t="n"/>
-      <c r="I144" s="20" t="n"/>
-    </row>
-    <row r="145">
-      <c r="F145" s="20" t="n"/>
-      <c r="I145" s="20" t="n"/>
-    </row>
-    <row r="146" ht="17" customHeight="1">
-      <c r="A146" s="11" t="inlineStr">
+      <c r="E146" s="4" t="n"/>
+      <c r="F146" s="16" t="n"/>
+      <c r="G146" s="4" t="n"/>
+      <c r="H146" s="14" t="n"/>
+      <c r="I146" s="16" t="n"/>
+    </row>
+    <row r="147" ht="17" customHeight="1">
+      <c r="F147" s="16" t="n"/>
+      <c r="I147" s="16" t="n"/>
+    </row>
+    <row r="148" ht="409.5" customHeight="1">
+      <c r="A148" s="23" t="inlineStr">
         <is>
           <t>Section 12: Auto-Save &amp; Resume</t>
         </is>
       </c>
-      <c r="B146" s="15" t="n"/>
-      <c r="C146" s="15" t="n"/>
-      <c r="D146" s="15" t="n"/>
-      <c r="E146" s="15" t="n"/>
-      <c r="F146" s="20" t="n"/>
-      <c r="G146" s="16" t="n"/>
-      <c r="I146" s="20" t="n"/>
-    </row>
-    <row r="147" ht="17" customHeight="1">
-      <c r="A147" s="3" t="inlineStr">
+      <c r="B148" s="22" t="n"/>
+      <c r="C148" s="22" t="n"/>
+      <c r="D148" s="22" t="n"/>
+      <c r="E148" s="22" t="n"/>
+      <c r="F148" s="22" t="n"/>
+      <c r="G148" s="22" t="n"/>
+      <c r="H148" s="22" t="n"/>
+      <c r="I148" s="24" t="n"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="3" t="inlineStr">
         <is>
           <t>#</t>
         </is>
       </c>
-      <c r="B147" s="3" t="inlineStr">
+      <c r="B149" s="3" t="inlineStr">
         <is>
           <t>Test Case</t>
         </is>
       </c>
-      <c r="C147" s="3" t="inlineStr">
+      <c r="C149" s="3" t="inlineStr">
         <is>
           <t>Steps</t>
         </is>
       </c>
-      <c r="D147" s="3" t="inlineStr">
+      <c r="D149" s="3" t="inlineStr">
         <is>
           <t>Expected Result</t>
         </is>
       </c>
-      <c r="E147" s="3" t="inlineStr">
+      <c r="E149" s="3" t="inlineStr">
         <is>
           <t>Result</t>
         </is>
       </c>
-      <c r="F147" s="20" t="n"/>
-      <c r="G147" s="3" t="inlineStr">
+      <c r="F149" s="15" t="inlineStr">
+        <is>
+          <t>Date Tested</t>
+        </is>
+      </c>
+      <c r="G149" s="3" t="inlineStr">
         <is>
           <t>Notes</t>
         </is>
       </c>
-      <c r="H147" s="17" t="inlineStr">
+      <c r="H149" s="13" t="inlineStr">
         <is>
           <t>Retest</t>
         </is>
       </c>
-      <c r="I147" s="20" t="n"/>
-    </row>
-    <row r="148" ht="409.6" customHeight="1">
-      <c r="A148" s="4" t="inlineStr">
+      <c r="I149" s="15" t="inlineStr">
+        <is>
+          <t>Retest Date</t>
+        </is>
+      </c>
+    </row>
+    <row r="150" ht="30" customHeight="1">
+      <c r="A150" s="4" t="inlineStr">
         <is>
           <t>12.1</t>
         </is>
       </c>
-      <c r="B148" s="4" t="inlineStr">
+      <c r="B150" s="4" t="inlineStr">
         <is>
           <t>Auto-save to Supabase triggers</t>
         </is>
       </c>
-      <c r="C148" s="4" t="inlineStr">
+      <c r="C150" s="4" t="inlineStr">
         <is>
           <t>Fill in clinic champion email, wait 3+ seconds</t>
         </is>
       </c>
-      <c r="D148" s="4" t="inlineStr">
+      <c r="D150" s="4" t="inlineStr">
         <is>
           <t>Save status bar shows "Saving..." then "Saved" briefly</t>
         </is>
       </c>
-      <c r="E148" s="4" t="inlineStr">
+      <c r="E150" s="4" t="inlineStr">
         <is>
           <t>FAIL</t>
         </is>
       </c>
-      <c r="F148" s="20" t="n"/>
-      <c r="G148" s="4" t="inlineStr">
+      <c r="F150" s="20" t="n">
+        <v>46057</v>
+      </c>
+      <c r="G150" s="4" t="inlineStr">
         <is>
           <t>Test Case 12.1: Autosave Functionality
 After adding stakeholder information, polled the database. No entries found for the work completed.
@@ -4610,1132 +4857,1123 @@
 Fix the underlying sync issue — data must successfully save to the database.</t>
         </is>
       </c>
-      <c r="H148" s="18" t="n"/>
-      <c r="I148" s="20" t="n"/>
-    </row>
-    <row r="149">
-      <c r="A149" s="4" t="inlineStr">
-        <is>
-          <t>12.2</t>
-        </is>
-      </c>
-      <c r="B149" s="4" t="inlineStr">
-        <is>
-          <t>Resume button visible</t>
-        </is>
-      </c>
-      <c r="C149" s="4" t="inlineStr">
-        <is>
-          <t>Observe the form header area</t>
-        </is>
-      </c>
-      <c r="D149" s="4" t="inlineStr">
-        <is>
-          <t>"Resume Your Onboarding Form" button is visible</t>
-        </is>
-      </c>
-      <c r="E149" s="4" t="n"/>
-      <c r="F149" s="20" t="n"/>
-      <c r="G149" s="4" t="n"/>
-      <c r="H149" s="18" t="n"/>
-      <c r="I149" s="20" t="n"/>
-    </row>
-    <row r="150" ht="30" customHeight="1">
-      <c r="A150" s="4" t="inlineStr">
-        <is>
-          <t>12.3</t>
-        </is>
-      </c>
-      <c r="B150" s="4" t="inlineStr">
-        <is>
-          <t>Resume modal shows drafts</t>
-        </is>
-      </c>
-      <c r="C150" s="4" t="inlineStr">
-        <is>
-          <t>Click "Resume Your Onboarding Form"</t>
-        </is>
-      </c>
-      <c r="D150" s="4" t="inlineStr">
-        <is>
-          <t>Modal opens showing recent drafts (clinic names, programs, dates)</t>
-        </is>
-      </c>
-      <c r="E150" s="4" t="n"/>
-      <c r="F150" s="20" t="n"/>
-      <c r="G150" s="4" t="n"/>
-      <c r="H150" s="18" t="n"/>
-      <c r="I150" s="20" t="n"/>
+      <c r="H150" s="14" t="n"/>
+      <c r="I150" s="16" t="n"/>
     </row>
     <row r="151">
       <c r="A151" s="4" t="inlineStr">
         <is>
-          <t>12.4</t>
+          <t>12.2</t>
         </is>
       </c>
       <c r="B151" s="4" t="inlineStr">
         <is>
-          <t>Resume modal — no drafts</t>
+          <t>Resume button visible</t>
         </is>
       </c>
       <c r="C151" s="4" t="inlineStr">
         <is>
-          <t>If no drafts exist</t>
+          <t>Observe the form header area</t>
         </is>
       </c>
       <c r="D151" s="4" t="inlineStr">
         <is>
-          <t>Shows "No recent drafts found" message</t>
+          <t>"Resume Your Onboarding Form" button is visible</t>
         </is>
       </c>
       <c r="E151" s="4" t="n"/>
-      <c r="F151" s="20" t="n"/>
+      <c r="F151" s="16" t="n"/>
       <c r="G151" s="4" t="n"/>
-      <c r="H151" s="18" t="n"/>
-      <c r="I151" s="20" t="n"/>
+      <c r="H151" s="14" t="n"/>
+      <c r="I151" s="16" t="n"/>
     </row>
     <row r="152">
       <c r="A152" s="4" t="inlineStr">
         <is>
-          <t>12.5</t>
+          <t>12.3</t>
         </is>
       </c>
       <c r="B152" s="4" t="inlineStr">
         <is>
-          <t>Selecting a draft prompts verification</t>
+          <t>Resume modal shows drafts</t>
         </is>
       </c>
       <c r="C152" s="4" t="inlineStr">
         <is>
-          <t>Click on a clinic name in the draft list</t>
+          <t>Click "Resume Your Onboarding Form"</t>
         </is>
       </c>
       <c r="D152" s="4" t="inlineStr">
         <is>
-          <t>Shows "Verify Your Identity" screen with email input</t>
+          <t>Modal opens showing recent drafts (clinic names, programs, dates)</t>
         </is>
       </c>
       <c r="E152" s="4" t="n"/>
-      <c r="F152" s="20" t="n"/>
+      <c r="F152" s="16" t="n"/>
       <c r="G152" s="4" t="n"/>
-      <c r="H152" s="18" t="n"/>
-      <c r="I152" s="20" t="n"/>
+      <c r="H152" s="14" t="n"/>
+      <c r="I152" s="16" t="n"/>
     </row>
     <row r="153" ht="30" customHeight="1">
       <c r="A153" s="4" t="inlineStr">
         <is>
-          <t>12.6</t>
+          <t>12.4</t>
         </is>
       </c>
       <c r="B153" s="4" t="inlineStr">
         <is>
-          <t>Correct email restores draft</t>
+          <t>Resume modal — no drafts</t>
         </is>
       </c>
       <c r="C153" s="4" t="inlineStr">
         <is>
-          <t>Enter an email that matches a contact in the draft, click Continue</t>
+          <t>If no drafts exist</t>
         </is>
       </c>
       <c r="D153" s="4" t="inlineStr">
         <is>
-          <t>Form restores with all saved data, navigates to the saved step</t>
+          <t>Shows "No recent drafts found" message</t>
         </is>
       </c>
       <c r="E153" s="4" t="n"/>
-      <c r="F153" s="20" t="n"/>
+      <c r="F153" s="16" t="n"/>
       <c r="G153" s="4" t="n"/>
-      <c r="H153" s="18" t="n"/>
-      <c r="I153" s="20" t="n"/>
+      <c r="H153" s="14" t="n"/>
+      <c r="I153" s="16" t="n"/>
     </row>
     <row r="154">
       <c r="A154" s="4" t="inlineStr">
         <is>
-          <t>12.7</t>
+          <t>12.5</t>
         </is>
       </c>
       <c r="B154" s="4" t="inlineStr">
         <is>
-          <t>Incorrect email shows error</t>
+          <t>Selecting a draft prompts verification</t>
         </is>
       </c>
       <c r="C154" s="4" t="inlineStr">
         <is>
-          <t>Enter an email that does NOT match any contact</t>
+          <t>Click on a clinic name in the draft list</t>
         </is>
       </c>
       <c r="D154" s="4" t="inlineStr">
         <is>
-          <t>Error: "Email not recognized for this clinic..."</t>
+          <t>Shows "Verify Your Identity" screen with email input</t>
         </is>
       </c>
       <c r="E154" s="4" t="n"/>
-      <c r="F154" s="20" t="n"/>
+      <c r="F154" s="16" t="n"/>
       <c r="G154" s="4" t="n"/>
-      <c r="H154" s="18" t="n"/>
-      <c r="I154" s="20" t="n"/>
+      <c r="H154" s="14" t="n"/>
+      <c r="I154" s="16" t="n"/>
     </row>
     <row r="155" ht="30" customHeight="1">
       <c r="A155" s="4" t="inlineStr">
         <is>
-          <t>12.8</t>
+          <t>12.6</t>
         </is>
       </c>
       <c r="B155" s="4" t="inlineStr">
         <is>
-          <t>Case-insensitive email verification</t>
+          <t>Correct email restores draft</t>
         </is>
       </c>
       <c r="C155" s="4" t="inlineStr">
         <is>
-          <t>Enter the correct email but with different casing (e.g., "JANE@CLINIC.ORG")</t>
+          <t>Enter an email that matches a contact in the draft, click Continue</t>
         </is>
       </c>
       <c r="D155" s="4" t="inlineStr">
         <is>
-          <t>Verification succeeds</t>
+          <t>Form restores with all saved data, navigates to the saved step</t>
         </is>
       </c>
       <c r="E155" s="4" t="n"/>
-      <c r="F155" s="20" t="n"/>
+      <c r="F155" s="16" t="n"/>
       <c r="G155" s="4" t="n"/>
-      <c r="H155" s="18" t="n"/>
-      <c r="I155" s="20" t="n"/>
+      <c r="H155" s="14" t="n"/>
+      <c r="I155" s="16" t="n"/>
     </row>
     <row r="156">
       <c r="A156" s="4" t="inlineStr">
         <is>
-          <t>12.9</t>
+          <t>12.7</t>
         </is>
       </c>
       <c r="B156" s="4" t="inlineStr">
         <is>
-          <t>Close button on resume modal</t>
+          <t>Incorrect email shows error</t>
         </is>
       </c>
       <c r="C156" s="4" t="inlineStr">
         <is>
-          <t>Click X or "Start New Form Instead"</t>
+          <t>Enter an email that does NOT match any contact</t>
         </is>
       </c>
       <c r="D156" s="4" t="inlineStr">
         <is>
-          <t>Modal closes, form remains as-is</t>
+          <t>Error: "Email not recognized for this clinic..."</t>
         </is>
       </c>
       <c r="E156" s="4" t="n"/>
-      <c r="F156" s="20" t="n"/>
+      <c r="F156" s="16" t="n"/>
       <c r="G156" s="4" t="n"/>
-      <c r="H156" s="18" t="n"/>
-      <c r="I156" s="20" t="n"/>
+      <c r="H156" s="14" t="n"/>
+      <c r="I156" s="16" t="n"/>
     </row>
     <row r="157">
       <c r="A157" s="4" t="inlineStr">
         <is>
-          <t>12.10</t>
+          <t>12.8</t>
         </is>
       </c>
       <c r="B157" s="4" t="inlineStr">
         <is>
-          <t>Save Draft to file</t>
+          <t>Case-insensitive email verification</t>
         </is>
       </c>
       <c r="C157" s="4" t="inlineStr">
         <is>
-          <t>Click "Save Draft" in the save status bar</t>
+          <t>Enter the correct email but with different casing (e.g., "JANE@CLINIC.ORG")</t>
         </is>
       </c>
       <c r="D157" s="4" t="inlineStr">
         <is>
-          <t>JSON file downloads named `propel-draft-YYYY-MM-DD.json`</t>
+          <t>Verification succeeds</t>
         </is>
       </c>
       <c r="E157" s="4" t="n"/>
-      <c r="F157" s="20" t="n"/>
+      <c r="F157" s="16" t="n"/>
       <c r="G157" s="4" t="n"/>
-      <c r="H157" s="18" t="n"/>
-      <c r="I157" s="20" t="n"/>
+      <c r="H157" s="14" t="n"/>
+      <c r="I157" s="16" t="n"/>
     </row>
     <row r="158">
       <c r="A158" s="4" t="inlineStr">
         <is>
-          <t>12.11</t>
+          <t>12.9</t>
         </is>
       </c>
       <c r="B158" s="4" t="inlineStr">
         <is>
-          <t>Load Draft from file</t>
+          <t>Close button on resume modal</t>
         </is>
       </c>
       <c r="C158" s="4" t="inlineStr">
         <is>
-          <t>Click "Load Draft", select a previously saved draft JSON</t>
+          <t>Click X or "Start New Form Instead"</t>
         </is>
       </c>
       <c r="D158" s="4" t="inlineStr">
         <is>
-          <t>Form restores with data from the file</t>
+          <t>Modal closes, form remains as-is</t>
         </is>
       </c>
       <c r="E158" s="4" t="n"/>
-      <c r="F158" s="20" t="n"/>
+      <c r="F158" s="16" t="n"/>
       <c r="G158" s="4" t="n"/>
-      <c r="H158" s="18" t="n"/>
-      <c r="I158" s="20" t="n"/>
+      <c r="H158" s="14" t="n"/>
+      <c r="I158" s="16" t="n"/>
     </row>
     <row r="159">
       <c r="A159" s="4" t="inlineStr">
         <is>
+          <t>12.10</t>
+        </is>
+      </c>
+      <c r="B159" s="4" t="inlineStr">
+        <is>
+          <t>Save Draft to file</t>
+        </is>
+      </c>
+      <c r="C159" s="4" t="inlineStr">
+        <is>
+          <t>Click "Save Draft" in the save status bar</t>
+        </is>
+      </c>
+      <c r="D159" s="4" t="inlineStr">
+        <is>
+          <t>JSON file downloads named `propel-draft-YYYY-MM-DD.json`</t>
+        </is>
+      </c>
+      <c r="E159" s="4" t="n"/>
+      <c r="F159" s="16" t="n"/>
+      <c r="G159" s="4" t="n"/>
+      <c r="H159" s="14" t="n"/>
+      <c r="I159" s="16" t="n"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="4" t="inlineStr">
+        <is>
+          <t>12.11</t>
+        </is>
+      </c>
+      <c r="B160" s="4" t="inlineStr">
+        <is>
+          <t>Load Draft from file</t>
+        </is>
+      </c>
+      <c r="C160" s="4" t="inlineStr">
+        <is>
+          <t>Click "Load Draft", select a previously saved draft JSON</t>
+        </is>
+      </c>
+      <c r="D160" s="4" t="inlineStr">
+        <is>
+          <t>Form restores with data from the file</t>
+        </is>
+      </c>
+      <c r="E160" s="4" t="n"/>
+      <c r="F160" s="16" t="n"/>
+      <c r="G160" s="4" t="n"/>
+      <c r="H160" s="14" t="n"/>
+      <c r="I160" s="16" t="n"/>
+    </row>
+    <row r="161" ht="17" customHeight="1">
+      <c r="A161" s="4" t="inlineStr">
+        <is>
           <t>12.12</t>
         </is>
       </c>
-      <c r="B159" s="4" t="inlineStr">
+      <c r="B161" s="4" t="inlineStr">
         <is>
           <t>Start Over clears everything</t>
         </is>
       </c>
-      <c r="C159" s="4" t="inlineStr">
+      <c r="C161" s="4" t="inlineStr">
         <is>
           <t>Click "Start Over", confirm the dialog</t>
         </is>
       </c>
-      <c r="D159" s="4" t="inlineStr">
+      <c r="D161" s="4" t="inlineStr">
         <is>
           <t>Form resets to Step 1 with all fields empty, localStorage cleared</t>
         </is>
       </c>
-      <c r="E159" s="4" t="n"/>
-      <c r="F159" s="20" t="n"/>
-      <c r="G159" s="4" t="n"/>
-      <c r="H159" s="18" t="n"/>
-      <c r="I159" s="20" t="n"/>
-    </row>
-    <row r="160">
-      <c r="F160" s="20" t="n"/>
-      <c r="I160" s="20" t="n"/>
-    </row>
-    <row r="161" ht="17" customHeight="1">
-      <c r="A161" s="11" t="inlineStr">
+      <c r="E161" s="4" t="n"/>
+      <c r="F161" s="16" t="n"/>
+      <c r="G161" s="4" t="n"/>
+      <c r="H161" s="14" t="n"/>
+      <c r="I161" s="16" t="n"/>
+    </row>
+    <row r="162" ht="17" customHeight="1">
+      <c r="F162" s="16" t="n"/>
+      <c r="I162" s="16" t="n"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="23" t="inlineStr">
         <is>
           <t>Section 13: Responsive / Mobile</t>
         </is>
       </c>
-      <c r="B161" s="15" t="n"/>
-      <c r="C161" s="15" t="n"/>
-      <c r="D161" s="15" t="n"/>
-      <c r="E161" s="15" t="n"/>
-      <c r="F161" s="20" t="n"/>
-      <c r="G161" s="16" t="n"/>
-      <c r="I161" s="20" t="n"/>
-    </row>
-    <row r="162" ht="17" customHeight="1">
-      <c r="A162" s="3" t="inlineStr">
+      <c r="B163" s="22" t="n"/>
+      <c r="C163" s="22" t="n"/>
+      <c r="D163" s="22" t="n"/>
+      <c r="E163" s="22" t="n"/>
+      <c r="F163" s="22" t="n"/>
+      <c r="G163" s="22" t="n"/>
+      <c r="H163" s="22" t="n"/>
+      <c r="I163" s="24" t="n"/>
+    </row>
+    <row r="164" ht="30" customHeight="1">
+      <c r="A164" s="3" t="inlineStr">
         <is>
           <t>#</t>
         </is>
       </c>
-      <c r="B162" s="3" t="inlineStr">
+      <c r="B164" s="3" t="inlineStr">
         <is>
           <t>Test Case</t>
         </is>
       </c>
-      <c r="C162" s="3" t="inlineStr">
+      <c r="C164" s="3" t="inlineStr">
         <is>
           <t>Steps</t>
         </is>
       </c>
-      <c r="D162" s="3" t="inlineStr">
+      <c r="D164" s="3" t="inlineStr">
         <is>
           <t>Expected Result</t>
         </is>
       </c>
-      <c r="E162" s="3" t="inlineStr">
+      <c r="E164" s="3" t="inlineStr">
         <is>
           <t>Result</t>
         </is>
       </c>
-      <c r="F162" s="20" t="n"/>
-      <c r="G162" s="3" t="inlineStr">
+      <c r="F164" s="15" t="inlineStr">
+        <is>
+          <t>Date Tested</t>
+        </is>
+      </c>
+      <c r="G164" s="3" t="inlineStr">
         <is>
           <t>Notes</t>
         </is>
       </c>
-      <c r="H162" s="17" t="inlineStr">
+      <c r="H164" s="13" t="inlineStr">
         <is>
           <t>Retest</t>
         </is>
       </c>
-      <c r="I162" s="20" t="n"/>
-    </row>
-    <row r="163">
-      <c r="A163" s="4" t="inlineStr">
-        <is>
-          <t>13.1</t>
-        </is>
-      </c>
-      <c r="B163" s="4" t="inlineStr">
-        <is>
-          <t>Login page responsive</t>
-        </is>
-      </c>
-      <c r="C163" s="4" t="inlineStr">
-        <is>
-          <t>View on mobile viewport (375px wide)</t>
-        </is>
-      </c>
-      <c r="D163" s="4" t="inlineStr">
-        <is>
-          <t>Login card stacks vertically, inputs full-width, button accessible</t>
-        </is>
-      </c>
-      <c r="E163" s="4" t="n"/>
-      <c r="F163" s="20" t="n"/>
-      <c r="G163" s="4" t="n"/>
-      <c r="H163" s="18" t="n"/>
-      <c r="I163" s="20" t="n"/>
-    </row>
-    <row r="164" ht="30" customHeight="1">
-      <c r="A164" s="4" t="inlineStr">
-        <is>
-          <t>13.2</t>
-        </is>
-      </c>
-      <c r="B164" s="4" t="inlineStr">
-        <is>
-          <t>Form wizard responsive</t>
-        </is>
-      </c>
-      <c r="C164" s="4" t="inlineStr">
-        <is>
-          <t>View form on mobile viewport</t>
-        </is>
-      </c>
-      <c r="D164" s="4" t="inlineStr">
-        <is>
-          <t>Progress indicator adapts, form fields stack vertically, buttons full-width</t>
-        </is>
-      </c>
-      <c r="E164" s="4" t="n"/>
-      <c r="F164" s="20" t="n"/>
-      <c r="G164" s="4" t="n"/>
-      <c r="H164" s="18" t="n"/>
-      <c r="I164" s="20" t="n"/>
+      <c r="I164" s="15" t="inlineStr">
+        <is>
+          <t>Retest Date</t>
+        </is>
+      </c>
     </row>
     <row r="165" ht="30" customHeight="1">
       <c r="A165" s="4" t="inlineStr">
         <is>
-          <t>13.3</t>
+          <t>13.1</t>
         </is>
       </c>
       <c r="B165" s="4" t="inlineStr">
         <is>
-          <t>Contact group responsive</t>
+          <t>Login page responsive</t>
         </is>
       </c>
       <c r="C165" s="4" t="inlineStr">
         <is>
-          <t>View a contact group on mobile</t>
+          <t>View on mobile viewport (375px wide)</t>
         </is>
       </c>
       <c r="D165" s="4" t="inlineStr">
         <is>
-          <t>Name/Title, Email/Phone, Channel/Time rows stack instead of side-by-side</t>
+          <t>Login card stacks vertically, inputs full-width, button accessible</t>
         </is>
       </c>
       <c r="E165" s="4" t="n"/>
-      <c r="F165" s="20" t="n"/>
+      <c r="F165" s="16" t="n"/>
       <c r="G165" s="4" t="n"/>
-      <c r="H165" s="18" t="n"/>
-      <c r="I165" s="20" t="n"/>
+      <c r="H165" s="14" t="n"/>
+      <c r="I165" s="16" t="n"/>
     </row>
     <row r="166">
       <c r="A166" s="4" t="inlineStr">
         <is>
-          <t>13.4</t>
+          <t>13.2</t>
         </is>
       </c>
       <c r="B166" s="4" t="inlineStr">
         <is>
-          <t>Address group responsive</t>
+          <t>Form wizard responsive</t>
         </is>
       </c>
       <c r="C166" s="4" t="inlineStr">
         <is>
-          <t>View address on mobile</t>
+          <t>View form on mobile viewport</t>
         </is>
       </c>
       <c r="D166" s="4" t="inlineStr">
         <is>
-          <t>Street full-width, City/State/ZIP stack vertically</t>
+          <t>Progress indicator adapts, form fields stack vertically, buttons full-width</t>
         </is>
       </c>
       <c r="E166" s="4" t="n"/>
-      <c r="F166" s="20" t="n"/>
+      <c r="F166" s="16" t="n"/>
       <c r="G166" s="4" t="n"/>
-      <c r="H166" s="18" t="n"/>
-      <c r="I166" s="20" t="n"/>
+      <c r="H166" s="14" t="n"/>
+      <c r="I166" s="16" t="n"/>
     </row>
     <row r="167" ht="30" customHeight="1">
       <c r="A167" s="4" t="inlineStr">
         <is>
-          <t>13.5</t>
+          <t>13.3</t>
         </is>
       </c>
       <c r="B167" s="4" t="inlineStr">
         <is>
-          <t>Review page responsive</t>
+          <t>Contact group responsive</t>
         </is>
       </c>
       <c r="C167" s="4" t="inlineStr">
         <is>
-          <t>View review on mobile</t>
+          <t>View a contact group on mobile</t>
         </is>
       </c>
       <c r="D167" s="4" t="inlineStr">
         <is>
-          <t>Sections readable, Edit buttons accessible, Download/Submit buttons accessible</t>
+          <t>Name/Title, Email/Phone, Channel/Time rows stack instead of side-by-side</t>
         </is>
       </c>
       <c r="E167" s="4" t="n"/>
-      <c r="F167" s="20" t="n"/>
+      <c r="F167" s="16" t="n"/>
       <c r="G167" s="4" t="n"/>
-      <c r="H167" s="18" t="n"/>
-      <c r="I167" s="20" t="n"/>
+      <c r="H167" s="14" t="n"/>
+      <c r="I167" s="16" t="n"/>
     </row>
     <row r="168">
       <c r="A168" s="4" t="inlineStr">
         <is>
+          <t>13.4</t>
+        </is>
+      </c>
+      <c r="B168" s="4" t="inlineStr">
+        <is>
+          <t>Address group responsive</t>
+        </is>
+      </c>
+      <c r="C168" s="4" t="inlineStr">
+        <is>
+          <t>View address on mobile</t>
+        </is>
+      </c>
+      <c r="D168" s="4" t="inlineStr">
+        <is>
+          <t>Street full-width, City/State/ZIP stack vertically</t>
+        </is>
+      </c>
+      <c r="E168" s="4" t="n"/>
+      <c r="F168" s="16" t="n"/>
+      <c r="G168" s="4" t="n"/>
+      <c r="H168" s="14" t="n"/>
+      <c r="I168" s="16" t="n"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="4" t="inlineStr">
+        <is>
+          <t>13.5</t>
+        </is>
+      </c>
+      <c r="B169" s="4" t="inlineStr">
+        <is>
+          <t>Review page responsive</t>
+        </is>
+      </c>
+      <c r="C169" s="4" t="inlineStr">
+        <is>
+          <t>View review on mobile</t>
+        </is>
+      </c>
+      <c r="D169" s="4" t="inlineStr">
+        <is>
+          <t>Sections readable, Edit buttons accessible, Download/Submit buttons accessible</t>
+        </is>
+      </c>
+      <c r="E169" s="4" t="n"/>
+      <c r="F169" s="16" t="n"/>
+      <c r="G169" s="4" t="n"/>
+      <c r="H169" s="14" t="n"/>
+      <c r="I169" s="16" t="n"/>
+    </row>
+    <row r="170" ht="17" customHeight="1">
+      <c r="A170" s="4" t="inlineStr">
+        <is>
           <t>13.6</t>
         </is>
       </c>
-      <c r="B168" s="4" t="inlineStr">
+      <c r="B170" s="4" t="inlineStr">
         <is>
           <t>Resume modal responsive</t>
         </is>
       </c>
-      <c r="C168" s="4" t="inlineStr">
+      <c r="C170" s="4" t="inlineStr">
         <is>
           <t>Open resume modal on mobile</t>
         </is>
       </c>
-      <c r="D168" s="4" t="inlineStr">
+      <c r="D170" s="4" t="inlineStr">
         <is>
           <t>Modal fits screen, draft list scrollable, email input accessible</t>
         </is>
       </c>
-      <c r="E168" s="4" t="n"/>
-      <c r="F168" s="20" t="n"/>
-      <c r="G168" s="4" t="n"/>
-      <c r="H168" s="18" t="n"/>
-      <c r="I168" s="20" t="n"/>
-    </row>
-    <row r="169">
-      <c r="F169" s="20" t="n"/>
-      <c r="I169" s="20" t="n"/>
-    </row>
-    <row r="170" ht="17" customHeight="1">
-      <c r="A170" s="11" t="inlineStr">
+      <c r="E170" s="4" t="n"/>
+      <c r="F170" s="16" t="n"/>
+      <c r="G170" s="4" t="n"/>
+      <c r="H170" s="14" t="n"/>
+      <c r="I170" s="16" t="n"/>
+    </row>
+    <row r="171" ht="17" customHeight="1">
+      <c r="F171" s="16" t="n"/>
+      <c r="I171" s="16" t="n"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="23" t="inlineStr">
         <is>
           <t>Section 14: Edge Cases &amp; Error Handling</t>
         </is>
       </c>
-      <c r="B170" s="15" t="n"/>
-      <c r="C170" s="15" t="n"/>
-      <c r="D170" s="15" t="n"/>
-      <c r="E170" s="15" t="n"/>
-      <c r="F170" s="20" t="n"/>
-      <c r="G170" s="16" t="n"/>
-      <c r="I170" s="20" t="n"/>
-    </row>
-    <row r="171" ht="17" customHeight="1">
-      <c r="A171" s="3" t="inlineStr">
+      <c r="B172" s="22" t="n"/>
+      <c r="C172" s="22" t="n"/>
+      <c r="D172" s="22" t="n"/>
+      <c r="E172" s="22" t="n"/>
+      <c r="F172" s="22" t="n"/>
+      <c r="G172" s="22" t="n"/>
+      <c r="H172" s="22" t="n"/>
+      <c r="I172" s="24" t="n"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="3" t="inlineStr">
         <is>
           <t>#</t>
         </is>
       </c>
-      <c r="B171" s="3" t="inlineStr">
+      <c r="B173" s="3" t="inlineStr">
         <is>
           <t>Test Case</t>
         </is>
       </c>
-      <c r="C171" s="3" t="inlineStr">
+      <c r="C173" s="3" t="inlineStr">
         <is>
           <t>Steps</t>
         </is>
       </c>
-      <c r="D171" s="3" t="inlineStr">
+      <c r="D173" s="3" t="inlineStr">
         <is>
           <t>Expected Result</t>
         </is>
       </c>
-      <c r="E171" s="3" t="inlineStr">
+      <c r="E173" s="3" t="inlineStr">
         <is>
           <t>Result</t>
         </is>
       </c>
-      <c r="F171" s="20" t="n"/>
-      <c r="G171" s="3" t="inlineStr">
+      <c r="F173" s="15" t="inlineStr">
+        <is>
+          <t>Date Tested</t>
+        </is>
+      </c>
+      <c r="G173" s="3" t="inlineStr">
         <is>
           <t>Notes</t>
         </is>
       </c>
-      <c r="H171" s="17" t="inlineStr">
+      <c r="H173" s="13" t="inlineStr">
         <is>
           <t>Retest</t>
         </is>
       </c>
-      <c r="I171" s="20" t="n"/>
-    </row>
-    <row r="172">
-      <c r="A172" s="4" t="inlineStr">
-        <is>
-          <t>14.1</t>
-        </is>
-      </c>
-      <c r="B172" s="4" t="inlineStr">
-        <is>
-          <t>Refreshing preserves data</t>
-        </is>
-      </c>
-      <c r="C172" s="4" t="inlineStr">
-        <is>
-          <t>Fill in several steps, refresh the browser</t>
-        </is>
-      </c>
-      <c r="D172" s="4" t="inlineStr">
-        <is>
-          <t>Data may be restored from localStorage auto-save</t>
-        </is>
-      </c>
-      <c r="E172" s="4" t="n"/>
-      <c r="F172" s="20" t="n"/>
-      <c r="G172" s="4" t="n"/>
-      <c r="H172" s="18" t="n"/>
-      <c r="I172" s="20" t="n"/>
-    </row>
-    <row r="173">
-      <c r="A173" s="4" t="inlineStr">
-        <is>
-          <t>14.2</t>
-        </is>
-      </c>
-      <c r="B173" s="4" t="inlineStr">
-        <is>
-          <t>Tab switch doesn't cause issues</t>
-        </is>
-      </c>
-      <c r="C173" s="4" t="inlineStr">
-        <is>
-          <t>Switch away from the tab for 30+ seconds, return</t>
-        </is>
-      </c>
-      <c r="D173" s="4" t="inlineStr">
-        <is>
-          <t>Form still functional, no errors</t>
-        </is>
-      </c>
-      <c r="E173" s="4" t="n"/>
-      <c r="F173" s="20" t="n"/>
-      <c r="G173" s="4" t="n"/>
-      <c r="H173" s="18" t="n"/>
-      <c r="I173" s="20" t="n"/>
+      <c r="I173" s="15" t="inlineStr">
+        <is>
+          <t>Retest Date</t>
+        </is>
+      </c>
     </row>
     <row r="174" ht="30" customHeight="1">
       <c r="A174" s="4" t="inlineStr">
         <is>
-          <t>14.3</t>
+          <t>14.1</t>
         </is>
       </c>
       <c r="B174" s="4" t="inlineStr">
         <is>
-          <t>Empty optional composite fields</t>
+          <t>Refreshing preserves data</t>
         </is>
       </c>
       <c r="C174" s="4" t="inlineStr">
         <is>
-          <t>Leave Secondary Contact completely empty through all steps</t>
+          <t>Fill in several steps, refresh the browser</t>
         </is>
       </c>
       <c r="D174" s="4" t="inlineStr">
         <is>
-          <t>No errors anywhere; review shows "Not provided"</t>
+          <t>Data may be restored from localStorage auto-save</t>
         </is>
       </c>
       <c r="E174" s="4" t="n"/>
-      <c r="F174" s="20" t="n"/>
+      <c r="F174" s="16" t="n"/>
       <c r="G174" s="4" t="n"/>
-      <c r="H174" s="18" t="n"/>
-      <c r="I174" s="20" t="n"/>
+      <c r="H174" s="14" t="n"/>
+      <c r="I174" s="16" t="n"/>
     </row>
     <row r="175">
       <c r="A175" s="4" t="inlineStr">
         <is>
-          <t>14.4</t>
+          <t>14.2</t>
         </is>
       </c>
       <c r="B175" s="4" t="inlineStr">
         <is>
-          <t>Long text in fields</t>
+          <t>Tab switch doesn't cause issues</t>
         </is>
       </c>
       <c r="C175" s="4" t="inlineStr">
         <is>
-          <t>Enter 200+ characters in Clinic Name</t>
+          <t>Switch away from the tab for 30+ seconds, return</t>
         </is>
       </c>
       <c r="D175" s="4" t="inlineStr">
         <is>
-          <t>Field accepts up to max_length (200), truncates beyond</t>
+          <t>Form still functional, no errors</t>
         </is>
       </c>
       <c r="E175" s="4" t="n"/>
-      <c r="F175" s="20" t="n"/>
+      <c r="F175" s="16" t="n"/>
       <c r="G175" s="4" t="n"/>
-      <c r="H175" s="18" t="n"/>
-      <c r="I175" s="20" t="n"/>
+      <c r="H175" s="14" t="n"/>
+      <c r="I175" s="16" t="n"/>
     </row>
     <row r="176">
       <c r="A176" s="4" t="inlineStr">
         <is>
-          <t>14.5</t>
+          <t>14.3</t>
         </is>
       </c>
       <c r="B176" s="4" t="inlineStr">
         <is>
-          <t>Special characters in text fields</t>
+          <t>Empty optional composite fields</t>
         </is>
       </c>
       <c r="C176" s="4" t="inlineStr">
         <is>
-          <t>Enter "O'Brien &amp; Associates — Test Clinic"</t>
+          <t>Leave Secondary Contact completely empty through all steps</t>
         </is>
       </c>
       <c r="D176" s="4" t="inlineStr">
         <is>
-          <t>Characters displayed correctly, no XSS or encoding issues</t>
+          <t>No errors anywhere; review shows "Not provided"</t>
         </is>
       </c>
       <c r="E176" s="4" t="n"/>
-      <c r="F176" s="20" t="n"/>
+      <c r="F176" s="16" t="n"/>
       <c r="G176" s="4" t="n"/>
-      <c r="H176" s="18" t="n"/>
-      <c r="I176" s="20" t="n"/>
+      <c r="H176" s="14" t="n"/>
+      <c r="I176" s="16" t="n"/>
     </row>
     <row r="177" ht="30" customHeight="1">
       <c r="A177" s="4" t="inlineStr">
         <is>
-          <t>14.6</t>
+          <t>14.4</t>
         </is>
       </c>
       <c r="B177" s="4" t="inlineStr">
         <is>
-          <t>Submit fails gracefully</t>
+          <t>Long text in fields</t>
         </is>
       </c>
       <c r="C177" s="4" t="inlineStr">
         <is>
-          <t>(Simulate by disconnecting network before submitting)</t>
+          <t>Enter 200+ characters in Clinic Name</t>
         </is>
       </c>
       <c r="D177" s="4" t="inlineStr">
         <is>
-          <t>Error message: "Failed to submit to database. Please try downloading the JSON and emailing it manually."</t>
+          <t>Field accepts up to max_length (200), truncates beyond</t>
         </is>
       </c>
       <c r="E177" s="4" t="n"/>
-      <c r="F177" s="20" t="n"/>
+      <c r="F177" s="16" t="n"/>
       <c r="G177" s="4" t="n"/>
-      <c r="H177" s="18" t="n"/>
-      <c r="I177" s="20" t="n"/>
+      <c r="H177" s="14" t="n"/>
+      <c r="I177" s="16" t="n"/>
     </row>
     <row r="178">
       <c r="A178" s="4" t="inlineStr">
         <is>
+          <t>14.5</t>
+        </is>
+      </c>
+      <c r="B178" s="4" t="inlineStr">
+        <is>
+          <t>Special characters in text fields</t>
+        </is>
+      </c>
+      <c r="C178" s="4" t="inlineStr">
+        <is>
+          <t>Enter "O'Brien &amp; Associates — Test Clinic"</t>
+        </is>
+      </c>
+      <c r="D178" s="4" t="inlineStr">
+        <is>
+          <t>Characters displayed correctly, no XSS or encoding issues</t>
+        </is>
+      </c>
+      <c r="E178" s="4" t="n"/>
+      <c r="F178" s="16" t="n"/>
+      <c r="G178" s="4" t="n"/>
+      <c r="H178" s="14" t="n"/>
+      <c r="I178" s="16" t="n"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="4" t="inlineStr">
+        <is>
+          <t>14.6</t>
+        </is>
+      </c>
+      <c r="B179" s="4" t="inlineStr">
+        <is>
+          <t>Submit fails gracefully</t>
+        </is>
+      </c>
+      <c r="C179" s="4" t="inlineStr">
+        <is>
+          <t>(Simulate by disconnecting network before submitting)</t>
+        </is>
+      </c>
+      <c r="D179" s="4" t="inlineStr">
+        <is>
+          <t>Error message: "Failed to submit to database. Please try downloading the JSON and emailing it manually."</t>
+        </is>
+      </c>
+      <c r="E179" s="4" t="n"/>
+      <c r="F179" s="16" t="n"/>
+      <c r="G179" s="4" t="n"/>
+      <c r="H179" s="14" t="n"/>
+      <c r="I179" s="16" t="n"/>
+    </row>
+    <row r="180" ht="17" customHeight="1">
+      <c r="A180" s="4" t="inlineStr">
+        <is>
           <t>14.7</t>
         </is>
       </c>
-      <c r="B178" s="4" t="inlineStr">
+      <c r="B180" s="4" t="inlineStr">
         <is>
           <t>Multiple rapid Next clicks</t>
         </is>
       </c>
-      <c r="C178" s="4" t="inlineStr">
+      <c r="C180" s="4" t="inlineStr">
         <is>
           <t>Rapidly click Next 5 times</t>
         </is>
       </c>
-      <c r="D178" s="4" t="inlineStr">
+      <c r="D180" s="4" t="inlineStr">
         <is>
           <t>Form advances one step at a time, no double-jumps or errors</t>
         </is>
       </c>
-      <c r="E178" s="4" t="n"/>
-      <c r="F178" s="20" t="n"/>
-      <c r="G178" s="4" t="n"/>
-      <c r="H178" s="18" t="n"/>
-      <c r="I178" s="20" t="n"/>
-    </row>
-    <row r="179">
-      <c r="F179" s="20" t="n"/>
-      <c r="I179" s="20" t="n"/>
-    </row>
-    <row r="180" ht="17" customHeight="1">
-      <c r="A180" s="11" t="inlineStr">
+      <c r="E180" s="4" t="n"/>
+      <c r="F180" s="16" t="n"/>
+      <c r="G180" s="4" t="n"/>
+      <c r="H180" s="14" t="n"/>
+      <c r="I180" s="16" t="n"/>
+    </row>
+    <row r="181" ht="17" customHeight="1">
+      <c r="F181" s="16" t="n"/>
+      <c r="I181" s="16" t="n"/>
+    </row>
+    <row r="182" ht="30" customHeight="1">
+      <c r="A182" s="23" t="inlineStr">
         <is>
           <t>Section 15: Champion-is-Primary Logic (Output Verification)</t>
         </is>
       </c>
-      <c r="B180" s="15" t="n"/>
-      <c r="C180" s="15" t="n"/>
-      <c r="D180" s="15" t="n"/>
-      <c r="E180" s="15" t="n"/>
-      <c r="F180" s="20" t="n"/>
-      <c r="G180" s="16" t="n"/>
-      <c r="I180" s="20" t="n"/>
-    </row>
-    <row r="181" ht="17" customHeight="1">
-      <c r="A181" s="3" t="inlineStr">
+      <c r="B182" s="22" t="n"/>
+      <c r="C182" s="22" t="n"/>
+      <c r="D182" s="22" t="n"/>
+      <c r="E182" s="22" t="n"/>
+      <c r="F182" s="22" t="n"/>
+      <c r="G182" s="22" t="n"/>
+      <c r="H182" s="22" t="n"/>
+      <c r="I182" s="24" t="n"/>
+    </row>
+    <row r="183" ht="30" customHeight="1">
+      <c r="A183" s="3" t="inlineStr">
         <is>
           <t>#</t>
         </is>
       </c>
-      <c r="B181" s="3" t="inlineStr">
+      <c r="B183" s="3" t="inlineStr">
         <is>
           <t>Test Case</t>
         </is>
       </c>
-      <c r="C181" s="3" t="inlineStr">
+      <c r="C183" s="3" t="inlineStr">
         <is>
           <t>Steps</t>
         </is>
       </c>
-      <c r="D181" s="3" t="inlineStr">
+      <c r="D183" s="3" t="inlineStr">
         <is>
           <t>Expected Result</t>
         </is>
       </c>
-      <c r="E181" s="3" t="inlineStr">
+      <c r="E183" s="3" t="inlineStr">
         <is>
           <t>Result</t>
         </is>
       </c>
-      <c r="F181" s="20" t="n"/>
-      <c r="G181" s="3" t="inlineStr">
+      <c r="F183" s="15" t="inlineStr">
+        <is>
+          <t>Date Tested</t>
+        </is>
+      </c>
+      <c r="G183" s="3" t="inlineStr">
         <is>
           <t>Notes</t>
         </is>
       </c>
-      <c r="H181" s="17" t="inlineStr">
+      <c r="H183" s="13" t="inlineStr">
         <is>
           <t>Retest</t>
         </is>
       </c>
-      <c r="I181" s="20" t="n"/>
-    </row>
-    <row r="182" ht="30" customHeight="1">
-      <c r="A182" s="4" t="inlineStr">
-        <is>
-          <t>15.1</t>
-        </is>
-      </c>
-      <c r="B182" s="4" t="inlineStr">
-        <is>
-          <t>champion_is_primary = true in output</t>
-        </is>
-      </c>
-      <c r="C182" s="4" t="inlineStr">
-        <is>
-          <t>Check "Champion is also primary", complete form, download JSON</t>
-        </is>
-      </c>
-      <c r="D182" s="4" t="inlineStr">
-        <is>
-          <t>`contacts.champion_is_primary` is `true`, `contacts.primary` copies champion data with `is_also_champion: true`</t>
-        </is>
-      </c>
-      <c r="E182" s="4" t="n"/>
-      <c r="F182" s="20" t="n"/>
-      <c r="G182" s="4" t="n"/>
-      <c r="H182" s="18" t="n"/>
-      <c r="I182" s="20" t="n"/>
-    </row>
-    <row r="183" ht="30" customHeight="1">
-      <c r="A183" s="4" t="inlineStr">
-        <is>
-          <t>15.2</t>
-        </is>
-      </c>
-      <c r="B183" s="4" t="inlineStr">
-        <is>
-          <t>champion_is_primary = false in output</t>
-        </is>
-      </c>
-      <c r="C183" s="4" t="inlineStr">
-        <is>
-          <t>Uncheck "Champion is also primary", fill separate Primary Contact, download JSON</t>
-        </is>
-      </c>
-      <c r="D183" s="4" t="inlineStr">
-        <is>
-          <t>`contacts.champion_is_primary` is `false`, `contacts.primary` has the separate contact data</t>
-        </is>
-      </c>
-      <c r="E183" s="4" t="n"/>
-      <c r="F183" s="20" t="n"/>
-      <c r="G183" s="4" t="n"/>
-      <c r="H183" s="18" t="n"/>
-      <c r="I183" s="20" t="n"/>
+      <c r="I183" s="15" t="inlineStr">
+        <is>
+          <t>Retest Date</t>
+        </is>
+      </c>
     </row>
     <row r="184">
       <c r="A184" s="4" t="inlineStr">
         <is>
-          <t>Section</t>
+          <t>15.1</t>
         </is>
       </c>
       <c r="B184" s="4" t="inlineStr">
         <is>
-          <t>Total Tests</t>
+          <t>champion_is_primary = true in output</t>
         </is>
       </c>
       <c r="C184" s="4" t="inlineStr">
         <is>
-          <t>Pass</t>
+          <t>Check "Champion is also primary", complete form, download JSON</t>
         </is>
       </c>
       <c r="D184" s="4" t="inlineStr">
         <is>
-          <t>Fail</t>
-        </is>
-      </c>
-      <c r="E184" s="4" t="inlineStr">
-        <is>
-          <t>Skip</t>
-        </is>
-      </c>
-      <c r="F184" s="20" t="n"/>
-      <c r="G184" s="5" t="n"/>
-      <c r="I184" s="20" t="n"/>
+          <t>`contacts.champion_is_primary` is `true`, `contacts.primary` copies champion data with `is_also_champion: true`</t>
+        </is>
+      </c>
+      <c r="E184" s="4" t="n"/>
+      <c r="F184" s="16" t="n"/>
+      <c r="G184" s="4" t="n"/>
+      <c r="H184" s="14" t="n"/>
+      <c r="I184" s="16" t="n"/>
     </row>
     <row r="185" ht="45" customHeight="1">
       <c r="A185" s="4" t="inlineStr">
         <is>
-          <t>1. Authentication</t>
+          <t>15.2</t>
         </is>
       </c>
       <c r="B185" s="4" t="inlineStr">
         <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="C185" s="4" t="n"/>
-      <c r="D185" s="4" t="n"/>
+          <t>champion_is_primary = false in output</t>
+        </is>
+      </c>
+      <c r="C185" s="4" t="inlineStr">
+        <is>
+          <t>Uncheck "Champion is also primary", fill separate Primary Contact, download JSON</t>
+        </is>
+      </c>
+      <c r="D185" s="4" t="inlineStr">
+        <is>
+          <t>`contacts.champion_is_primary` is `false`, `contacts.primary` has the separate contact data</t>
+        </is>
+      </c>
       <c r="E185" s="4" t="n"/>
-      <c r="F185" s="20" t="n"/>
-      <c r="G185" s="5" t="n"/>
-      <c r="I185" s="20" t="n"/>
+      <c r="F185" s="16" t="n"/>
+      <c r="G185" s="4" t="n"/>
+      <c r="H185" s="14" t="n"/>
+      <c r="I185" s="16" t="n"/>
     </row>
     <row r="186" ht="60" customHeight="1">
       <c r="A186" s="4" t="inlineStr">
         <is>
-          <t>2. Program Selection</t>
+          <t>Section</t>
         </is>
       </c>
       <c r="B186" s="4" t="inlineStr">
         <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="C186" s="4" t="n"/>
-      <c r="D186" s="4" t="n"/>
-      <c r="E186" s="4" t="n"/>
-      <c r="F186" s="20" t="n"/>
+          <t>Total Tests</t>
+        </is>
+      </c>
+      <c r="C186" s="4" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="D186" s="4" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+      <c r="E186" s="4" t="inlineStr">
+        <is>
+          <t>Skip</t>
+        </is>
+      </c>
+      <c r="F186" s="16" t="n"/>
       <c r="G186" s="5" t="n"/>
-      <c r="I186" s="20" t="n"/>
+      <c r="I186" s="16" t="n"/>
     </row>
     <row r="187" ht="45" customHeight="1">
       <c r="A187" s="4" t="inlineStr">
         <is>
-          <t>3. Clinic Information</t>
+          <t>1. Authentication</t>
         </is>
       </c>
       <c r="B187" s="4" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C187" s="4" t="n"/>
       <c r="D187" s="4" t="n"/>
       <c r="E187" s="4" t="n"/>
-      <c r="F187" s="20" t="n"/>
+      <c r="F187" s="16" t="n"/>
       <c r="G187" s="5" t="n"/>
-      <c r="I187" s="20" t="n"/>
+      <c r="I187" s="16" t="n"/>
     </row>
     <row r="188" ht="30" customHeight="1">
       <c r="A188" s="4" t="inlineStr">
         <is>
-          <t>4. Contacts</t>
+          <t>2. Program Selection</t>
         </is>
       </c>
       <c r="B188" s="4" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C188" s="4" t="n"/>
       <c r="D188" s="4" t="n"/>
       <c r="E188" s="4" t="n"/>
-      <c r="F188" s="20" t="n"/>
+      <c r="F188" s="16" t="n"/>
       <c r="G188" s="5" t="n"/>
-      <c r="I188" s="20" t="n"/>
+      <c r="I188" s="16" t="n"/>
     </row>
     <row r="189" ht="45" customHeight="1">
       <c r="A189" s="4" t="inlineStr">
         <is>
-          <t>5. Key Stakeholders</t>
+          <t>3. Clinic Information</t>
         </is>
       </c>
       <c r="B189" s="4" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C189" s="4" t="n"/>
       <c r="D189" s="4" t="n"/>
       <c r="E189" s="4" t="n"/>
-      <c r="F189" s="20" t="n"/>
+      <c r="F189" s="16" t="n"/>
       <c r="G189" s="5" t="n"/>
-      <c r="I189" s="20" t="n"/>
+      <c r="I189" s="16" t="n"/>
     </row>
     <row r="190" ht="45" customHeight="1">
       <c r="A190" s="4" t="inlineStr">
         <is>
-          <t>6. Lab Configuration</t>
+          <t>4. Contacts</t>
         </is>
       </c>
       <c r="B190" s="4" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C190" s="4" t="n"/>
       <c r="D190" s="4" t="n"/>
       <c r="E190" s="4" t="n"/>
-      <c r="F190" s="20" t="n"/>
+      <c r="F190" s="16" t="n"/>
       <c r="G190" s="5" t="n"/>
-      <c r="I190" s="20" t="n"/>
+      <c r="I190" s="16" t="n"/>
     </row>
     <row r="191" ht="60" customHeight="1">
       <c r="A191" s="4" t="inlineStr">
         <is>
-          <t>7. Additional Test Panels</t>
+          <t>5. Key Stakeholders</t>
         </is>
       </c>
       <c r="B191" s="4" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C191" s="4" t="n"/>
       <c r="D191" s="4" t="n"/>
       <c r="E191" s="4" t="n"/>
-      <c r="F191" s="20" t="n"/>
+      <c r="F191" s="16" t="n"/>
       <c r="G191" s="5" t="n"/>
-      <c r="I191" s="20" t="n"/>
+      <c r="I191" s="16" t="n"/>
     </row>
     <row r="192" ht="60" customHeight="1">
       <c r="A192" s="4" t="inlineStr">
         <is>
-          <t>8. Ordering Providers</t>
+          <t>6. Lab Configuration</t>
         </is>
       </c>
       <c r="B192" s="4" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C192" s="4" t="n"/>
       <c r="D192" s="4" t="n"/>
       <c r="E192" s="4" t="n"/>
-      <c r="F192" s="20" t="n"/>
+      <c r="F192" s="16" t="n"/>
       <c r="G192" s="5" t="n"/>
-      <c r="I192" s="20" t="n"/>
+      <c r="I192" s="16" t="n"/>
     </row>
     <row r="193" ht="45" customHeight="1">
       <c r="A193" s="4" t="inlineStr">
         <is>
-          <t>9. Extract Filtering</t>
+          <t>7. Additional Test Panels</t>
         </is>
       </c>
       <c r="B193" s="4" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C193" s="4" t="n"/>
       <c r="D193" s="4" t="n"/>
       <c r="E193" s="4" t="n"/>
-      <c r="F193" s="20" t="n"/>
+      <c r="F193" s="16" t="n"/>
       <c r="G193" s="5" t="n"/>
-      <c r="I193" s="20" t="n"/>
+      <c r="I193" s="16" t="n"/>
     </row>
     <row r="194" ht="75" customHeight="1">
       <c r="A194" s="4" t="inlineStr">
         <is>
-          <t>10. Review &amp; Download</t>
+          <t>8. Ordering Providers</t>
         </is>
       </c>
       <c r="B194" s="4" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C194" s="4" t="n"/>
       <c r="D194" s="4" t="n"/>
       <c r="E194" s="4" t="n"/>
-      <c r="F194" s="20" t="n"/>
+      <c r="F194" s="16" t="n"/>
       <c r="G194" s="5" t="n"/>
-      <c r="I194" s="20" t="n"/>
+      <c r="I194" s="16" t="n"/>
     </row>
     <row r="195" ht="60" customHeight="1">
       <c r="A195" s="4" t="inlineStr">
         <is>
-          <t>11. Navigation &amp; Progress</t>
+          <t>9. Extract Filtering</t>
         </is>
       </c>
       <c r="B195" s="4" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C195" s="4" t="n"/>
       <c r="D195" s="4" t="n"/>
       <c r="E195" s="4" t="n"/>
-      <c r="F195" s="20" t="n"/>
+      <c r="F195" s="16" t="n"/>
       <c r="G195" s="5" t="n"/>
-      <c r="I195" s="20" t="n"/>
+      <c r="I195" s="16" t="n"/>
     </row>
     <row r="196" ht="45" customHeight="1">
       <c r="A196" s="4" t="inlineStr">
         <is>
-          <t>12. Auto-Save &amp; Resume</t>
+          <t>10. Review &amp; Download</t>
         </is>
       </c>
       <c r="B196" s="4" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C196" s="4" t="n"/>
       <c r="D196" s="4" t="n"/>
       <c r="E196" s="4" t="n"/>
-      <c r="F196" s="20" t="n"/>
+      <c r="F196" s="16" t="n"/>
       <c r="G196" s="5" t="n"/>
-      <c r="I196" s="20" t="n"/>
+      <c r="I196" s="16" t="n"/>
     </row>
     <row r="197" ht="60" customHeight="1">
       <c r="A197" s="4" t="inlineStr">
         <is>
-          <t>13. Responsive / Mobile</t>
+          <t>11. Navigation &amp; Progress</t>
         </is>
       </c>
       <c r="B197" s="4" t="inlineStr">
@@ -5746,125 +5984,177 @@
       <c r="C197" s="4" t="n"/>
       <c r="D197" s="4" t="n"/>
       <c r="E197" s="4" t="n"/>
-      <c r="F197" s="20" t="n"/>
+      <c r="F197" s="16" t="n"/>
       <c r="G197" s="5" t="n"/>
-      <c r="I197" s="20" t="n"/>
+      <c r="I197" s="16" t="n"/>
     </row>
     <row r="198" ht="30" customHeight="1">
       <c r="A198" s="4" t="inlineStr">
         <is>
-          <t>14. Edge Cases</t>
+          <t>12. Auto-Save &amp; Resume</t>
         </is>
       </c>
       <c r="B198" s="4" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C198" s="4" t="n"/>
       <c r="D198" s="4" t="n"/>
       <c r="E198" s="4" t="n"/>
-      <c r="F198" s="20" t="n"/>
+      <c r="F198" s="16" t="n"/>
       <c r="G198" s="5" t="n"/>
-      <c r="I198" s="20" t="n"/>
+      <c r="I198" s="16" t="n"/>
     </row>
     <row r="199" ht="60" customHeight="1">
       <c r="A199" s="4" t="inlineStr">
         <is>
-          <t>15. Champion-is-Primary</t>
+          <t>13. Responsive / Mobile</t>
         </is>
       </c>
       <c r="B199" s="4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C199" s="4" t="n"/>
       <c r="D199" s="4" t="n"/>
       <c r="E199" s="4" t="n"/>
-      <c r="F199" s="20" t="n"/>
+      <c r="F199" s="16" t="n"/>
       <c r="G199" s="5" t="n"/>
-      <c r="I199" s="20" t="n"/>
+      <c r="I199" s="16" t="n"/>
     </row>
     <row r="200" ht="30" customHeight="1">
       <c r="A200" s="4" t="inlineStr">
         <is>
-          <t>**TOTAL**</t>
+          <t>14. Edge Cases</t>
         </is>
       </c>
       <c r="B200" s="4" t="inlineStr">
         <is>
-          <t>**133**</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C200" s="4" t="n"/>
       <c r="D200" s="4" t="n"/>
       <c r="E200" s="4" t="n"/>
-      <c r="F200" s="20" t="n"/>
+      <c r="F200" s="16" t="n"/>
       <c r="G200" s="5" t="n"/>
-      <c r="I200" s="20" t="n"/>
+      <c r="I200" s="16" t="n"/>
     </row>
     <row r="201">
       <c r="A201" s="4" t="inlineStr">
         <is>
-          <t>Tester</t>
-        </is>
-      </c>
-      <c r="B201" s="4" t="n"/>
+          <t>15. Champion-is-Primary</t>
+        </is>
+      </c>
+      <c r="B201" s="4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="C201" s="4" t="n"/>
       <c r="D201" s="4" t="n"/>
-      <c r="E201" s="5" t="n"/>
-      <c r="F201" s="20" t="n"/>
+      <c r="E201" s="4" t="n"/>
+      <c r="F201" s="16" t="n"/>
       <c r="G201" s="5" t="n"/>
-      <c r="I201" s="20" t="n"/>
+      <c r="I201" s="16" t="n"/>
     </row>
     <row r="202" ht="30" customHeight="1">
       <c r="A202" s="4" t="inlineStr">
         <is>
-          <t>Developer</t>
-        </is>
-      </c>
-      <c r="B202" s="4" t="n"/>
+          <t>**TOTAL**</t>
+        </is>
+      </c>
+      <c r="B202" s="4" t="inlineStr">
+        <is>
+          <t>**133**</t>
+        </is>
+      </c>
       <c r="C202" s="4" t="n"/>
       <c r="D202" s="4" t="n"/>
-      <c r="E202" s="5" t="n"/>
-      <c r="F202" s="20" t="n"/>
+      <c r="E202" s="4" t="n"/>
+      <c r="F202" s="16" t="n"/>
       <c r="G202" s="5" t="n"/>
-      <c r="I202" s="20" t="n"/>
+      <c r="I202" s="16" t="n"/>
     </row>
     <row r="203" ht="30" customHeight="1">
       <c r="A203" s="4" t="inlineStr">
         <is>
-          <t>Product Owner</t>
+          <t>Tester</t>
         </is>
       </c>
       <c r="B203" s="4" t="n"/>
       <c r="C203" s="4" t="n"/>
       <c r="D203" s="4" t="n"/>
       <c r="E203" s="5" t="n"/>
-      <c r="F203" s="20" t="n"/>
+      <c r="F203" s="16" t="n"/>
       <c r="G203" s="5" t="n"/>
-      <c r="I203" s="20" t="n"/>
+      <c r="I203" s="16" t="n"/>
+    </row>
+    <row r="204">
+      <c r="A204" s="4" t="inlineStr">
+        <is>
+          <t>Developer</t>
+        </is>
+      </c>
+      <c r="B204" s="4" t="n"/>
+      <c r="C204" s="4" t="n"/>
+      <c r="D204" s="4" t="n"/>
+      <c r="E204" s="5" t="n"/>
+      <c r="F204" s="16" t="n"/>
+      <c r="G204" s="5" t="n"/>
+      <c r="I204" s="16" t="n"/>
+    </row>
+    <row r="205">
+      <c r="A205" s="4" t="inlineStr">
+        <is>
+          <t>Product Owner</t>
+        </is>
+      </c>
+      <c r="B205" s="4" t="n"/>
+      <c r="C205" s="4" t="n"/>
+      <c r="D205" s="4" t="n"/>
+      <c r="E205" s="5" t="n"/>
+      <c r="F205" s="16" t="n"/>
+      <c r="G205" s="5" t="n"/>
+      <c r="I205" s="16" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A170:F170"/>
-    <mergeCell ref="A85:F85"/>
-    <mergeCell ref="A161:F161"/>
-    <mergeCell ref="A137:F137"/>
-    <mergeCell ref="A42:F42"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="A146:F146"/>
-    <mergeCell ref="A120:F120"/>
-    <mergeCell ref="A15:F15"/>
-    <mergeCell ref="A22:F22"/>
-    <mergeCell ref="A57:F57"/>
-    <mergeCell ref="A109:F109"/>
-    <mergeCell ref="A64:F64"/>
-    <mergeCell ref="A180:F180"/>
-    <mergeCell ref="A95:F95"/>
+    <mergeCell ref="A15:I15"/>
+    <mergeCell ref="A180:I180"/>
+    <mergeCell ref="A7:I7"/>
+    <mergeCell ref="A57:I57"/>
+    <mergeCell ref="A64:I64"/>
+    <mergeCell ref="A95:I95"/>
+    <mergeCell ref="A170:I170"/>
+    <mergeCell ref="A85:I85"/>
+    <mergeCell ref="A42:I42"/>
+    <mergeCell ref="A137:I137"/>
+    <mergeCell ref="A161:I161"/>
+    <mergeCell ref="A146:I146"/>
+    <mergeCell ref="A120:I120"/>
+    <mergeCell ref="A22:I22"/>
+    <mergeCell ref="A109:I109"/>
   </mergeCells>
-  <conditionalFormatting sqref="E8:E205">
+  <conditionalFormatting sqref="E8:E14 E16:E21 E23:E41 E43:E56 E58:E63 E65:E84 E86:E94 E96:E108 E110:E119 E121:E136 E138:E145 E147:E160 E162:E169 E171:E179 E181:E205">
+    <cfRule type="cellIs" priority="3" operator="equal" dxfId="1">
+      <formula>"PASS"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="4" operator="equal" dxfId="0">
+      <formula>"FAIL"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G8:G14 G16:G21 G23:G41 G43:G56 G58:G63 G65:G84 G86:G94 G96:G108 G110:G119 G121:G136 G138:G145 G147:G160 G162:G169 G171:G179 G181:G203">
+    <cfRule type="cellIs" priority="5" operator="equal" dxfId="1">
+      <formula>"PASS"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="6" operator="equal" dxfId="0">
+      <formula>"FAIL"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H17:H20">
     <cfRule type="cellIs" priority="1" operator="equal" dxfId="1">
       <formula>"PASS"</formula>
     </cfRule>
@@ -5872,19 +6162,11 @@
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G8:G203">
-    <cfRule type="cellIs" priority="3" operator="equal" dxfId="2">
-      <formula>"PASS"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="4" operator="equal" dxfId="3">
-      <formula>"FAIL"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation sqref="E8:E205" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Result" error="Please select PASS, FAIL, or SKIP" promptTitle="Result" prompt="Choose test result" type="list">
+    <dataValidation sqref="E8:E14 E16:E21 E23:E41 E43:E56 E58:E63 E65:E84 E86:E94 E96:E108 E110:E119 E121:E136 E138:E145 E147:E160 E162:E169 E171:E179 E181:E205 H17:H20" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Result" error="Please select PASS, FAIL, or SKIP" promptTitle="Result" prompt="Choose test result" type="list">
       <formula1>"PASS,FAIL,SKIP"</formula1>
     </dataValidation>
-    <dataValidation sqref="G8:G203" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Result" error="Please select PASS, FAIL, or SKIP" promptTitle="Retest" prompt="Retest result" type="list">
+    <dataValidation sqref="G8:G14 G16:G21 G23:G41 G43:G56 G58:G63 G65:G84 G86:G94 G96:G108 G110:G119 G121:G136 G138:G145 G147:G160 G162:G169 G171:G179 G181:G203" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Result" error="Please select PASS, FAIL, or SKIP" promptTitle="Retest" prompt="Retest result" type="list">
       <formula1>"PASS,FAIL,SKIP"</formula1>
     </dataValidation>
   </dataValidations>
